--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8041100</v>
+        <v>8859700</v>
       </c>
       <c r="E8" s="3">
-        <v>6551100</v>
+        <v>7860700</v>
       </c>
       <c r="F8" s="3">
-        <v>5983800</v>
+        <v>6404100</v>
       </c>
       <c r="G8" s="3">
-        <v>5648600</v>
+        <v>5849600</v>
       </c>
       <c r="H8" s="3">
-        <v>5189000</v>
+        <v>5521900</v>
       </c>
       <c r="I8" s="3">
-        <v>4697400</v>
+        <v>5072600</v>
       </c>
       <c r="J8" s="3">
+        <v>4592000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4476100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4159000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -922,18 +944,21 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>-5300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-7700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3835200</v>
+        <v>4536300</v>
       </c>
       <c r="E17" s="3">
-        <v>3086200</v>
+        <v>3749200</v>
       </c>
       <c r="F17" s="3">
-        <v>2810200</v>
+        <v>3017000</v>
       </c>
       <c r="G17" s="3">
-        <v>2577800</v>
+        <v>2747200</v>
       </c>
       <c r="H17" s="3">
-        <v>2357900</v>
+        <v>2520000</v>
       </c>
       <c r="I17" s="3">
-        <v>2033400</v>
+        <v>2305000</v>
       </c>
       <c r="J17" s="3">
+        <v>1987800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1992800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1832900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4205900</v>
+        <v>4323500</v>
       </c>
       <c r="E18" s="3">
-        <v>3464900</v>
+        <v>4111600</v>
       </c>
       <c r="F18" s="3">
-        <v>3173600</v>
+        <v>3387200</v>
       </c>
       <c r="G18" s="3">
-        <v>3070700</v>
+        <v>3102400</v>
       </c>
       <c r="H18" s="3">
-        <v>2831100</v>
+        <v>3001900</v>
       </c>
       <c r="I18" s="3">
-        <v>2664000</v>
+        <v>2767500</v>
       </c>
       <c r="J18" s="3">
+        <v>2604200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2483300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2326200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-722500</v>
+        <v>-672700</v>
       </c>
       <c r="E20" s="3">
-        <v>-428600</v>
+        <v>-706300</v>
       </c>
       <c r="F20" s="3">
-        <v>-447500</v>
+        <v>-419000</v>
       </c>
       <c r="G20" s="3">
-        <v>-278500</v>
+        <v>-437500</v>
       </c>
       <c r="H20" s="3">
-        <v>-70400</v>
+        <v>-272200</v>
       </c>
       <c r="I20" s="3">
-        <v>-77100</v>
+        <v>-68800</v>
       </c>
       <c r="J20" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-64600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-255700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3680900</v>
+        <v>3931500</v>
       </c>
       <c r="E21" s="3">
-        <v>3223300</v>
+        <v>3597400</v>
       </c>
       <c r="F21" s="3">
-        <v>2886500</v>
+        <v>3150100</v>
       </c>
       <c r="G21" s="3">
-        <v>2923700</v>
+        <v>2821000</v>
       </c>
       <c r="H21" s="3">
-        <v>2878900</v>
+        <v>2857500</v>
       </c>
       <c r="I21" s="3">
-        <v>2681000</v>
+        <v>2813800</v>
       </c>
       <c r="J21" s="3">
+        <v>2620400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2506700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3483400</v>
+        <v>3650800</v>
       </c>
       <c r="E23" s="3">
-        <v>3036300</v>
+        <v>3405200</v>
       </c>
       <c r="F23" s="3">
-        <v>2726000</v>
+        <v>2968200</v>
       </c>
       <c r="G23" s="3">
-        <v>2792300</v>
+        <v>2664900</v>
       </c>
       <c r="H23" s="3">
-        <v>2760600</v>
+        <v>2729600</v>
       </c>
       <c r="I23" s="3">
-        <v>2586900</v>
+        <v>2698700</v>
       </c>
       <c r="J23" s="3">
+        <v>2528900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2418700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2070400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>581300</v>
+        <v>573300</v>
       </c>
       <c r="E24" s="3">
-        <v>577500</v>
+        <v>568200</v>
       </c>
       <c r="F24" s="3">
-        <v>482800</v>
+        <v>564500</v>
       </c>
       <c r="G24" s="3">
-        <v>468200</v>
+        <v>472000</v>
       </c>
       <c r="H24" s="3">
-        <v>404700</v>
+        <v>457700</v>
       </c>
       <c r="I24" s="3">
-        <v>403500</v>
+        <v>395600</v>
       </c>
       <c r="J24" s="3">
+        <v>394500</v>
+      </c>
+      <c r="K24" s="3">
         <v>383000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>344500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2902100</v>
+        <v>3077500</v>
       </c>
       <c r="E26" s="3">
-        <v>2458800</v>
+        <v>2837000</v>
       </c>
       <c r="F26" s="3">
-        <v>2243200</v>
+        <v>2403600</v>
       </c>
       <c r="G26" s="3">
-        <v>2324100</v>
+        <v>2192900</v>
       </c>
       <c r="H26" s="3">
-        <v>2356000</v>
+        <v>2272000</v>
       </c>
       <c r="I26" s="3">
-        <v>2183400</v>
+        <v>2303100</v>
       </c>
       <c r="J26" s="3">
+        <v>2134400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2035700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1725900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2812700</v>
+        <v>2995800</v>
       </c>
       <c r="E27" s="3">
-        <v>2373100</v>
+        <v>2749600</v>
       </c>
       <c r="F27" s="3">
-        <v>2168100</v>
+        <v>2319900</v>
       </c>
       <c r="G27" s="3">
-        <v>2240000</v>
+        <v>2119400</v>
       </c>
       <c r="H27" s="3">
-        <v>2271300</v>
+        <v>2189800</v>
       </c>
       <c r="I27" s="3">
-        <v>2096500</v>
+        <v>2220400</v>
       </c>
       <c r="J27" s="3">
+        <v>2049500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1948900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1639900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>722500</v>
+        <v>672700</v>
       </c>
       <c r="E32" s="3">
-        <v>428600</v>
+        <v>706300</v>
       </c>
       <c r="F32" s="3">
-        <v>447500</v>
+        <v>419000</v>
       </c>
       <c r="G32" s="3">
-        <v>278500</v>
+        <v>437500</v>
       </c>
       <c r="H32" s="3">
-        <v>70400</v>
+        <v>272200</v>
       </c>
       <c r="I32" s="3">
-        <v>77100</v>
+        <v>68800</v>
       </c>
       <c r="J32" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K32" s="3">
         <v>64600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>255700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2812700</v>
+        <v>2995800</v>
       </c>
       <c r="E33" s="3">
-        <v>2373100</v>
+        <v>2749600</v>
       </c>
       <c r="F33" s="3">
-        <v>2168100</v>
+        <v>2319900</v>
       </c>
       <c r="G33" s="3">
-        <v>2240000</v>
+        <v>2119400</v>
       </c>
       <c r="H33" s="3">
-        <v>2271300</v>
+        <v>2189800</v>
       </c>
       <c r="I33" s="3">
-        <v>2096500</v>
+        <v>2220400</v>
       </c>
       <c r="J33" s="3">
+        <v>2049500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1948900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1639900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2812700</v>
+        <v>2995800</v>
       </c>
       <c r="E35" s="3">
-        <v>2373100</v>
+        <v>2749600</v>
       </c>
       <c r="F35" s="3">
-        <v>2168100</v>
+        <v>2319900</v>
       </c>
       <c r="G35" s="3">
-        <v>2240000</v>
+        <v>2119400</v>
       </c>
       <c r="H35" s="3">
-        <v>2271300</v>
+        <v>2189800</v>
       </c>
       <c r="I35" s="3">
-        <v>2096500</v>
+        <v>2220400</v>
       </c>
       <c r="J35" s="3">
+        <v>2049500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1948900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1639900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54891300</v>
+        <v>51732800</v>
       </c>
       <c r="E41" s="3">
-        <v>76095900</v>
+        <v>53880600</v>
       </c>
       <c r="F41" s="3">
-        <v>46448900</v>
+        <v>74694700</v>
       </c>
       <c r="G41" s="3">
-        <v>43992400</v>
+        <v>45593600</v>
       </c>
       <c r="H41" s="3">
-        <v>46030200</v>
+        <v>43182400</v>
       </c>
       <c r="I41" s="3">
-        <v>42073100</v>
+        <v>45182600</v>
       </c>
       <c r="J41" s="3">
+        <v>41298400</v>
+      </c>
+      <c r="K41" s="3">
         <v>35400200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19750800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11174000</v>
+        <v>12924400</v>
       </c>
       <c r="E42" s="3">
-        <v>9410900</v>
+        <v>10968300</v>
       </c>
       <c r="F42" s="3">
-        <v>10658300</v>
+        <v>9237600</v>
       </c>
       <c r="G42" s="3">
-        <v>8545000</v>
+        <v>10462000</v>
       </c>
       <c r="H42" s="3">
-        <v>8789500</v>
+        <v>8387600</v>
       </c>
       <c r="I42" s="3">
-        <v>11131800</v>
+        <v>8627600</v>
       </c>
       <c r="J42" s="3">
+        <v>10926800</v>
+      </c>
+      <c r="K42" s="3">
         <v>8220100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>844200</v>
+        <v>837800</v>
       </c>
       <c r="E47" s="3">
-        <v>862100</v>
+        <v>828600</v>
       </c>
       <c r="F47" s="3">
-        <v>800400</v>
+        <v>846200</v>
       </c>
       <c r="G47" s="3">
-        <v>798200</v>
+        <v>785600</v>
       </c>
       <c r="H47" s="3">
-        <v>858500</v>
+        <v>783500</v>
       </c>
       <c r="I47" s="3">
-        <v>719300</v>
+        <v>842700</v>
       </c>
       <c r="J47" s="3">
+        <v>706100</v>
+      </c>
+      <c r="K47" s="3">
         <v>795400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>805400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2365900</v>
+        <v>2618100</v>
       </c>
       <c r="E48" s="3">
-        <v>4415800</v>
+        <v>2322300</v>
       </c>
       <c r="F48" s="3">
-        <v>2157900</v>
+        <v>4334500</v>
       </c>
       <c r="G48" s="3">
-        <v>2054900</v>
+        <v>2118200</v>
       </c>
       <c r="H48" s="3">
-        <v>1723900</v>
+        <v>2017100</v>
       </c>
       <c r="I48" s="3">
-        <v>1655200</v>
+        <v>1692100</v>
       </c>
       <c r="J48" s="3">
+        <v>1624700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3247600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1604600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2986900</v>
+        <v>2938600</v>
       </c>
       <c r="E49" s="3">
-        <v>5979000</v>
+        <v>2931900</v>
       </c>
       <c r="F49" s="3">
-        <v>2996100</v>
+        <v>5868900</v>
       </c>
       <c r="G49" s="3">
-        <v>2990800</v>
+        <v>2940900</v>
       </c>
       <c r="H49" s="3">
-        <v>2994800</v>
+        <v>2935800</v>
       </c>
       <c r="I49" s="3">
-        <v>2990800</v>
+        <v>2939600</v>
       </c>
       <c r="J49" s="3">
+        <v>2935800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6016800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3093900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>204800</v>
+        <v>212200</v>
       </c>
       <c r="E52" s="3">
-        <v>139500</v>
+        <v>201000</v>
       </c>
       <c r="F52" s="3">
-        <v>181200</v>
+        <v>136900</v>
       </c>
       <c r="G52" s="3">
-        <v>163900</v>
+        <v>177900</v>
       </c>
       <c r="H52" s="3">
-        <v>167200</v>
+        <v>160800</v>
       </c>
       <c r="I52" s="3">
-        <v>207700</v>
+        <v>164100</v>
       </c>
       <c r="J52" s="3">
+        <v>203800</v>
+      </c>
+      <c r="K52" s="3">
         <v>214100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>246200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>280110000</v>
+        <v>286511000</v>
       </c>
       <c r="E54" s="3">
-        <v>258818000</v>
+        <v>274952000</v>
       </c>
       <c r="F54" s="3">
-        <v>245418000</v>
+        <v>254052000</v>
       </c>
       <c r="G54" s="3">
-        <v>228084000</v>
+        <v>240899000</v>
       </c>
       <c r="H54" s="3">
-        <v>221390000</v>
+        <v>223885000</v>
       </c>
       <c r="I54" s="3">
-        <v>205145000</v>
+        <v>217313000</v>
       </c>
       <c r="J54" s="3">
+        <v>201368000</v>
+      </c>
+      <c r="K54" s="3">
         <v>182533000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174721000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2497500</v>
+        <v>2074600</v>
       </c>
       <c r="E57" s="3">
-        <v>2573400</v>
+        <v>2451500</v>
       </c>
       <c r="F57" s="3">
-        <v>3018300</v>
+        <v>2526000</v>
       </c>
       <c r="G57" s="3">
-        <v>2620000</v>
+        <v>2962800</v>
       </c>
       <c r="H57" s="3">
-        <v>1423000</v>
+        <v>2571800</v>
       </c>
       <c r="I57" s="3">
-        <v>1372000</v>
+        <v>1396800</v>
       </c>
       <c r="J57" s="3">
+        <v>1346700</v>
+      </c>
+      <c r="K57" s="3">
         <v>385000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>292600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1117600</v>
+        <v>1142000</v>
       </c>
       <c r="E59" s="3">
-        <v>1075500</v>
+        <v>1097000</v>
       </c>
       <c r="F59" s="3">
-        <v>832000</v>
+        <v>1055700</v>
       </c>
       <c r="G59" s="3">
-        <v>826600</v>
+        <v>816700</v>
       </c>
       <c r="H59" s="3">
-        <v>743600</v>
+        <v>811300</v>
       </c>
       <c r="I59" s="3">
-        <v>815400</v>
+        <v>729900</v>
       </c>
       <c r="J59" s="3">
+        <v>800400</v>
+      </c>
+      <c r="K59" s="3">
         <v>867800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>805000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22089900</v>
+        <v>17977400</v>
       </c>
       <c r="E61" s="3">
-        <v>18172800</v>
+        <v>21683200</v>
       </c>
       <c r="F61" s="3">
-        <v>18868900</v>
+        <v>17838100</v>
       </c>
       <c r="G61" s="3">
-        <v>14643300</v>
+        <v>18521500</v>
       </c>
       <c r="H61" s="3">
-        <v>15123300</v>
+        <v>14373600</v>
       </c>
       <c r="I61" s="3">
-        <v>13700000</v>
+        <v>14844800</v>
       </c>
       <c r="J61" s="3">
+        <v>13447700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9238500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8690400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>201300</v>
+        <v>212000</v>
       </c>
       <c r="E62" s="3">
-        <v>128500</v>
+        <v>197600</v>
       </c>
       <c r="F62" s="3">
-        <v>167400</v>
+        <v>126100</v>
       </c>
       <c r="G62" s="3">
-        <v>138300</v>
+        <v>164300</v>
       </c>
       <c r="H62" s="3">
-        <v>115800</v>
+        <v>135700</v>
       </c>
       <c r="I62" s="3">
-        <v>62300</v>
+        <v>113700</v>
       </c>
       <c r="J62" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K62" s="3">
         <v>15600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>252955000</v>
+        <v>258430000</v>
       </c>
       <c r="E66" s="3">
-        <v>232221000</v>
+        <v>248297000</v>
       </c>
       <c r="F66" s="3">
-        <v>221692000</v>
+        <v>227945000</v>
       </c>
       <c r="G66" s="3">
-        <v>205877000</v>
+        <v>217610000</v>
       </c>
       <c r="H66" s="3">
-        <v>200048000</v>
+        <v>202086000</v>
       </c>
       <c r="I66" s="3">
-        <v>186099000</v>
+        <v>196364000</v>
       </c>
       <c r="J66" s="3">
+        <v>182673000</v>
+      </c>
+      <c r="K66" s="3">
         <v>164431000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>157786000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2397,23 +2564,26 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>600200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>600200</v>
+        <v>589100</v>
       </c>
       <c r="I70" s="3">
-        <v>600200</v>
+        <v>589100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>589100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22464900</v>
+        <v>23314700</v>
       </c>
       <c r="E72" s="3">
-        <v>27770700</v>
+        <v>22051300</v>
       </c>
       <c r="F72" s="3">
-        <v>19471000</v>
+        <v>27259300</v>
       </c>
       <c r="G72" s="3">
-        <v>18107300</v>
+        <v>19112500</v>
       </c>
       <c r="H72" s="3">
-        <v>17148900</v>
+        <v>17773900</v>
       </c>
       <c r="I72" s="3">
-        <v>15717400</v>
+        <v>16833100</v>
       </c>
       <c r="J72" s="3">
+        <v>15428000</v>
+      </c>
+      <c r="K72" s="3">
         <v>22078900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13697400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27154800</v>
+        <v>28081300</v>
       </c>
       <c r="E76" s="3">
-        <v>26596800</v>
+        <v>26654800</v>
       </c>
       <c r="F76" s="3">
-        <v>23726600</v>
+        <v>26107100</v>
       </c>
       <c r="G76" s="3">
-        <v>21607200</v>
+        <v>23289700</v>
       </c>
       <c r="H76" s="3">
-        <v>20741800</v>
+        <v>21209400</v>
       </c>
       <c r="I76" s="3">
-        <v>18445500</v>
+        <v>20359900</v>
       </c>
       <c r="J76" s="3">
+        <v>18105900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18101700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16934800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2812700</v>
+        <v>2995800</v>
       </c>
       <c r="E81" s="3">
-        <v>2373100</v>
+        <v>2749600</v>
       </c>
       <c r="F81" s="3">
-        <v>2168100</v>
+        <v>2319900</v>
       </c>
       <c r="G81" s="3">
-        <v>2240000</v>
+        <v>2119400</v>
       </c>
       <c r="H81" s="3">
-        <v>2271300</v>
+        <v>2189800</v>
       </c>
       <c r="I81" s="3">
-        <v>2096500</v>
+        <v>2220400</v>
       </c>
       <c r="J81" s="3">
+        <v>2049500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1948900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1639900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>196900</v>
+        <v>281300</v>
       </c>
       <c r="E83" s="3">
-        <v>186400</v>
+        <v>192500</v>
       </c>
       <c r="F83" s="3">
-        <v>160000</v>
+        <v>182200</v>
       </c>
       <c r="G83" s="3">
-        <v>131000</v>
+        <v>156400</v>
       </c>
       <c r="H83" s="3">
-        <v>117900</v>
+        <v>128100</v>
       </c>
       <c r="I83" s="3">
-        <v>93900</v>
+        <v>115300</v>
       </c>
       <c r="J83" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K83" s="3">
         <v>87700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2659800</v>
+        <v>5879300</v>
       </c>
       <c r="E89" s="3">
-        <v>2821300</v>
+        <v>-2615600</v>
       </c>
       <c r="F89" s="3">
-        <v>-9609100</v>
+        <v>2758000</v>
       </c>
       <c r="G89" s="3">
-        <v>477200</v>
+        <v>-9393600</v>
       </c>
       <c r="H89" s="3">
-        <v>5132300</v>
+        <v>466500</v>
       </c>
       <c r="I89" s="3">
-        <v>-8441100</v>
+        <v>5017200</v>
       </c>
       <c r="J89" s="3">
+        <v>-8251700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4576000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7048700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-372800</v>
+        <v>-404300</v>
       </c>
       <c r="E91" s="3">
-        <v>-252200</v>
+        <v>-364400</v>
       </c>
       <c r="F91" s="3">
-        <v>-276300</v>
+        <v>-246500</v>
       </c>
       <c r="G91" s="3">
-        <v>-499400</v>
+        <v>-270100</v>
       </c>
       <c r="H91" s="3">
-        <v>-186600</v>
+        <v>-488200</v>
       </c>
       <c r="I91" s="3">
-        <v>-159700</v>
+        <v>-182400</v>
       </c>
       <c r="J91" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-159200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-261300</v>
+        <v>-352900</v>
       </c>
       <c r="E94" s="3">
-        <v>-246100</v>
+        <v>-255400</v>
       </c>
       <c r="F94" s="3">
-        <v>-275600</v>
+        <v>-240500</v>
       </c>
       <c r="G94" s="3">
-        <v>-349000</v>
+        <v>-269400</v>
       </c>
       <c r="H94" s="3">
-        <v>43700</v>
+        <v>-341200</v>
       </c>
       <c r="I94" s="3">
-        <v>-51300</v>
+        <v>42800</v>
       </c>
       <c r="J94" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-48900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1188400</v>
+        <v>-1471000</v>
       </c>
       <c r="E96" s="3">
-        <v>-480000</v>
+        <v>-1161700</v>
       </c>
       <c r="F96" s="3">
-        <v>-672700</v>
+        <v>-469200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1070100</v>
+        <v>-657600</v>
       </c>
       <c r="H96" s="3">
-        <v>-510700</v>
+        <v>-1046100</v>
       </c>
       <c r="I96" s="3">
-        <v>-870200</v>
+        <v>-499300</v>
       </c>
       <c r="J96" s="3">
+        <v>-850600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-755600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-474000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1918200</v>
+        <v>-5361800</v>
       </c>
       <c r="E100" s="3">
-        <v>-254100</v>
+        <v>1875100</v>
       </c>
       <c r="F100" s="3">
-        <v>3408400</v>
+        <v>-248400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1689600</v>
+        <v>3331900</v>
       </c>
       <c r="H100" s="3">
-        <v>864500</v>
+        <v>-1651700</v>
       </c>
       <c r="I100" s="3">
-        <v>3589300</v>
+        <v>845100</v>
       </c>
       <c r="J100" s="3">
+        <v>3508800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-35700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22600</v>
+        <v>238100</v>
       </c>
       <c r="E101" s="3">
-        <v>-463000</v>
+        <v>22100</v>
       </c>
       <c r="F101" s="3">
-        <v>105400</v>
+        <v>-452600</v>
       </c>
       <c r="G101" s="3">
-        <v>-225900</v>
+        <v>103000</v>
       </c>
       <c r="H101" s="3">
-        <v>65800</v>
+        <v>-220900</v>
       </c>
       <c r="I101" s="3">
-        <v>-184700</v>
+        <v>64300</v>
       </c>
       <c r="J101" s="3">
+        <v>-180500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-234900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-980300</v>
+        <v>402700</v>
       </c>
       <c r="E102" s="3">
-        <v>1858100</v>
+        <v>-973800</v>
       </c>
       <c r="F102" s="3">
-        <v>-6371000</v>
+        <v>1816500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1787400</v>
+        <v>-6228100</v>
       </c>
       <c r="H102" s="3">
-        <v>6106300</v>
+        <v>-1747300</v>
       </c>
       <c r="I102" s="3">
-        <v>-5087700</v>
+        <v>5969300</v>
       </c>
       <c r="J102" s="3">
+        <v>-4973600</v>
+      </c>
+      <c r="K102" s="3">
         <v>4256400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8859700</v>
+        <v>9195700</v>
       </c>
       <c r="E8" s="3">
-        <v>7860700</v>
+        <v>8158900</v>
       </c>
       <c r="F8" s="3">
-        <v>6404100</v>
+        <v>6647000</v>
       </c>
       <c r="G8" s="3">
-        <v>5849600</v>
+        <v>6071400</v>
       </c>
       <c r="H8" s="3">
-        <v>5521900</v>
+        <v>5731300</v>
       </c>
       <c r="I8" s="3">
-        <v>5072600</v>
+        <v>5265000</v>
       </c>
       <c r="J8" s="3">
-        <v>4592000</v>
+        <v>4766100</v>
       </c>
       <c r="K8" s="3">
         <v>4476100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4536300</v>
+        <v>4708300</v>
       </c>
       <c r="E17" s="3">
-        <v>3749200</v>
+        <v>3891400</v>
       </c>
       <c r="F17" s="3">
-        <v>3017000</v>
+        <v>3131400</v>
       </c>
       <c r="G17" s="3">
-        <v>2747200</v>
+        <v>2851400</v>
       </c>
       <c r="H17" s="3">
-        <v>2520000</v>
+        <v>2615600</v>
       </c>
       <c r="I17" s="3">
-        <v>2305000</v>
+        <v>2392400</v>
       </c>
       <c r="J17" s="3">
-        <v>1987800</v>
+        <v>2063200</v>
       </c>
       <c r="K17" s="3">
         <v>1992800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4323500</v>
+        <v>4487400</v>
       </c>
       <c r="E18" s="3">
-        <v>4111600</v>
+        <v>4267500</v>
       </c>
       <c r="F18" s="3">
-        <v>3387200</v>
+        <v>3515600</v>
       </c>
       <c r="G18" s="3">
-        <v>3102400</v>
+        <v>3220000</v>
       </c>
       <c r="H18" s="3">
-        <v>3001900</v>
+        <v>3115700</v>
       </c>
       <c r="I18" s="3">
-        <v>2767500</v>
+        <v>2872500</v>
       </c>
       <c r="J18" s="3">
-        <v>2604200</v>
+        <v>2703000</v>
       </c>
       <c r="K18" s="3">
         <v>2483300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-672700</v>
+        <v>-698200</v>
       </c>
       <c r="E20" s="3">
-        <v>-706300</v>
+        <v>-733100</v>
       </c>
       <c r="F20" s="3">
-        <v>-419000</v>
+        <v>-434900</v>
       </c>
       <c r="G20" s="3">
-        <v>-437500</v>
+        <v>-454100</v>
       </c>
       <c r="H20" s="3">
-        <v>-272200</v>
+        <v>-282500</v>
       </c>
       <c r="I20" s="3">
-        <v>-68800</v>
+        <v>-71400</v>
       </c>
       <c r="J20" s="3">
-        <v>-75400</v>
+        <v>-78200</v>
       </c>
       <c r="K20" s="3">
         <v>-64600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3931500</v>
+        <v>4080700</v>
       </c>
       <c r="E21" s="3">
-        <v>3597400</v>
+        <v>3733900</v>
       </c>
       <c r="F21" s="3">
-        <v>3150100</v>
+        <v>3269600</v>
       </c>
       <c r="G21" s="3">
-        <v>2821000</v>
+        <v>2928000</v>
       </c>
       <c r="H21" s="3">
-        <v>2857500</v>
+        <v>2965900</v>
       </c>
       <c r="I21" s="3">
-        <v>2813800</v>
+        <v>2920500</v>
       </c>
       <c r="J21" s="3">
-        <v>2620400</v>
+        <v>2719800</v>
       </c>
       <c r="K21" s="3">
         <v>2506700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3650800</v>
+        <v>3789200</v>
       </c>
       <c r="E23" s="3">
-        <v>3405200</v>
+        <v>3534400</v>
       </c>
       <c r="F23" s="3">
-        <v>2968200</v>
+        <v>3080700</v>
       </c>
       <c r="G23" s="3">
-        <v>2664900</v>
+        <v>2766000</v>
       </c>
       <c r="H23" s="3">
-        <v>2729600</v>
+        <v>2833200</v>
       </c>
       <c r="I23" s="3">
-        <v>2698700</v>
+        <v>2801100</v>
       </c>
       <c r="J23" s="3">
-        <v>2528900</v>
+        <v>2624800</v>
       </c>
       <c r="K23" s="3">
         <v>2418700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>573300</v>
+        <v>595000</v>
       </c>
       <c r="E24" s="3">
-        <v>568200</v>
+        <v>589800</v>
       </c>
       <c r="F24" s="3">
-        <v>564500</v>
+        <v>585900</v>
       </c>
       <c r="G24" s="3">
-        <v>472000</v>
+        <v>489900</v>
       </c>
       <c r="H24" s="3">
-        <v>457700</v>
+        <v>475000</v>
       </c>
       <c r="I24" s="3">
-        <v>395600</v>
+        <v>410600</v>
       </c>
       <c r="J24" s="3">
-        <v>394500</v>
+        <v>409400</v>
       </c>
       <c r="K24" s="3">
         <v>383000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3077500</v>
+        <v>3194200</v>
       </c>
       <c r="E26" s="3">
-        <v>2837000</v>
+        <v>2944600</v>
       </c>
       <c r="F26" s="3">
-        <v>2403600</v>
+        <v>2494800</v>
       </c>
       <c r="G26" s="3">
-        <v>2192900</v>
+        <v>2276000</v>
       </c>
       <c r="H26" s="3">
-        <v>2272000</v>
+        <v>2358100</v>
       </c>
       <c r="I26" s="3">
-        <v>2303100</v>
+        <v>2390500</v>
       </c>
       <c r="J26" s="3">
-        <v>2134400</v>
+        <v>2215400</v>
       </c>
       <c r="K26" s="3">
         <v>2035700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2995800</v>
+        <v>3109400</v>
       </c>
       <c r="E27" s="3">
-        <v>2749600</v>
+        <v>2853800</v>
       </c>
       <c r="F27" s="3">
-        <v>2319900</v>
+        <v>2407900</v>
       </c>
       <c r="G27" s="3">
-        <v>2119400</v>
+        <v>2199800</v>
       </c>
       <c r="H27" s="3">
-        <v>2189800</v>
+        <v>2272800</v>
       </c>
       <c r="I27" s="3">
-        <v>2220400</v>
+        <v>2304600</v>
       </c>
       <c r="J27" s="3">
-        <v>2049500</v>
+        <v>2127200</v>
       </c>
       <c r="K27" s="3">
         <v>1948900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>672700</v>
+        <v>698200</v>
       </c>
       <c r="E32" s="3">
-        <v>706300</v>
+        <v>733100</v>
       </c>
       <c r="F32" s="3">
-        <v>419000</v>
+        <v>434900</v>
       </c>
       <c r="G32" s="3">
-        <v>437500</v>
+        <v>454100</v>
       </c>
       <c r="H32" s="3">
-        <v>272200</v>
+        <v>282500</v>
       </c>
       <c r="I32" s="3">
-        <v>68800</v>
+        <v>71400</v>
       </c>
       <c r="J32" s="3">
-        <v>75400</v>
+        <v>78200</v>
       </c>
       <c r="K32" s="3">
         <v>64600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2995800</v>
+        <v>3109400</v>
       </c>
       <c r="E33" s="3">
-        <v>2749600</v>
+        <v>2853800</v>
       </c>
       <c r="F33" s="3">
-        <v>2319900</v>
+        <v>2407900</v>
       </c>
       <c r="G33" s="3">
-        <v>2119400</v>
+        <v>2199800</v>
       </c>
       <c r="H33" s="3">
-        <v>2189800</v>
+        <v>2272800</v>
       </c>
       <c r="I33" s="3">
-        <v>2220400</v>
+        <v>2304600</v>
       </c>
       <c r="J33" s="3">
-        <v>2049500</v>
+        <v>2127200</v>
       </c>
       <c r="K33" s="3">
         <v>1948900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2995800</v>
+        <v>3109400</v>
       </c>
       <c r="E35" s="3">
-        <v>2749600</v>
+        <v>2853800</v>
       </c>
       <c r="F35" s="3">
-        <v>2319900</v>
+        <v>2407900</v>
       </c>
       <c r="G35" s="3">
-        <v>2119400</v>
+        <v>2199800</v>
       </c>
       <c r="H35" s="3">
-        <v>2189800</v>
+        <v>2272800</v>
       </c>
       <c r="I35" s="3">
-        <v>2220400</v>
+        <v>2304600</v>
       </c>
       <c r="J35" s="3">
-        <v>2049500</v>
+        <v>2127200</v>
       </c>
       <c r="K35" s="3">
         <v>1948900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51732800</v>
+        <v>53475100</v>
       </c>
       <c r="E41" s="3">
-        <v>53880600</v>
+        <v>55695200</v>
       </c>
       <c r="F41" s="3">
-        <v>74694700</v>
+        <v>77210300</v>
       </c>
       <c r="G41" s="3">
-        <v>45593600</v>
+        <v>47129100</v>
       </c>
       <c r="H41" s="3">
-        <v>43182400</v>
+        <v>44636700</v>
       </c>
       <c r="I41" s="3">
-        <v>45182600</v>
+        <v>46704300</v>
       </c>
       <c r="J41" s="3">
-        <v>41298400</v>
+        <v>42689200</v>
       </c>
       <c r="K41" s="3">
         <v>35400200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12924400</v>
+        <v>13359700</v>
       </c>
       <c r="E42" s="3">
-        <v>10968300</v>
+        <v>11337700</v>
       </c>
       <c r="F42" s="3">
-        <v>9237600</v>
+        <v>9548700</v>
       </c>
       <c r="G42" s="3">
-        <v>10462000</v>
+        <v>10814300</v>
       </c>
       <c r="H42" s="3">
-        <v>8387600</v>
+        <v>8670100</v>
       </c>
       <c r="I42" s="3">
-        <v>8627600</v>
+        <v>8918200</v>
       </c>
       <c r="J42" s="3">
-        <v>10926800</v>
+        <v>11294800</v>
       </c>
       <c r="K42" s="3">
         <v>8220100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>837800</v>
+        <v>866000</v>
       </c>
       <c r="E47" s="3">
-        <v>828600</v>
+        <v>856500</v>
       </c>
       <c r="F47" s="3">
-        <v>846200</v>
+        <v>874700</v>
       </c>
       <c r="G47" s="3">
-        <v>785600</v>
+        <v>812100</v>
       </c>
       <c r="H47" s="3">
-        <v>783500</v>
+        <v>809900</v>
       </c>
       <c r="I47" s="3">
-        <v>842700</v>
+        <v>871100</v>
       </c>
       <c r="J47" s="3">
-        <v>706100</v>
+        <v>729800</v>
       </c>
       <c r="K47" s="3">
         <v>795400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2618100</v>
+        <v>2706300</v>
       </c>
       <c r="E48" s="3">
-        <v>2322300</v>
+        <v>2400500</v>
       </c>
       <c r="F48" s="3">
-        <v>4334500</v>
+        <v>4480500</v>
       </c>
       <c r="G48" s="3">
-        <v>2118200</v>
+        <v>2189500</v>
       </c>
       <c r="H48" s="3">
-        <v>2017100</v>
+        <v>2085000</v>
       </c>
       <c r="I48" s="3">
-        <v>1692100</v>
+        <v>1749100</v>
       </c>
       <c r="J48" s="3">
-        <v>1624700</v>
+        <v>1679400</v>
       </c>
       <c r="K48" s="3">
         <v>3247600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2938600</v>
+        <v>3037600</v>
       </c>
       <c r="E49" s="3">
-        <v>2931900</v>
+        <v>3030700</v>
       </c>
       <c r="F49" s="3">
-        <v>5868900</v>
+        <v>6066600</v>
       </c>
       <c r="G49" s="3">
-        <v>2940900</v>
+        <v>3039900</v>
       </c>
       <c r="H49" s="3">
-        <v>2935800</v>
+        <v>3034600</v>
       </c>
       <c r="I49" s="3">
-        <v>2939600</v>
+        <v>3038600</v>
       </c>
       <c r="J49" s="3">
-        <v>2935800</v>
+        <v>3034600</v>
       </c>
       <c r="K49" s="3">
         <v>6016800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>212200</v>
+        <v>219400</v>
       </c>
       <c r="E52" s="3">
-        <v>201000</v>
+        <v>207800</v>
       </c>
       <c r="F52" s="3">
-        <v>136900</v>
+        <v>141500</v>
       </c>
       <c r="G52" s="3">
-        <v>177900</v>
+        <v>183900</v>
       </c>
       <c r="H52" s="3">
-        <v>160800</v>
+        <v>166300</v>
       </c>
       <c r="I52" s="3">
-        <v>164100</v>
+        <v>169600</v>
       </c>
       <c r="J52" s="3">
-        <v>203800</v>
+        <v>210700</v>
       </c>
       <c r="K52" s="3">
         <v>214100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>286511000</v>
+        <v>296161000</v>
       </c>
       <c r="E54" s="3">
-        <v>274952000</v>
+        <v>284212000</v>
       </c>
       <c r="F54" s="3">
-        <v>254052000</v>
+        <v>262608000</v>
       </c>
       <c r="G54" s="3">
-        <v>240899000</v>
+        <v>249012000</v>
       </c>
       <c r="H54" s="3">
-        <v>223885000</v>
+        <v>231425000</v>
       </c>
       <c r="I54" s="3">
-        <v>217313000</v>
+        <v>224632000</v>
       </c>
       <c r="J54" s="3">
-        <v>201368000</v>
+        <v>208150000</v>
       </c>
       <c r="K54" s="3">
         <v>182533000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2074600</v>
+        <v>2144500</v>
       </c>
       <c r="E57" s="3">
-        <v>2451500</v>
+        <v>2534100</v>
       </c>
       <c r="F57" s="3">
-        <v>2526000</v>
+        <v>2611100</v>
       </c>
       <c r="G57" s="3">
-        <v>2962800</v>
+        <v>3062500</v>
       </c>
       <c r="H57" s="3">
-        <v>2571800</v>
+        <v>2658400</v>
       </c>
       <c r="I57" s="3">
-        <v>1396800</v>
+        <v>1443800</v>
       </c>
       <c r="J57" s="3">
-        <v>1346700</v>
+        <v>1392100</v>
       </c>
       <c r="K57" s="3">
         <v>385000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1142000</v>
+        <v>1180400</v>
       </c>
       <c r="E59" s="3">
-        <v>1097000</v>
+        <v>1134000</v>
       </c>
       <c r="F59" s="3">
-        <v>1055700</v>
+        <v>1091200</v>
       </c>
       <c r="G59" s="3">
-        <v>816700</v>
+        <v>844200</v>
       </c>
       <c r="H59" s="3">
-        <v>811300</v>
+        <v>838700</v>
       </c>
       <c r="I59" s="3">
-        <v>729900</v>
+        <v>754500</v>
       </c>
       <c r="J59" s="3">
-        <v>800400</v>
+        <v>827300</v>
       </c>
       <c r="K59" s="3">
         <v>867800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17977400</v>
+        <v>18582800</v>
       </c>
       <c r="E61" s="3">
-        <v>21683200</v>
+        <v>22413400</v>
       </c>
       <c r="F61" s="3">
-        <v>17838100</v>
+        <v>18438900</v>
       </c>
       <c r="G61" s="3">
-        <v>18521500</v>
+        <v>19145300</v>
       </c>
       <c r="H61" s="3">
-        <v>14373600</v>
+        <v>14857700</v>
       </c>
       <c r="I61" s="3">
-        <v>14844800</v>
+        <v>15344700</v>
       </c>
       <c r="J61" s="3">
-        <v>13447700</v>
+        <v>13900600</v>
       </c>
       <c r="K61" s="3">
         <v>9238500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>212000</v>
+        <v>219100</v>
       </c>
       <c r="E62" s="3">
-        <v>197600</v>
+        <v>204300</v>
       </c>
       <c r="F62" s="3">
-        <v>126100</v>
+        <v>130300</v>
       </c>
       <c r="G62" s="3">
-        <v>164300</v>
+        <v>169800</v>
       </c>
       <c r="H62" s="3">
-        <v>135700</v>
+        <v>140300</v>
       </c>
       <c r="I62" s="3">
-        <v>113700</v>
+        <v>117500</v>
       </c>
       <c r="J62" s="3">
-        <v>61200</v>
+        <v>63300</v>
       </c>
       <c r="K62" s="3">
         <v>15600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>258430000</v>
+        <v>267134000</v>
       </c>
       <c r="E66" s="3">
-        <v>248297000</v>
+        <v>256659000</v>
       </c>
       <c r="F66" s="3">
-        <v>227945000</v>
+        <v>235622000</v>
       </c>
       <c r="G66" s="3">
-        <v>217610000</v>
+        <v>224938000</v>
       </c>
       <c r="H66" s="3">
-        <v>202086000</v>
+        <v>208892000</v>
       </c>
       <c r="I66" s="3">
-        <v>196364000</v>
+        <v>202978000</v>
       </c>
       <c r="J66" s="3">
-        <v>182673000</v>
+        <v>188825000</v>
       </c>
       <c r="K66" s="3">
         <v>164431000</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>589100</v>
+        <v>609000</v>
       </c>
       <c r="I70" s="3">
-        <v>589100</v>
+        <v>609000</v>
       </c>
       <c r="J70" s="3">
-        <v>589100</v>
+        <v>609000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23314700</v>
+        <v>24099900</v>
       </c>
       <c r="E72" s="3">
-        <v>22051300</v>
+        <v>22793900</v>
       </c>
       <c r="F72" s="3">
-        <v>27259300</v>
+        <v>28177400</v>
       </c>
       <c r="G72" s="3">
-        <v>19112500</v>
+        <v>19756100</v>
       </c>
       <c r="H72" s="3">
-        <v>17773900</v>
+        <v>18372500</v>
       </c>
       <c r="I72" s="3">
-        <v>16833100</v>
+        <v>17400000</v>
       </c>
       <c r="J72" s="3">
-        <v>15428000</v>
+        <v>15947600</v>
       </c>
       <c r="K72" s="3">
         <v>22078900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28081300</v>
+        <v>29027000</v>
       </c>
       <c r="E76" s="3">
-        <v>26654800</v>
+        <v>27552500</v>
       </c>
       <c r="F76" s="3">
-        <v>26107100</v>
+        <v>26986300</v>
       </c>
       <c r="G76" s="3">
-        <v>23289700</v>
+        <v>24074000</v>
       </c>
       <c r="H76" s="3">
-        <v>21209400</v>
+        <v>21923600</v>
       </c>
       <c r="I76" s="3">
-        <v>20359900</v>
+        <v>21045500</v>
       </c>
       <c r="J76" s="3">
-        <v>18105900</v>
+        <v>18715700</v>
       </c>
       <c r="K76" s="3">
         <v>18101700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2995800</v>
+        <v>3109400</v>
       </c>
       <c r="E81" s="3">
-        <v>2749600</v>
+        <v>2853800</v>
       </c>
       <c r="F81" s="3">
-        <v>2319900</v>
+        <v>2407900</v>
       </c>
       <c r="G81" s="3">
-        <v>2119400</v>
+        <v>2199800</v>
       </c>
       <c r="H81" s="3">
-        <v>2189800</v>
+        <v>2272800</v>
       </c>
       <c r="I81" s="3">
-        <v>2220400</v>
+        <v>2304600</v>
       </c>
       <c r="J81" s="3">
-        <v>2049500</v>
+        <v>2127200</v>
       </c>
       <c r="K81" s="3">
         <v>1948900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281300</v>
+        <v>291900</v>
       </c>
       <c r="E83" s="3">
-        <v>192500</v>
+        <v>199800</v>
       </c>
       <c r="F83" s="3">
-        <v>182200</v>
+        <v>189100</v>
       </c>
       <c r="G83" s="3">
-        <v>156400</v>
+        <v>162400</v>
       </c>
       <c r="H83" s="3">
-        <v>128100</v>
+        <v>132900</v>
       </c>
       <c r="I83" s="3">
-        <v>115300</v>
+        <v>119600</v>
       </c>
       <c r="J83" s="3">
-        <v>91800</v>
+        <v>95200</v>
       </c>
       <c r="K83" s="3">
         <v>87700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5879300</v>
+        <v>6102300</v>
       </c>
       <c r="E89" s="3">
-        <v>-2615600</v>
+        <v>-2714800</v>
       </c>
       <c r="F89" s="3">
-        <v>2758000</v>
+        <v>2862600</v>
       </c>
       <c r="G89" s="3">
-        <v>-9393600</v>
+        <v>-9749900</v>
       </c>
       <c r="H89" s="3">
-        <v>466500</v>
+        <v>484100</v>
       </c>
       <c r="I89" s="3">
-        <v>5017200</v>
+        <v>5207500</v>
       </c>
       <c r="J89" s="3">
-        <v>-8251700</v>
+        <v>-8564700</v>
       </c>
       <c r="K89" s="3">
         <v>4576000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404300</v>
+        <v>-419600</v>
       </c>
       <c r="E91" s="3">
-        <v>-364400</v>
+        <v>-378200</v>
       </c>
       <c r="F91" s="3">
-        <v>-246500</v>
+        <v>-255900</v>
       </c>
       <c r="G91" s="3">
-        <v>-270100</v>
+        <v>-280400</v>
       </c>
       <c r="H91" s="3">
-        <v>-488200</v>
+        <v>-506800</v>
       </c>
       <c r="I91" s="3">
-        <v>-182400</v>
+        <v>-189400</v>
       </c>
       <c r="J91" s="3">
-        <v>-156200</v>
+        <v>-162100</v>
       </c>
       <c r="K91" s="3">
         <v>-159200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-352900</v>
+        <v>-366200</v>
       </c>
       <c r="E94" s="3">
-        <v>-255400</v>
+        <v>-265100</v>
       </c>
       <c r="F94" s="3">
-        <v>-240500</v>
+        <v>-249700</v>
       </c>
       <c r="G94" s="3">
-        <v>-269400</v>
+        <v>-279700</v>
       </c>
       <c r="H94" s="3">
-        <v>-341200</v>
+        <v>-354100</v>
       </c>
       <c r="I94" s="3">
-        <v>42800</v>
+        <v>44400</v>
       </c>
       <c r="J94" s="3">
-        <v>-50100</v>
+        <v>-52000</v>
       </c>
       <c r="K94" s="3">
         <v>-48900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1471000</v>
+        <v>-1526800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1161700</v>
+        <v>-1205800</v>
       </c>
       <c r="F96" s="3">
-        <v>-469200</v>
+        <v>-487000</v>
       </c>
       <c r="G96" s="3">
-        <v>-657600</v>
+        <v>-682500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1046100</v>
+        <v>-1085700</v>
       </c>
       <c r="I96" s="3">
-        <v>-499300</v>
+        <v>-518200</v>
       </c>
       <c r="J96" s="3">
-        <v>-850600</v>
+        <v>-882900</v>
       </c>
       <c r="K96" s="3">
         <v>-755600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5361800</v>
+        <v>-5565100</v>
       </c>
       <c r="E100" s="3">
-        <v>1875100</v>
+        <v>1946300</v>
       </c>
       <c r="F100" s="3">
-        <v>-248400</v>
+        <v>-257900</v>
       </c>
       <c r="G100" s="3">
-        <v>3331900</v>
+        <v>3458300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1651700</v>
+        <v>-1714400</v>
       </c>
       <c r="I100" s="3">
-        <v>845100</v>
+        <v>877100</v>
       </c>
       <c r="J100" s="3">
-        <v>3508800</v>
+        <v>3641900</v>
       </c>
       <c r="K100" s="3">
         <v>-35700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>238100</v>
+        <v>247100</v>
       </c>
       <c r="E101" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="F101" s="3">
-        <v>-452600</v>
+        <v>-469800</v>
       </c>
       <c r="G101" s="3">
-        <v>103000</v>
+        <v>106900</v>
       </c>
       <c r="H101" s="3">
-        <v>-220900</v>
+        <v>-229200</v>
       </c>
       <c r="I101" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="J101" s="3">
-        <v>-180500</v>
+        <v>-187400</v>
       </c>
       <c r="K101" s="3">
         <v>-234900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>402700</v>
+        <v>418000</v>
       </c>
       <c r="E102" s="3">
-        <v>-973800</v>
+        <v>-1010800</v>
       </c>
       <c r="F102" s="3">
-        <v>1816500</v>
+        <v>1885400</v>
       </c>
       <c r="G102" s="3">
-        <v>-6228100</v>
+        <v>-6464300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1747300</v>
+        <v>-1813600</v>
       </c>
       <c r="I102" s="3">
-        <v>5969300</v>
+        <v>6195700</v>
       </c>
       <c r="J102" s="3">
-        <v>-4973600</v>
+        <v>-5162200</v>
       </c>
       <c r="K102" s="3">
         <v>4256400</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9195700</v>
+        <v>9382000</v>
       </c>
       <c r="E8" s="3">
-        <v>8158900</v>
+        <v>8324100</v>
       </c>
       <c r="F8" s="3">
-        <v>6647000</v>
+        <v>6781600</v>
       </c>
       <c r="G8" s="3">
-        <v>6071400</v>
+        <v>6194400</v>
       </c>
       <c r="H8" s="3">
-        <v>5731300</v>
+        <v>5847400</v>
       </c>
       <c r="I8" s="3">
-        <v>5265000</v>
+        <v>5371600</v>
       </c>
       <c r="J8" s="3">
-        <v>4766100</v>
+        <v>4862700</v>
       </c>
       <c r="K8" s="3">
         <v>4476100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4708300</v>
+        <v>4803700</v>
       </c>
       <c r="E17" s="3">
-        <v>3891400</v>
+        <v>3970200</v>
       </c>
       <c r="F17" s="3">
-        <v>3131400</v>
+        <v>3194800</v>
       </c>
       <c r="G17" s="3">
-        <v>2851400</v>
+        <v>2909100</v>
       </c>
       <c r="H17" s="3">
-        <v>2615600</v>
+        <v>2668600</v>
       </c>
       <c r="I17" s="3">
-        <v>2392400</v>
+        <v>2440900</v>
       </c>
       <c r="J17" s="3">
-        <v>2063200</v>
+        <v>2104900</v>
       </c>
       <c r="K17" s="3">
         <v>1992800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4487400</v>
+        <v>4578300</v>
       </c>
       <c r="E18" s="3">
-        <v>4267500</v>
+        <v>4353900</v>
       </c>
       <c r="F18" s="3">
-        <v>3515600</v>
+        <v>3586800</v>
       </c>
       <c r="G18" s="3">
-        <v>3220000</v>
+        <v>3285200</v>
       </c>
       <c r="H18" s="3">
-        <v>3115700</v>
+        <v>3178800</v>
       </c>
       <c r="I18" s="3">
-        <v>2872500</v>
+        <v>2930700</v>
       </c>
       <c r="J18" s="3">
-        <v>2703000</v>
+        <v>2757700</v>
       </c>
       <c r="K18" s="3">
         <v>2483300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-698200</v>
+        <v>-712300</v>
       </c>
       <c r="E20" s="3">
-        <v>-733100</v>
+        <v>-748000</v>
       </c>
       <c r="F20" s="3">
-        <v>-434900</v>
+        <v>-443700</v>
       </c>
       <c r="G20" s="3">
-        <v>-454100</v>
+        <v>-463300</v>
       </c>
       <c r="H20" s="3">
-        <v>-282500</v>
+        <v>-288300</v>
       </c>
       <c r="I20" s="3">
-        <v>-71400</v>
+        <v>-72900</v>
       </c>
       <c r="J20" s="3">
-        <v>-78200</v>
+        <v>-79800</v>
       </c>
       <c r="K20" s="3">
         <v>-64600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4080700</v>
+        <v>4163800</v>
       </c>
       <c r="E21" s="3">
-        <v>3733900</v>
+        <v>3809800</v>
       </c>
       <c r="F21" s="3">
-        <v>3269600</v>
+        <v>3336100</v>
       </c>
       <c r="G21" s="3">
-        <v>2928000</v>
+        <v>2987600</v>
       </c>
       <c r="H21" s="3">
-        <v>2965900</v>
+        <v>3026200</v>
       </c>
       <c r="I21" s="3">
-        <v>2920500</v>
+        <v>2979800</v>
       </c>
       <c r="J21" s="3">
-        <v>2719800</v>
+        <v>2775100</v>
       </c>
       <c r="K21" s="3">
         <v>2506700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3789200</v>
+        <v>3866000</v>
       </c>
       <c r="E23" s="3">
-        <v>3534400</v>
+        <v>3606000</v>
       </c>
       <c r="F23" s="3">
-        <v>3080700</v>
+        <v>3143100</v>
       </c>
       <c r="G23" s="3">
-        <v>2766000</v>
+        <v>2822000</v>
       </c>
       <c r="H23" s="3">
-        <v>2833200</v>
+        <v>2890500</v>
       </c>
       <c r="I23" s="3">
-        <v>2801100</v>
+        <v>2857800</v>
       </c>
       <c r="J23" s="3">
-        <v>2624800</v>
+        <v>2677900</v>
       </c>
       <c r="K23" s="3">
         <v>2418700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>595000</v>
+        <v>607100</v>
       </c>
       <c r="E24" s="3">
-        <v>589800</v>
+        <v>601700</v>
       </c>
       <c r="F24" s="3">
-        <v>585900</v>
+        <v>597800</v>
       </c>
       <c r="G24" s="3">
-        <v>489900</v>
+        <v>499800</v>
       </c>
       <c r="H24" s="3">
-        <v>475000</v>
+        <v>484700</v>
       </c>
       <c r="I24" s="3">
-        <v>410600</v>
+        <v>418900</v>
       </c>
       <c r="J24" s="3">
-        <v>409400</v>
+        <v>417700</v>
       </c>
       <c r="K24" s="3">
         <v>383000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3194200</v>
+        <v>3258900</v>
       </c>
       <c r="E26" s="3">
-        <v>2944600</v>
+        <v>3004300</v>
       </c>
       <c r="F26" s="3">
-        <v>2494800</v>
+        <v>2545300</v>
       </c>
       <c r="G26" s="3">
-        <v>2276000</v>
+        <v>2322100</v>
       </c>
       <c r="H26" s="3">
-        <v>2358100</v>
+        <v>2405900</v>
       </c>
       <c r="I26" s="3">
-        <v>2390500</v>
+        <v>2438900</v>
       </c>
       <c r="J26" s="3">
-        <v>2215400</v>
+        <v>2260200</v>
       </c>
       <c r="K26" s="3">
         <v>2035700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3109400</v>
+        <v>3172400</v>
       </c>
       <c r="E27" s="3">
-        <v>2853800</v>
+        <v>2911600</v>
       </c>
       <c r="F27" s="3">
-        <v>2407900</v>
+        <v>2456600</v>
       </c>
       <c r="G27" s="3">
-        <v>2199800</v>
+        <v>2244400</v>
       </c>
       <c r="H27" s="3">
-        <v>2272800</v>
+        <v>2318900</v>
       </c>
       <c r="I27" s="3">
-        <v>2304600</v>
+        <v>2351200</v>
       </c>
       <c r="J27" s="3">
-        <v>2127200</v>
+        <v>2170300</v>
       </c>
       <c r="K27" s="3">
         <v>1948900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>698200</v>
+        <v>712300</v>
       </c>
       <c r="E32" s="3">
-        <v>733100</v>
+        <v>748000</v>
       </c>
       <c r="F32" s="3">
-        <v>434900</v>
+        <v>443700</v>
       </c>
       <c r="G32" s="3">
-        <v>454100</v>
+        <v>463300</v>
       </c>
       <c r="H32" s="3">
-        <v>282500</v>
+        <v>288300</v>
       </c>
       <c r="I32" s="3">
-        <v>71400</v>
+        <v>72900</v>
       </c>
       <c r="J32" s="3">
-        <v>78200</v>
+        <v>79800</v>
       </c>
       <c r="K32" s="3">
         <v>64600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3109400</v>
+        <v>3172400</v>
       </c>
       <c r="E33" s="3">
-        <v>2853800</v>
+        <v>2911600</v>
       </c>
       <c r="F33" s="3">
-        <v>2407900</v>
+        <v>2456600</v>
       </c>
       <c r="G33" s="3">
-        <v>2199800</v>
+        <v>2244400</v>
       </c>
       <c r="H33" s="3">
-        <v>2272800</v>
+        <v>2318900</v>
       </c>
       <c r="I33" s="3">
-        <v>2304600</v>
+        <v>2351200</v>
       </c>
       <c r="J33" s="3">
-        <v>2127200</v>
+        <v>2170300</v>
       </c>
       <c r="K33" s="3">
         <v>1948900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3109400</v>
+        <v>3172400</v>
       </c>
       <c r="E35" s="3">
-        <v>2853800</v>
+        <v>2911600</v>
       </c>
       <c r="F35" s="3">
-        <v>2407900</v>
+        <v>2456600</v>
       </c>
       <c r="G35" s="3">
-        <v>2199800</v>
+        <v>2244400</v>
       </c>
       <c r="H35" s="3">
-        <v>2272800</v>
+        <v>2318900</v>
       </c>
       <c r="I35" s="3">
-        <v>2304600</v>
+        <v>2351200</v>
       </c>
       <c r="J35" s="3">
-        <v>2127200</v>
+        <v>2170300</v>
       </c>
       <c r="K35" s="3">
         <v>1948900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53475100</v>
+        <v>54558000</v>
       </c>
       <c r="E41" s="3">
-        <v>55695200</v>
+        <v>56823000</v>
       </c>
       <c r="F41" s="3">
-        <v>77210300</v>
+        <v>78773800</v>
       </c>
       <c r="G41" s="3">
-        <v>47129100</v>
+        <v>48083500</v>
       </c>
       <c r="H41" s="3">
-        <v>44636700</v>
+        <v>45540600</v>
       </c>
       <c r="I41" s="3">
-        <v>46704300</v>
+        <v>47650100</v>
       </c>
       <c r="J41" s="3">
-        <v>42689200</v>
+        <v>43553700</v>
       </c>
       <c r="K41" s="3">
         <v>35400200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13359700</v>
+        <v>13630200</v>
       </c>
       <c r="E42" s="3">
-        <v>11337700</v>
+        <v>11567200</v>
       </c>
       <c r="F42" s="3">
-        <v>9548700</v>
+        <v>9742100</v>
       </c>
       <c r="G42" s="3">
-        <v>10814300</v>
+        <v>11033300</v>
       </c>
       <c r="H42" s="3">
-        <v>8670100</v>
+        <v>8845700</v>
       </c>
       <c r="I42" s="3">
-        <v>8918200</v>
+        <v>9098800</v>
       </c>
       <c r="J42" s="3">
-        <v>11294800</v>
+        <v>11523600</v>
       </c>
       <c r="K42" s="3">
         <v>8220100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>866000</v>
+        <v>883500</v>
       </c>
       <c r="E47" s="3">
-        <v>856500</v>
+        <v>873900</v>
       </c>
       <c r="F47" s="3">
-        <v>874700</v>
+        <v>892400</v>
       </c>
       <c r="G47" s="3">
-        <v>812100</v>
+        <v>828500</v>
       </c>
       <c r="H47" s="3">
-        <v>809900</v>
+        <v>826300</v>
       </c>
       <c r="I47" s="3">
-        <v>871100</v>
+        <v>888700</v>
       </c>
       <c r="J47" s="3">
-        <v>729800</v>
+        <v>744600</v>
       </c>
       <c r="K47" s="3">
         <v>795400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2706300</v>
+        <v>2761100</v>
       </c>
       <c r="E48" s="3">
-        <v>2400500</v>
+        <v>2449200</v>
       </c>
       <c r="F48" s="3">
-        <v>4480500</v>
+        <v>4571200</v>
       </c>
       <c r="G48" s="3">
-        <v>2189500</v>
+        <v>2233900</v>
       </c>
       <c r="H48" s="3">
-        <v>2085000</v>
+        <v>2127200</v>
       </c>
       <c r="I48" s="3">
-        <v>1749100</v>
+        <v>1784500</v>
       </c>
       <c r="J48" s="3">
-        <v>1679400</v>
+        <v>1713500</v>
       </c>
       <c r="K48" s="3">
         <v>3247600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3037600</v>
+        <v>3099100</v>
       </c>
       <c r="E49" s="3">
-        <v>3030700</v>
+        <v>3092000</v>
       </c>
       <c r="F49" s="3">
-        <v>6066600</v>
+        <v>6189400</v>
       </c>
       <c r="G49" s="3">
-        <v>3039900</v>
+        <v>3101500</v>
       </c>
       <c r="H49" s="3">
-        <v>3034600</v>
+        <v>3096100</v>
       </c>
       <c r="I49" s="3">
-        <v>3038600</v>
+        <v>3100200</v>
       </c>
       <c r="J49" s="3">
-        <v>3034600</v>
+        <v>3096100</v>
       </c>
       <c r="K49" s="3">
         <v>6016800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>219400</v>
+        <v>223800</v>
       </c>
       <c r="E52" s="3">
-        <v>207800</v>
+        <v>212000</v>
       </c>
       <c r="F52" s="3">
-        <v>141500</v>
+        <v>144400</v>
       </c>
       <c r="G52" s="3">
-        <v>183900</v>
+        <v>187600</v>
       </c>
       <c r="H52" s="3">
-        <v>166300</v>
+        <v>169600</v>
       </c>
       <c r="I52" s="3">
-        <v>169600</v>
+        <v>173100</v>
       </c>
       <c r="J52" s="3">
-        <v>210700</v>
+        <v>215000</v>
       </c>
       <c r="K52" s="3">
         <v>214100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>296161000</v>
+        <v>302158000</v>
       </c>
       <c r="E54" s="3">
-        <v>284212000</v>
+        <v>289967000</v>
       </c>
       <c r="F54" s="3">
-        <v>262608000</v>
+        <v>267926000</v>
       </c>
       <c r="G54" s="3">
-        <v>249012000</v>
+        <v>254055000</v>
       </c>
       <c r="H54" s="3">
-        <v>231425000</v>
+        <v>236111000</v>
       </c>
       <c r="I54" s="3">
-        <v>224632000</v>
+        <v>229181000</v>
       </c>
       <c r="J54" s="3">
-        <v>208150000</v>
+        <v>212365000</v>
       </c>
       <c r="K54" s="3">
         <v>182533000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2144500</v>
+        <v>2187900</v>
       </c>
       <c r="E57" s="3">
-        <v>2534100</v>
+        <v>2585400</v>
       </c>
       <c r="F57" s="3">
-        <v>2611100</v>
+        <v>2663900</v>
       </c>
       <c r="G57" s="3">
-        <v>3062500</v>
+        <v>3124600</v>
       </c>
       <c r="H57" s="3">
-        <v>2658400</v>
+        <v>2712200</v>
       </c>
       <c r="I57" s="3">
-        <v>1443800</v>
+        <v>1473100</v>
       </c>
       <c r="J57" s="3">
-        <v>1392100</v>
+        <v>1420300</v>
       </c>
       <c r="K57" s="3">
         <v>385000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1180400</v>
+        <v>1204300</v>
       </c>
       <c r="E59" s="3">
-        <v>1134000</v>
+        <v>1156900</v>
       </c>
       <c r="F59" s="3">
-        <v>1091200</v>
+        <v>1113300</v>
       </c>
       <c r="G59" s="3">
-        <v>844200</v>
+        <v>861300</v>
       </c>
       <c r="H59" s="3">
-        <v>838700</v>
+        <v>855700</v>
       </c>
       <c r="I59" s="3">
-        <v>754500</v>
+        <v>769700</v>
       </c>
       <c r="J59" s="3">
-        <v>827300</v>
+        <v>844100</v>
       </c>
       <c r="K59" s="3">
         <v>867800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18582800</v>
+        <v>18959100</v>
       </c>
       <c r="E61" s="3">
-        <v>22413400</v>
+        <v>22867300</v>
       </c>
       <c r="F61" s="3">
-        <v>18438900</v>
+        <v>18812300</v>
       </c>
       <c r="G61" s="3">
-        <v>19145300</v>
+        <v>19533000</v>
       </c>
       <c r="H61" s="3">
-        <v>14857700</v>
+        <v>15158600</v>
       </c>
       <c r="I61" s="3">
-        <v>15344700</v>
+        <v>15655500</v>
       </c>
       <c r="J61" s="3">
-        <v>13900600</v>
+        <v>14182100</v>
       </c>
       <c r="K61" s="3">
         <v>9238500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>219100</v>
+        <v>223500</v>
       </c>
       <c r="E62" s="3">
-        <v>204300</v>
+        <v>208400</v>
       </c>
       <c r="F62" s="3">
-        <v>130300</v>
+        <v>133000</v>
       </c>
       <c r="G62" s="3">
-        <v>169800</v>
+        <v>173300</v>
       </c>
       <c r="H62" s="3">
-        <v>140300</v>
+        <v>143100</v>
       </c>
       <c r="I62" s="3">
-        <v>117500</v>
+        <v>119900</v>
       </c>
       <c r="J62" s="3">
-        <v>63300</v>
+        <v>64500</v>
       </c>
       <c r="K62" s="3">
         <v>15600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>267134000</v>
+        <v>272543000</v>
       </c>
       <c r="E66" s="3">
-        <v>256659000</v>
+        <v>261857000</v>
       </c>
       <c r="F66" s="3">
-        <v>235622000</v>
+        <v>240393000</v>
       </c>
       <c r="G66" s="3">
-        <v>224938000</v>
+        <v>229494000</v>
       </c>
       <c r="H66" s="3">
-        <v>208892000</v>
+        <v>213122000</v>
       </c>
       <c r="I66" s="3">
-        <v>202978000</v>
+        <v>207088000</v>
       </c>
       <c r="J66" s="3">
-        <v>188825000</v>
+        <v>192649000</v>
       </c>
       <c r="K66" s="3">
         <v>164431000</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>609000</v>
+        <v>621300</v>
       </c>
       <c r="I70" s="3">
-        <v>609000</v>
+        <v>621300</v>
       </c>
       <c r="J70" s="3">
-        <v>609000</v>
+        <v>621300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24099900</v>
+        <v>24587900</v>
       </c>
       <c r="E72" s="3">
-        <v>22793900</v>
+        <v>23255500</v>
       </c>
       <c r="F72" s="3">
-        <v>28177400</v>
+        <v>28748000</v>
       </c>
       <c r="G72" s="3">
-        <v>19756100</v>
+        <v>20156200</v>
       </c>
       <c r="H72" s="3">
-        <v>18372500</v>
+        <v>18744500</v>
       </c>
       <c r="I72" s="3">
-        <v>17400000</v>
+        <v>17752400</v>
       </c>
       <c r="J72" s="3">
-        <v>15947600</v>
+        <v>16270500</v>
       </c>
       <c r="K72" s="3">
         <v>22078900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29027000</v>
+        <v>29614800</v>
       </c>
       <c r="E76" s="3">
-        <v>27552500</v>
+        <v>28110500</v>
       </c>
       <c r="F76" s="3">
-        <v>26986300</v>
+        <v>27532800</v>
       </c>
       <c r="G76" s="3">
-        <v>24074000</v>
+        <v>24561500</v>
       </c>
       <c r="H76" s="3">
-        <v>21923600</v>
+        <v>22367600</v>
       </c>
       <c r="I76" s="3">
-        <v>21045500</v>
+        <v>21471700</v>
       </c>
       <c r="J76" s="3">
-        <v>18715700</v>
+        <v>19094700</v>
       </c>
       <c r="K76" s="3">
         <v>18101700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3109400</v>
+        <v>3172400</v>
       </c>
       <c r="E81" s="3">
-        <v>2853800</v>
+        <v>2911600</v>
       </c>
       <c r="F81" s="3">
-        <v>2407900</v>
+        <v>2456600</v>
       </c>
       <c r="G81" s="3">
-        <v>2199800</v>
+        <v>2244400</v>
       </c>
       <c r="H81" s="3">
-        <v>2272800</v>
+        <v>2318900</v>
       </c>
       <c r="I81" s="3">
-        <v>2304600</v>
+        <v>2351200</v>
       </c>
       <c r="J81" s="3">
-        <v>2127200</v>
+        <v>2170300</v>
       </c>
       <c r="K81" s="3">
         <v>1948900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>291900</v>
+        <v>297900</v>
       </c>
       <c r="E83" s="3">
-        <v>199800</v>
+        <v>203900</v>
       </c>
       <c r="F83" s="3">
-        <v>189100</v>
+        <v>193000</v>
       </c>
       <c r="G83" s="3">
-        <v>162400</v>
+        <v>165600</v>
       </c>
       <c r="H83" s="3">
-        <v>132900</v>
+        <v>135600</v>
       </c>
       <c r="I83" s="3">
-        <v>119600</v>
+        <v>122100</v>
       </c>
       <c r="J83" s="3">
-        <v>95200</v>
+        <v>97200</v>
       </c>
       <c r="K83" s="3">
         <v>87700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6102300</v>
+        <v>6225800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2714800</v>
+        <v>-2769800</v>
       </c>
       <c r="F89" s="3">
-        <v>2862600</v>
+        <v>2920600</v>
       </c>
       <c r="G89" s="3">
-        <v>-9749900</v>
+        <v>-9947300</v>
       </c>
       <c r="H89" s="3">
-        <v>484100</v>
+        <v>493900</v>
       </c>
       <c r="I89" s="3">
-        <v>5207500</v>
+        <v>5312900</v>
       </c>
       <c r="J89" s="3">
-        <v>-8564700</v>
+        <v>-8738100</v>
       </c>
       <c r="K89" s="3">
         <v>4576000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-419600</v>
+        <v>-428100</v>
       </c>
       <c r="E91" s="3">
-        <v>-378200</v>
+        <v>-385900</v>
       </c>
       <c r="F91" s="3">
-        <v>-255900</v>
+        <v>-261100</v>
       </c>
       <c r="G91" s="3">
-        <v>-280400</v>
+        <v>-286100</v>
       </c>
       <c r="H91" s="3">
-        <v>-506800</v>
+        <v>-517000</v>
       </c>
       <c r="I91" s="3">
-        <v>-189400</v>
+        <v>-193200</v>
       </c>
       <c r="J91" s="3">
-        <v>-162100</v>
+        <v>-165400</v>
       </c>
       <c r="K91" s="3">
         <v>-159200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-366200</v>
+        <v>-373700</v>
       </c>
       <c r="E94" s="3">
-        <v>-265100</v>
+        <v>-270500</v>
       </c>
       <c r="F94" s="3">
-        <v>-249700</v>
+        <v>-254700</v>
       </c>
       <c r="G94" s="3">
-        <v>-279700</v>
+        <v>-285300</v>
       </c>
       <c r="H94" s="3">
-        <v>-354100</v>
+        <v>-361300</v>
       </c>
       <c r="I94" s="3">
-        <v>44400</v>
+        <v>45300</v>
       </c>
       <c r="J94" s="3">
-        <v>-52000</v>
+        <v>-53100</v>
       </c>
       <c r="K94" s="3">
         <v>-48900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1526800</v>
+        <v>-1557700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1205800</v>
+        <v>-1230200</v>
       </c>
       <c r="F96" s="3">
-        <v>-487000</v>
+        <v>-496800</v>
       </c>
       <c r="G96" s="3">
-        <v>-682500</v>
+        <v>-696400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1085700</v>
+        <v>-1107700</v>
       </c>
       <c r="I96" s="3">
-        <v>-518200</v>
+        <v>-528700</v>
       </c>
       <c r="J96" s="3">
-        <v>-882900</v>
+        <v>-900800</v>
       </c>
       <c r="K96" s="3">
         <v>-755600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5565100</v>
+        <v>-5677800</v>
       </c>
       <c r="E100" s="3">
-        <v>1946300</v>
+        <v>1985700</v>
       </c>
       <c r="F100" s="3">
-        <v>-257900</v>
+        <v>-263100</v>
       </c>
       <c r="G100" s="3">
-        <v>3458300</v>
+        <v>3528300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1714400</v>
+        <v>-1749100</v>
       </c>
       <c r="I100" s="3">
-        <v>877100</v>
+        <v>894900</v>
       </c>
       <c r="J100" s="3">
-        <v>3641900</v>
+        <v>3715600</v>
       </c>
       <c r="K100" s="3">
         <v>-35700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>247100</v>
+        <v>252100</v>
       </c>
       <c r="E101" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="F101" s="3">
-        <v>-469800</v>
+        <v>-479300</v>
       </c>
       <c r="G101" s="3">
-        <v>106900</v>
+        <v>109100</v>
       </c>
       <c r="H101" s="3">
-        <v>-229200</v>
+        <v>-233900</v>
       </c>
       <c r="I101" s="3">
-        <v>66700</v>
+        <v>68100</v>
       </c>
       <c r="J101" s="3">
-        <v>-187400</v>
+        <v>-191200</v>
       </c>
       <c r="K101" s="3">
         <v>-234900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>418000</v>
+        <v>426500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1010800</v>
+        <v>-1031200</v>
       </c>
       <c r="F102" s="3">
-        <v>1885400</v>
+        <v>1923500</v>
       </c>
       <c r="G102" s="3">
-        <v>-6464300</v>
+        <v>-6595200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1813600</v>
+        <v>-1850300</v>
       </c>
       <c r="I102" s="3">
-        <v>6195700</v>
+        <v>6321200</v>
       </c>
       <c r="J102" s="3">
-        <v>-5162200</v>
+        <v>-5266700</v>
       </c>
       <c r="K102" s="3">
         <v>4256400</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9382000</v>
+        <v>9308900</v>
       </c>
       <c r="E8" s="3">
-        <v>8324100</v>
+        <v>8259200</v>
       </c>
       <c r="F8" s="3">
-        <v>6781600</v>
+        <v>6728800</v>
       </c>
       <c r="G8" s="3">
-        <v>6194400</v>
+        <v>6146100</v>
       </c>
       <c r="H8" s="3">
-        <v>5847400</v>
+        <v>5801800</v>
       </c>
       <c r="I8" s="3">
-        <v>5371600</v>
+        <v>5329700</v>
       </c>
       <c r="J8" s="3">
-        <v>4862700</v>
+        <v>4824800</v>
       </c>
       <c r="K8" s="3">
         <v>4476100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4803700</v>
+        <v>4766200</v>
       </c>
       <c r="E17" s="3">
-        <v>3970200</v>
+        <v>3939200</v>
       </c>
       <c r="F17" s="3">
-        <v>3194800</v>
+        <v>3169900</v>
       </c>
       <c r="G17" s="3">
-        <v>2909100</v>
+        <v>2886500</v>
       </c>
       <c r="H17" s="3">
-        <v>2668600</v>
+        <v>2647800</v>
       </c>
       <c r="I17" s="3">
-        <v>2440900</v>
+        <v>2421900</v>
       </c>
       <c r="J17" s="3">
-        <v>2104900</v>
+        <v>2088500</v>
       </c>
       <c r="K17" s="3">
         <v>1992800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4578300</v>
+        <v>4542600</v>
       </c>
       <c r="E18" s="3">
-        <v>4353900</v>
+        <v>4320000</v>
       </c>
       <c r="F18" s="3">
-        <v>3586800</v>
+        <v>3558900</v>
       </c>
       <c r="G18" s="3">
-        <v>3285200</v>
+        <v>3259700</v>
       </c>
       <c r="H18" s="3">
-        <v>3178800</v>
+        <v>3154000</v>
       </c>
       <c r="I18" s="3">
-        <v>2930700</v>
+        <v>2907900</v>
       </c>
       <c r="J18" s="3">
-        <v>2757700</v>
+        <v>2736200</v>
       </c>
       <c r="K18" s="3">
         <v>2483300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-712300</v>
+        <v>-706800</v>
       </c>
       <c r="E20" s="3">
-        <v>-748000</v>
+        <v>-742100</v>
       </c>
       <c r="F20" s="3">
-        <v>-443700</v>
+        <v>-440300</v>
       </c>
       <c r="G20" s="3">
-        <v>-463300</v>
+        <v>-459700</v>
       </c>
       <c r="H20" s="3">
-        <v>-288300</v>
+        <v>-286000</v>
       </c>
       <c r="I20" s="3">
-        <v>-72900</v>
+        <v>-72300</v>
       </c>
       <c r="J20" s="3">
-        <v>-79800</v>
+        <v>-79200</v>
       </c>
       <c r="K20" s="3">
         <v>-64600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4163800</v>
+        <v>4132000</v>
       </c>
       <c r="E21" s="3">
-        <v>3809800</v>
+        <v>3780600</v>
       </c>
       <c r="F21" s="3">
-        <v>3336100</v>
+        <v>3310500</v>
       </c>
       <c r="G21" s="3">
-        <v>2987600</v>
+        <v>2964700</v>
       </c>
       <c r="H21" s="3">
-        <v>3026200</v>
+        <v>3002900</v>
       </c>
       <c r="I21" s="3">
-        <v>2979800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2775100</v>
+        <v>2956900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>2506700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3866000</v>
+        <v>3835900</v>
       </c>
       <c r="E23" s="3">
-        <v>3606000</v>
+        <v>3577900</v>
       </c>
       <c r="F23" s="3">
-        <v>3143100</v>
+        <v>3118600</v>
       </c>
       <c r="G23" s="3">
-        <v>2822000</v>
+        <v>2800000</v>
       </c>
       <c r="H23" s="3">
-        <v>2890500</v>
+        <v>2868000</v>
       </c>
       <c r="I23" s="3">
-        <v>2857800</v>
+        <v>2835500</v>
       </c>
       <c r="J23" s="3">
-        <v>2677900</v>
+        <v>2657100</v>
       </c>
       <c r="K23" s="3">
         <v>2418700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>607100</v>
+        <v>602400</v>
       </c>
       <c r="E24" s="3">
-        <v>601700</v>
+        <v>597000</v>
       </c>
       <c r="F24" s="3">
-        <v>597800</v>
+        <v>593200</v>
       </c>
       <c r="G24" s="3">
-        <v>499800</v>
+        <v>495900</v>
       </c>
       <c r="H24" s="3">
-        <v>484700</v>
+        <v>480900</v>
       </c>
       <c r="I24" s="3">
-        <v>418900</v>
+        <v>415700</v>
       </c>
       <c r="J24" s="3">
-        <v>417700</v>
+        <v>414500</v>
       </c>
       <c r="K24" s="3">
         <v>383000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3258900</v>
+        <v>3233500</v>
       </c>
       <c r="E26" s="3">
-        <v>3004300</v>
+        <v>2980800</v>
       </c>
       <c r="F26" s="3">
-        <v>2545300</v>
+        <v>2525500</v>
       </c>
       <c r="G26" s="3">
-        <v>2322100</v>
+        <v>2304000</v>
       </c>
       <c r="H26" s="3">
-        <v>2405900</v>
+        <v>2387100</v>
       </c>
       <c r="I26" s="3">
-        <v>2438900</v>
+        <v>2419900</v>
       </c>
       <c r="J26" s="3">
-        <v>2260200</v>
+        <v>2242600</v>
       </c>
       <c r="K26" s="3">
         <v>2035700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3172400</v>
+        <v>3147700</v>
       </c>
       <c r="E27" s="3">
-        <v>2911600</v>
+        <v>2889000</v>
       </c>
       <c r="F27" s="3">
-        <v>2456600</v>
+        <v>2437500</v>
       </c>
       <c r="G27" s="3">
-        <v>2244400</v>
+        <v>2226900</v>
       </c>
       <c r="H27" s="3">
-        <v>2318900</v>
+        <v>2300800</v>
       </c>
       <c r="I27" s="3">
-        <v>2351200</v>
+        <v>2332900</v>
       </c>
       <c r="J27" s="3">
-        <v>2170300</v>
+        <v>2153400</v>
       </c>
       <c r="K27" s="3">
         <v>1948900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>712300</v>
+        <v>706800</v>
       </c>
       <c r="E32" s="3">
-        <v>748000</v>
+        <v>742100</v>
       </c>
       <c r="F32" s="3">
-        <v>443700</v>
+        <v>440300</v>
       </c>
       <c r="G32" s="3">
-        <v>463300</v>
+        <v>459700</v>
       </c>
       <c r="H32" s="3">
-        <v>288300</v>
+        <v>286000</v>
       </c>
       <c r="I32" s="3">
-        <v>72900</v>
+        <v>72300</v>
       </c>
       <c r="J32" s="3">
-        <v>79800</v>
+        <v>79200</v>
       </c>
       <c r="K32" s="3">
         <v>64600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3172400</v>
+        <v>3147700</v>
       </c>
       <c r="E33" s="3">
-        <v>2911600</v>
+        <v>2889000</v>
       </c>
       <c r="F33" s="3">
-        <v>2456600</v>
+        <v>2437500</v>
       </c>
       <c r="G33" s="3">
-        <v>2244400</v>
+        <v>2226900</v>
       </c>
       <c r="H33" s="3">
-        <v>2318900</v>
+        <v>2300800</v>
       </c>
       <c r="I33" s="3">
-        <v>2351200</v>
+        <v>2332900</v>
       </c>
       <c r="J33" s="3">
-        <v>2170300</v>
+        <v>2153400</v>
       </c>
       <c r="K33" s="3">
         <v>1948900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3172400</v>
+        <v>3147700</v>
       </c>
       <c r="E35" s="3">
-        <v>2911600</v>
+        <v>2889000</v>
       </c>
       <c r="F35" s="3">
-        <v>2456600</v>
+        <v>2437500</v>
       </c>
       <c r="G35" s="3">
-        <v>2244400</v>
+        <v>2226900</v>
       </c>
       <c r="H35" s="3">
-        <v>2318900</v>
+        <v>2300800</v>
       </c>
       <c r="I35" s="3">
-        <v>2351200</v>
+        <v>2332900</v>
       </c>
       <c r="J35" s="3">
-        <v>2170300</v>
+        <v>2153400</v>
       </c>
       <c r="K35" s="3">
         <v>1948900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54558000</v>
+        <v>54133000</v>
       </c>
       <c r="E41" s="3">
-        <v>56823000</v>
+        <v>56380400</v>
       </c>
       <c r="F41" s="3">
-        <v>78773800</v>
+        <v>78160200</v>
       </c>
       <c r="G41" s="3">
-        <v>48083500</v>
+        <v>47708900</v>
       </c>
       <c r="H41" s="3">
-        <v>45540600</v>
+        <v>45185800</v>
       </c>
       <c r="I41" s="3">
-        <v>47650100</v>
+        <v>47278900</v>
       </c>
       <c r="J41" s="3">
-        <v>43553700</v>
+        <v>43214400</v>
       </c>
       <c r="K41" s="3">
         <v>35400200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13630200</v>
+        <v>13524000</v>
       </c>
       <c r="E42" s="3">
-        <v>11567200</v>
+        <v>11477100</v>
       </c>
       <c r="F42" s="3">
-        <v>9742100</v>
+        <v>9666200</v>
       </c>
       <c r="G42" s="3">
-        <v>11033300</v>
+        <v>10947400</v>
       </c>
       <c r="H42" s="3">
-        <v>8845700</v>
+        <v>8776800</v>
       </c>
       <c r="I42" s="3">
-        <v>9098800</v>
+        <v>9027900</v>
       </c>
       <c r="J42" s="3">
-        <v>11523600</v>
+        <v>11433800</v>
       </c>
       <c r="K42" s="3">
         <v>8220100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>883500</v>
+        <v>876600</v>
       </c>
       <c r="E47" s="3">
-        <v>873900</v>
+        <v>867100</v>
       </c>
       <c r="F47" s="3">
-        <v>892400</v>
+        <v>885500</v>
       </c>
       <c r="G47" s="3">
-        <v>828500</v>
+        <v>822100</v>
       </c>
       <c r="H47" s="3">
-        <v>826300</v>
+        <v>819900</v>
       </c>
       <c r="I47" s="3">
-        <v>888700</v>
+        <v>881800</v>
       </c>
       <c r="J47" s="3">
-        <v>744600</v>
+        <v>738800</v>
       </c>
       <c r="K47" s="3">
         <v>795400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2761100</v>
+        <v>2739600</v>
       </c>
       <c r="E48" s="3">
-        <v>2449200</v>
+        <v>2430100</v>
       </c>
       <c r="F48" s="3">
-        <v>4571200</v>
+        <v>4535600</v>
       </c>
       <c r="G48" s="3">
-        <v>2233900</v>
+        <v>2216500</v>
       </c>
       <c r="H48" s="3">
-        <v>2127200</v>
+        <v>2110600</v>
       </c>
       <c r="I48" s="3">
-        <v>1784500</v>
+        <v>1770600</v>
       </c>
       <c r="J48" s="3">
-        <v>1713500</v>
+        <v>1700100</v>
       </c>
       <c r="K48" s="3">
         <v>3247600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3099100</v>
+        <v>3074900</v>
       </c>
       <c r="E49" s="3">
-        <v>3092000</v>
+        <v>3068000</v>
       </c>
       <c r="F49" s="3">
-        <v>6189400</v>
+        <v>6141200</v>
       </c>
       <c r="G49" s="3">
-        <v>3101500</v>
+        <v>3077300</v>
       </c>
       <c r="H49" s="3">
-        <v>3096100</v>
+        <v>3072000</v>
       </c>
       <c r="I49" s="3">
-        <v>3100200</v>
+        <v>3076000</v>
       </c>
       <c r="J49" s="3">
-        <v>3096100</v>
+        <v>3072000</v>
       </c>
       <c r="K49" s="3">
         <v>6016800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>223800</v>
+        <v>222100</v>
       </c>
       <c r="E52" s="3">
-        <v>212000</v>
+        <v>210300</v>
       </c>
       <c r="F52" s="3">
-        <v>144400</v>
+        <v>143300</v>
       </c>
       <c r="G52" s="3">
-        <v>187600</v>
+        <v>186100</v>
       </c>
       <c r="H52" s="3">
-        <v>169600</v>
+        <v>168300</v>
       </c>
       <c r="I52" s="3">
-        <v>173100</v>
+        <v>171700</v>
       </c>
       <c r="J52" s="3">
-        <v>215000</v>
+        <v>213300</v>
       </c>
       <c r="K52" s="3">
         <v>214100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>302158000</v>
+        <v>299804000</v>
       </c>
       <c r="E54" s="3">
-        <v>289967000</v>
+        <v>287708000</v>
       </c>
       <c r="F54" s="3">
-        <v>267926000</v>
+        <v>265839000</v>
       </c>
       <c r="G54" s="3">
-        <v>254055000</v>
+        <v>252076000</v>
       </c>
       <c r="H54" s="3">
-        <v>236111000</v>
+        <v>234272000</v>
       </c>
       <c r="I54" s="3">
-        <v>229181000</v>
+        <v>227396000</v>
       </c>
       <c r="J54" s="3">
-        <v>212365000</v>
+        <v>210710000</v>
       </c>
       <c r="K54" s="3">
         <v>182533000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2187900</v>
+        <v>2170900</v>
       </c>
       <c r="E57" s="3">
-        <v>2585400</v>
+        <v>2565300</v>
       </c>
       <c r="F57" s="3">
-        <v>2663900</v>
+        <v>2643200</v>
       </c>
       <c r="G57" s="3">
-        <v>3124600</v>
+        <v>3100200</v>
       </c>
       <c r="H57" s="3">
-        <v>2712200</v>
+        <v>2691100</v>
       </c>
       <c r="I57" s="3">
-        <v>1473100</v>
+        <v>1461600</v>
       </c>
       <c r="J57" s="3">
-        <v>1420300</v>
+        <v>1409200</v>
       </c>
       <c r="K57" s="3">
         <v>385000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1204300</v>
+        <v>1194900</v>
       </c>
       <c r="E59" s="3">
-        <v>1156900</v>
+        <v>1147900</v>
       </c>
       <c r="F59" s="3">
-        <v>1113300</v>
+        <v>1104600</v>
       </c>
       <c r="G59" s="3">
-        <v>861300</v>
+        <v>854600</v>
       </c>
       <c r="H59" s="3">
-        <v>855700</v>
+        <v>849000</v>
       </c>
       <c r="I59" s="3">
-        <v>769700</v>
+        <v>763800</v>
       </c>
       <c r="J59" s="3">
-        <v>844100</v>
+        <v>837500</v>
       </c>
       <c r="K59" s="3">
         <v>867800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18959100</v>
+        <v>18811500</v>
       </c>
       <c r="E61" s="3">
-        <v>22867300</v>
+        <v>22689200</v>
       </c>
       <c r="F61" s="3">
-        <v>18812300</v>
+        <v>18665800</v>
       </c>
       <c r="G61" s="3">
-        <v>19533000</v>
+        <v>19380800</v>
       </c>
       <c r="H61" s="3">
-        <v>15158600</v>
+        <v>15040500</v>
       </c>
       <c r="I61" s="3">
-        <v>15655500</v>
+        <v>15533500</v>
       </c>
       <c r="J61" s="3">
-        <v>14182100</v>
+        <v>14071600</v>
       </c>
       <c r="K61" s="3">
         <v>9238500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>223500</v>
+        <v>221800</v>
       </c>
       <c r="E62" s="3">
-        <v>208400</v>
+        <v>206800</v>
       </c>
       <c r="F62" s="3">
-        <v>133000</v>
+        <v>131900</v>
       </c>
       <c r="G62" s="3">
-        <v>173300</v>
+        <v>171900</v>
       </c>
       <c r="H62" s="3">
-        <v>143100</v>
+        <v>142000</v>
       </c>
       <c r="I62" s="3">
-        <v>119900</v>
+        <v>119000</v>
       </c>
       <c r="J62" s="3">
-        <v>64500</v>
+        <v>64000</v>
       </c>
       <c r="K62" s="3">
         <v>15600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>272543000</v>
+        <v>270420000</v>
       </c>
       <c r="E66" s="3">
-        <v>261857000</v>
+        <v>259817000</v>
       </c>
       <c r="F66" s="3">
-        <v>240393000</v>
+        <v>238521000</v>
       </c>
       <c r="G66" s="3">
-        <v>229494000</v>
+        <v>227706000</v>
       </c>
       <c r="H66" s="3">
-        <v>213122000</v>
+        <v>211462000</v>
       </c>
       <c r="I66" s="3">
-        <v>207088000</v>
+        <v>205475000</v>
       </c>
       <c r="J66" s="3">
-        <v>192649000</v>
+        <v>191148000</v>
       </c>
       <c r="K66" s="3">
         <v>164431000</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>621300</v>
+        <v>616500</v>
       </c>
       <c r="I70" s="3">
-        <v>621300</v>
+        <v>616500</v>
       </c>
       <c r="J70" s="3">
-        <v>621300</v>
+        <v>616500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24587900</v>
+        <v>24396400</v>
       </c>
       <c r="E72" s="3">
-        <v>23255500</v>
+        <v>23074400</v>
       </c>
       <c r="F72" s="3">
-        <v>28748000</v>
+        <v>28524000</v>
       </c>
       <c r="G72" s="3">
-        <v>20156200</v>
+        <v>19999200</v>
       </c>
       <c r="H72" s="3">
-        <v>18744500</v>
+        <v>18598500</v>
       </c>
       <c r="I72" s="3">
-        <v>17752400</v>
+        <v>17614100</v>
       </c>
       <c r="J72" s="3">
-        <v>16270500</v>
+        <v>16143800</v>
       </c>
       <c r="K72" s="3">
         <v>22078900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29614800</v>
+        <v>29384100</v>
       </c>
       <c r="E76" s="3">
-        <v>28110500</v>
+        <v>27891500</v>
       </c>
       <c r="F76" s="3">
-        <v>27532800</v>
+        <v>27318300</v>
       </c>
       <c r="G76" s="3">
-        <v>24561500</v>
+        <v>24370200</v>
       </c>
       <c r="H76" s="3">
-        <v>22367600</v>
+        <v>22193400</v>
       </c>
       <c r="I76" s="3">
-        <v>21471700</v>
+        <v>21304400</v>
       </c>
       <c r="J76" s="3">
-        <v>19094700</v>
+        <v>18945900</v>
       </c>
       <c r="K76" s="3">
         <v>18101700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3172400</v>
+        <v>3147700</v>
       </c>
       <c r="E81" s="3">
-        <v>2911600</v>
+        <v>2889000</v>
       </c>
       <c r="F81" s="3">
-        <v>2456600</v>
+        <v>2437500</v>
       </c>
       <c r="G81" s="3">
-        <v>2244400</v>
+        <v>2226900</v>
       </c>
       <c r="H81" s="3">
-        <v>2318900</v>
+        <v>2300800</v>
       </c>
       <c r="I81" s="3">
-        <v>2351200</v>
+        <v>2332900</v>
       </c>
       <c r="J81" s="3">
-        <v>2170300</v>
+        <v>2153400</v>
       </c>
       <c r="K81" s="3">
         <v>1948900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>297900</v>
+        <v>295500</v>
       </c>
       <c r="E83" s="3">
-        <v>203900</v>
+        <v>202300</v>
       </c>
       <c r="F83" s="3">
-        <v>193000</v>
+        <v>191500</v>
       </c>
       <c r="G83" s="3">
-        <v>165600</v>
+        <v>164400</v>
       </c>
       <c r="H83" s="3">
-        <v>135600</v>
+        <v>134600</v>
       </c>
       <c r="I83" s="3">
-        <v>122100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>97200</v>
+        <v>121100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>87700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6225800</v>
+        <v>6177300</v>
       </c>
       <c r="E89" s="3">
-        <v>-2769800</v>
+        <v>-2748200</v>
       </c>
       <c r="F89" s="3">
-        <v>2920600</v>
+        <v>2897900</v>
       </c>
       <c r="G89" s="3">
-        <v>-9947300</v>
+        <v>-9869800</v>
       </c>
       <c r="H89" s="3">
-        <v>493900</v>
+        <v>490100</v>
       </c>
       <c r="I89" s="3">
-        <v>5312900</v>
+        <v>5271600</v>
       </c>
       <c r="J89" s="3">
-        <v>-8738100</v>
+        <v>-8670100</v>
       </c>
       <c r="K89" s="3">
         <v>4576000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-428100</v>
+        <v>-424800</v>
       </c>
       <c r="E91" s="3">
-        <v>-385900</v>
+        <v>-382900</v>
       </c>
       <c r="F91" s="3">
-        <v>-261100</v>
+        <v>-259000</v>
       </c>
       <c r="G91" s="3">
-        <v>-286100</v>
+        <v>-283800</v>
       </c>
       <c r="H91" s="3">
-        <v>-517000</v>
+        <v>-513000</v>
       </c>
       <c r="I91" s="3">
-        <v>-193200</v>
+        <v>-191700</v>
       </c>
       <c r="J91" s="3">
-        <v>-165400</v>
+        <v>-164100</v>
       </c>
       <c r="K91" s="3">
         <v>-159200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373700</v>
+        <v>-370800</v>
       </c>
       <c r="E94" s="3">
-        <v>-270500</v>
+        <v>-268400</v>
       </c>
       <c r="F94" s="3">
-        <v>-254700</v>
+        <v>-252700</v>
       </c>
       <c r="G94" s="3">
-        <v>-285300</v>
+        <v>-283100</v>
       </c>
       <c r="H94" s="3">
-        <v>-361300</v>
+        <v>-358500</v>
       </c>
       <c r="I94" s="3">
-        <v>45300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-53100</v>
+        <v>44900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>-48900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1557700</v>
+        <v>-1545500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1230200</v>
+        <v>-1220600</v>
       </c>
       <c r="F96" s="3">
-        <v>-496800</v>
+        <v>-493000</v>
       </c>
       <c r="G96" s="3">
-        <v>-696400</v>
+        <v>-690900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1107700</v>
+        <v>-1099100</v>
       </c>
       <c r="I96" s="3">
-        <v>-528700</v>
+        <v>-524600</v>
       </c>
       <c r="J96" s="3">
-        <v>-900800</v>
+        <v>-893800</v>
       </c>
       <c r="K96" s="3">
         <v>-755600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5677800</v>
+        <v>-5633600</v>
       </c>
       <c r="E100" s="3">
-        <v>1985700</v>
+        <v>1970200</v>
       </c>
       <c r="F100" s="3">
-        <v>-263100</v>
+        <v>-261000</v>
       </c>
       <c r="G100" s="3">
-        <v>3528300</v>
+        <v>3500900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1749100</v>
+        <v>-1735500</v>
       </c>
       <c r="I100" s="3">
-        <v>894900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3715600</v>
+        <v>887900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>-35700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>252100</v>
+        <v>250200</v>
       </c>
       <c r="E101" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="F101" s="3">
-        <v>-479300</v>
+        <v>-475500</v>
       </c>
       <c r="G101" s="3">
-        <v>109100</v>
+        <v>108200</v>
       </c>
       <c r="H101" s="3">
-        <v>-233900</v>
+        <v>-232100</v>
       </c>
       <c r="I101" s="3">
-        <v>68100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-191200</v>
+        <v>67500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>-234900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>426500</v>
+        <v>423200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1031200</v>
+        <v>-1023200</v>
       </c>
       <c r="F102" s="3">
-        <v>1923500</v>
+        <v>1908600</v>
       </c>
       <c r="G102" s="3">
-        <v>-6595200</v>
+        <v>-6543800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1850300</v>
+        <v>-1835900</v>
       </c>
       <c r="I102" s="3">
-        <v>6321200</v>
+        <v>6271900</v>
       </c>
       <c r="J102" s="3">
-        <v>-5266700</v>
+        <v>-5225700</v>
       </c>
       <c r="K102" s="3">
         <v>4256400</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9308900</v>
+        <v>7258800</v>
       </c>
       <c r="E8" s="3">
-        <v>8259200</v>
+        <v>9471900</v>
       </c>
       <c r="F8" s="3">
-        <v>6728800</v>
+        <v>8403900</v>
       </c>
       <c r="G8" s="3">
-        <v>6146100</v>
+        <v>6846600</v>
       </c>
       <c r="H8" s="3">
-        <v>5801800</v>
+        <v>6253700</v>
       </c>
       <c r="I8" s="3">
-        <v>5329700</v>
+        <v>5903400</v>
       </c>
       <c r="J8" s="3">
+        <v>5423100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4824800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4476100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4159000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>-5300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-7700</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4766200</v>
+        <v>3878700</v>
       </c>
       <c r="E17" s="3">
-        <v>3939200</v>
+        <v>4849700</v>
       </c>
       <c r="F17" s="3">
-        <v>3169900</v>
+        <v>4008200</v>
       </c>
       <c r="G17" s="3">
-        <v>2886500</v>
+        <v>3225400</v>
       </c>
       <c r="H17" s="3">
-        <v>2647800</v>
+        <v>2937000</v>
       </c>
       <c r="I17" s="3">
-        <v>2421900</v>
+        <v>2694100</v>
       </c>
       <c r="J17" s="3">
+        <v>2464300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2088500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1992800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1832900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4542600</v>
+        <v>3380100</v>
       </c>
       <c r="E18" s="3">
-        <v>4320000</v>
+        <v>4622200</v>
       </c>
       <c r="F18" s="3">
-        <v>3558900</v>
+        <v>4395600</v>
       </c>
       <c r="G18" s="3">
-        <v>3259700</v>
+        <v>3621200</v>
       </c>
       <c r="H18" s="3">
-        <v>3154000</v>
+        <v>3316700</v>
       </c>
       <c r="I18" s="3">
-        <v>2907900</v>
+        <v>3209300</v>
       </c>
       <c r="J18" s="3">
+        <v>2958800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2736200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2483300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2326200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-706800</v>
+        <v>-712800</v>
       </c>
       <c r="E20" s="3">
-        <v>-742100</v>
+        <v>-719200</v>
       </c>
       <c r="F20" s="3">
-        <v>-440300</v>
+        <v>-755100</v>
       </c>
       <c r="G20" s="3">
-        <v>-459700</v>
+        <v>-448000</v>
       </c>
       <c r="H20" s="3">
-        <v>-286000</v>
+        <v>-467700</v>
       </c>
       <c r="I20" s="3">
-        <v>-72300</v>
+        <v>-291000</v>
       </c>
       <c r="J20" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-79200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-64600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-255700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4132000</v>
+        <v>3009300</v>
       </c>
       <c r="E21" s="3">
-        <v>3780600</v>
+        <v>4203300</v>
       </c>
       <c r="F21" s="3">
-        <v>3310500</v>
+        <v>3846100</v>
       </c>
       <c r="G21" s="3">
-        <v>2964700</v>
+        <v>3367800</v>
       </c>
       <c r="H21" s="3">
-        <v>3002900</v>
+        <v>3016000</v>
       </c>
       <c r="I21" s="3">
-        <v>2956900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3008200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>2506700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3835900</v>
+        <v>2667300</v>
       </c>
       <c r="E23" s="3">
-        <v>3577900</v>
+        <v>3903000</v>
       </c>
       <c r="F23" s="3">
-        <v>3118600</v>
+        <v>3640500</v>
       </c>
       <c r="G23" s="3">
-        <v>2800000</v>
+        <v>3173200</v>
       </c>
       <c r="H23" s="3">
-        <v>2868000</v>
+        <v>2849000</v>
       </c>
       <c r="I23" s="3">
-        <v>2835500</v>
+        <v>2918200</v>
       </c>
       <c r="J23" s="3">
+        <v>2885200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2657100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2418700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2070400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>602400</v>
+        <v>457100</v>
       </c>
       <c r="E24" s="3">
-        <v>597000</v>
+        <v>612900</v>
       </c>
       <c r="F24" s="3">
-        <v>593200</v>
+        <v>607500</v>
       </c>
       <c r="G24" s="3">
-        <v>495900</v>
+        <v>603500</v>
       </c>
       <c r="H24" s="3">
-        <v>480900</v>
+        <v>504600</v>
       </c>
       <c r="I24" s="3">
-        <v>415700</v>
+        <v>489300</v>
       </c>
       <c r="J24" s="3">
+        <v>422900</v>
+      </c>
+      <c r="K24" s="3">
         <v>414500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>383000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>344500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3233500</v>
+        <v>2210200</v>
       </c>
       <c r="E26" s="3">
-        <v>2980800</v>
+        <v>3290100</v>
       </c>
       <c r="F26" s="3">
-        <v>2525500</v>
+        <v>3033000</v>
       </c>
       <c r="G26" s="3">
-        <v>2304000</v>
+        <v>2569700</v>
       </c>
       <c r="H26" s="3">
-        <v>2387100</v>
+        <v>2344400</v>
       </c>
       <c r="I26" s="3">
-        <v>2419900</v>
+        <v>2428900</v>
       </c>
       <c r="J26" s="3">
+        <v>2462200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2242600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2035700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1725900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3147700</v>
+        <v>2130200</v>
       </c>
       <c r="E27" s="3">
-        <v>2889000</v>
+        <v>3202800</v>
       </c>
       <c r="F27" s="3">
-        <v>2437500</v>
+        <v>2939500</v>
       </c>
       <c r="G27" s="3">
-        <v>2226900</v>
+        <v>2480200</v>
       </c>
       <c r="H27" s="3">
-        <v>2300800</v>
+        <v>2265900</v>
       </c>
       <c r="I27" s="3">
-        <v>2332900</v>
+        <v>2341100</v>
       </c>
       <c r="J27" s="3">
+        <v>2373800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2153400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1948900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1639900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>706800</v>
+        <v>712800</v>
       </c>
       <c r="E32" s="3">
-        <v>742100</v>
+        <v>719200</v>
       </c>
       <c r="F32" s="3">
-        <v>440300</v>
+        <v>755100</v>
       </c>
       <c r="G32" s="3">
-        <v>459700</v>
+        <v>448000</v>
       </c>
       <c r="H32" s="3">
-        <v>286000</v>
+        <v>467700</v>
       </c>
       <c r="I32" s="3">
-        <v>72300</v>
+        <v>291000</v>
       </c>
       <c r="J32" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K32" s="3">
         <v>79200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>64600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>255700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3147700</v>
+        <v>2130200</v>
       </c>
       <c r="E33" s="3">
-        <v>2889000</v>
+        <v>3202800</v>
       </c>
       <c r="F33" s="3">
-        <v>2437500</v>
+        <v>2939500</v>
       </c>
       <c r="G33" s="3">
-        <v>2226900</v>
+        <v>2480200</v>
       </c>
       <c r="H33" s="3">
-        <v>2300800</v>
+        <v>2265900</v>
       </c>
       <c r="I33" s="3">
-        <v>2332900</v>
+        <v>2341100</v>
       </c>
       <c r="J33" s="3">
+        <v>2373800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2153400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1948900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1639900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3147700</v>
+        <v>2130200</v>
       </c>
       <c r="E35" s="3">
-        <v>2889000</v>
+        <v>3202800</v>
       </c>
       <c r="F35" s="3">
-        <v>2437500</v>
+        <v>2939500</v>
       </c>
       <c r="G35" s="3">
-        <v>2226900</v>
+        <v>2480200</v>
       </c>
       <c r="H35" s="3">
-        <v>2300800</v>
+        <v>2265900</v>
       </c>
       <c r="I35" s="3">
-        <v>2332900</v>
+        <v>2341100</v>
       </c>
       <c r="J35" s="3">
+        <v>2373800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2153400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1948900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1639900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54133000</v>
+        <v>54043300</v>
       </c>
       <c r="E41" s="3">
-        <v>56380400</v>
+        <v>55080800</v>
       </c>
       <c r="F41" s="3">
-        <v>78160200</v>
+        <v>57367600</v>
       </c>
       <c r="G41" s="3">
-        <v>47708900</v>
+        <v>79528700</v>
       </c>
       <c r="H41" s="3">
-        <v>45185800</v>
+        <v>48544300</v>
       </c>
       <c r="I41" s="3">
-        <v>47278900</v>
+        <v>45977000</v>
       </c>
       <c r="J41" s="3">
+        <v>48106700</v>
+      </c>
+      <c r="K41" s="3">
         <v>43214400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35400200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19750800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13524000</v>
+        <v>22201100</v>
       </c>
       <c r="E42" s="3">
-        <v>11477100</v>
+        <v>13760800</v>
       </c>
       <c r="F42" s="3">
-        <v>9666200</v>
+        <v>11678100</v>
       </c>
       <c r="G42" s="3">
-        <v>10947400</v>
+        <v>9835500</v>
       </c>
       <c r="H42" s="3">
-        <v>8776800</v>
+        <v>11139100</v>
       </c>
       <c r="I42" s="3">
-        <v>9027900</v>
+        <v>8930400</v>
       </c>
       <c r="J42" s="3">
+        <v>9186000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11433800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8220100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>876600</v>
+        <v>912700</v>
       </c>
       <c r="E47" s="3">
-        <v>867100</v>
+        <v>892000</v>
       </c>
       <c r="F47" s="3">
-        <v>885500</v>
+        <v>882300</v>
       </c>
       <c r="G47" s="3">
-        <v>822100</v>
+        <v>901000</v>
       </c>
       <c r="H47" s="3">
-        <v>819900</v>
+        <v>836500</v>
       </c>
       <c r="I47" s="3">
-        <v>881800</v>
+        <v>834200</v>
       </c>
       <c r="J47" s="3">
+        <v>897200</v>
+      </c>
+      <c r="K47" s="3">
         <v>738800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>795400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>805400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2739600</v>
+        <v>2959200</v>
       </c>
       <c r="E48" s="3">
-        <v>2430100</v>
+        <v>2787500</v>
       </c>
       <c r="F48" s="3">
-        <v>4535600</v>
+        <v>2472600</v>
       </c>
       <c r="G48" s="3">
-        <v>2216500</v>
+        <v>4615000</v>
       </c>
       <c r="H48" s="3">
-        <v>2110600</v>
+        <v>2255300</v>
       </c>
       <c r="I48" s="3">
-        <v>1770600</v>
+        <v>2147600</v>
       </c>
       <c r="J48" s="3">
+        <v>1801600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1700100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3247600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1604600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3074900</v>
+        <v>3125100</v>
       </c>
       <c r="E49" s="3">
-        <v>3068000</v>
+        <v>3128800</v>
       </c>
       <c r="F49" s="3">
-        <v>6141200</v>
+        <v>3121700</v>
       </c>
       <c r="G49" s="3">
-        <v>3077300</v>
+        <v>6248700</v>
       </c>
       <c r="H49" s="3">
+        <v>3131200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3125800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3129900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3072000</v>
       </c>
-      <c r="I49" s="3">
-        <v>3076000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3072000</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6016800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3093900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222100</v>
+        <v>323600</v>
       </c>
       <c r="E52" s="3">
-        <v>210300</v>
+        <v>226000</v>
       </c>
       <c r="F52" s="3">
-        <v>143300</v>
+        <v>214000</v>
       </c>
       <c r="G52" s="3">
-        <v>186100</v>
+        <v>145800</v>
       </c>
       <c r="H52" s="3">
-        <v>168300</v>
+        <v>189400</v>
       </c>
       <c r="I52" s="3">
-        <v>171700</v>
+        <v>171300</v>
       </c>
       <c r="J52" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K52" s="3">
         <v>213300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>214100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>246200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>299804000</v>
+        <v>325726000</v>
       </c>
       <c r="E54" s="3">
-        <v>287708000</v>
+        <v>305054000</v>
       </c>
       <c r="F54" s="3">
-        <v>265839000</v>
+        <v>292746000</v>
       </c>
       <c r="G54" s="3">
-        <v>252076000</v>
+        <v>270493000</v>
       </c>
       <c r="H54" s="3">
-        <v>234272000</v>
+        <v>256490000</v>
       </c>
       <c r="I54" s="3">
-        <v>227396000</v>
+        <v>238374000</v>
       </c>
       <c r="J54" s="3">
+        <v>231377000</v>
+      </c>
+      <c r="K54" s="3">
         <v>210710000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>182533000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>174721000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2170900</v>
+        <v>4069600</v>
       </c>
       <c r="E57" s="3">
-        <v>2565300</v>
+        <v>2208900</v>
       </c>
       <c r="F57" s="3">
-        <v>2643200</v>
+        <v>2610200</v>
       </c>
       <c r="G57" s="3">
-        <v>3100200</v>
+        <v>2689500</v>
       </c>
       <c r="H57" s="3">
-        <v>2691100</v>
+        <v>3154500</v>
       </c>
       <c r="I57" s="3">
-        <v>1461600</v>
+        <v>2738200</v>
       </c>
       <c r="J57" s="3">
+        <v>1487200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1409200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>385000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>292600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1194900</v>
+        <v>1047000</v>
       </c>
       <c r="E59" s="3">
-        <v>1147900</v>
+        <v>1215900</v>
       </c>
       <c r="F59" s="3">
-        <v>1104600</v>
+        <v>1168000</v>
       </c>
       <c r="G59" s="3">
-        <v>854600</v>
+        <v>1124000</v>
       </c>
       <c r="H59" s="3">
-        <v>849000</v>
+        <v>869600</v>
       </c>
       <c r="I59" s="3">
-        <v>763800</v>
+        <v>863900</v>
       </c>
       <c r="J59" s="3">
+        <v>777100</v>
+      </c>
+      <c r="K59" s="3">
         <v>837500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>867800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>805000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18811500</v>
+        <v>22477200</v>
       </c>
       <c r="E61" s="3">
-        <v>22689200</v>
+        <v>19140800</v>
       </c>
       <c r="F61" s="3">
-        <v>18665800</v>
+        <v>23086400</v>
       </c>
       <c r="G61" s="3">
-        <v>19380800</v>
+        <v>18992600</v>
       </c>
       <c r="H61" s="3">
-        <v>15040500</v>
+        <v>19720100</v>
       </c>
       <c r="I61" s="3">
-        <v>15533500</v>
+        <v>15303900</v>
       </c>
       <c r="J61" s="3">
+        <v>15805500</v>
+      </c>
+      <c r="K61" s="3">
         <v>14071600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9238500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8690400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>221800</v>
+        <v>328900</v>
       </c>
       <c r="E62" s="3">
-        <v>206800</v>
+        <v>225700</v>
       </c>
       <c r="F62" s="3">
-        <v>131900</v>
+        <v>210400</v>
       </c>
       <c r="G62" s="3">
-        <v>171900</v>
+        <v>134300</v>
       </c>
       <c r="H62" s="3">
-        <v>142000</v>
+        <v>174900</v>
       </c>
       <c r="I62" s="3">
-        <v>119000</v>
+        <v>144500</v>
       </c>
       <c r="J62" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K62" s="3">
         <v>64000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>270420000</v>
+        <v>294874000</v>
       </c>
       <c r="E66" s="3">
-        <v>259817000</v>
+        <v>275155000</v>
       </c>
       <c r="F66" s="3">
-        <v>238521000</v>
+        <v>264366000</v>
       </c>
       <c r="G66" s="3">
-        <v>227706000</v>
+        <v>242697000</v>
       </c>
       <c r="H66" s="3">
-        <v>211462000</v>
+        <v>231693000</v>
       </c>
       <c r="I66" s="3">
-        <v>205475000</v>
+        <v>215164000</v>
       </c>
       <c r="J66" s="3">
+        <v>209073000</v>
+      </c>
+      <c r="K66" s="3">
         <v>191148000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>164431000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>157786000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2567,23 +2734,26 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>627300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>627300</v>
+      </c>
+      <c r="K70" s="3">
         <v>616500</v>
       </c>
-      <c r="I70" s="3">
-        <v>616500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>616500</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24396400</v>
+        <v>25523900</v>
       </c>
       <c r="E72" s="3">
-        <v>23074400</v>
+        <v>24823500</v>
       </c>
       <c r="F72" s="3">
-        <v>28524000</v>
+        <v>23478400</v>
       </c>
       <c r="G72" s="3">
-        <v>19999200</v>
+        <v>29023500</v>
       </c>
       <c r="H72" s="3">
-        <v>18598500</v>
+        <v>20349400</v>
       </c>
       <c r="I72" s="3">
-        <v>17614100</v>
+        <v>18924100</v>
       </c>
       <c r="J72" s="3">
+        <v>17922500</v>
+      </c>
+      <c r="K72" s="3">
         <v>16143800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22078900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13697400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29384100</v>
+        <v>30852400</v>
       </c>
       <c r="E76" s="3">
-        <v>27891500</v>
+        <v>29898600</v>
       </c>
       <c r="F76" s="3">
-        <v>27318300</v>
+        <v>28379900</v>
       </c>
       <c r="G76" s="3">
-        <v>24370200</v>
+        <v>27796600</v>
       </c>
       <c r="H76" s="3">
-        <v>22193400</v>
+        <v>24796900</v>
       </c>
       <c r="I76" s="3">
-        <v>21304400</v>
+        <v>22581900</v>
       </c>
       <c r="J76" s="3">
+        <v>21677500</v>
+      </c>
+      <c r="K76" s="3">
         <v>18945900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18101700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16934800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3147700</v>
+        <v>2130200</v>
       </c>
       <c r="E81" s="3">
-        <v>2889000</v>
+        <v>3202800</v>
       </c>
       <c r="F81" s="3">
-        <v>2437500</v>
+        <v>2939500</v>
       </c>
       <c r="G81" s="3">
-        <v>2226900</v>
+        <v>2480200</v>
       </c>
       <c r="H81" s="3">
-        <v>2300800</v>
+        <v>2265900</v>
       </c>
       <c r="I81" s="3">
-        <v>2332900</v>
+        <v>2341100</v>
       </c>
       <c r="J81" s="3">
+        <v>2373800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2153400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1948900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1639900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>295500</v>
+        <v>342500</v>
       </c>
       <c r="E83" s="3">
-        <v>202300</v>
+        <v>300700</v>
       </c>
       <c r="F83" s="3">
-        <v>191500</v>
+        <v>205800</v>
       </c>
       <c r="G83" s="3">
-        <v>164400</v>
+        <v>194800</v>
       </c>
       <c r="H83" s="3">
-        <v>134600</v>
+        <v>167200</v>
       </c>
       <c r="I83" s="3">
-        <v>121100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>136900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>87700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6177300</v>
+        <v>7258800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2748200</v>
+        <v>6285500</v>
       </c>
       <c r="F89" s="3">
-        <v>2897900</v>
+        <v>-2796400</v>
       </c>
       <c r="G89" s="3">
-        <v>-9869800</v>
+        <v>2948600</v>
       </c>
       <c r="H89" s="3">
-        <v>490100</v>
+        <v>-10042600</v>
       </c>
       <c r="I89" s="3">
-        <v>5271600</v>
+        <v>498700</v>
       </c>
       <c r="J89" s="3">
+        <v>5363900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8670100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4576000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7048700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-424800</v>
+        <v>-424700</v>
       </c>
       <c r="E91" s="3">
-        <v>-382900</v>
+        <v>-432200</v>
       </c>
       <c r="F91" s="3">
-        <v>-259000</v>
+        <v>-389600</v>
       </c>
       <c r="G91" s="3">
-        <v>-283800</v>
+        <v>-263600</v>
       </c>
       <c r="H91" s="3">
-        <v>-513000</v>
+        <v>-288800</v>
       </c>
       <c r="I91" s="3">
-        <v>-191700</v>
+        <v>-522000</v>
       </c>
       <c r="J91" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-164100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-159200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-138000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-370800</v>
+        <v>-385500</v>
       </c>
       <c r="E94" s="3">
-        <v>-268400</v>
+        <v>-377200</v>
       </c>
       <c r="F94" s="3">
-        <v>-252700</v>
+        <v>-273100</v>
       </c>
       <c r="G94" s="3">
-        <v>-283100</v>
+        <v>-257200</v>
       </c>
       <c r="H94" s="3">
-        <v>-358500</v>
+        <v>-288100</v>
       </c>
       <c r="I94" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-364700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-48900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1545500</v>
+        <v>-1385700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1220600</v>
+        <v>-1572600</v>
       </c>
       <c r="F96" s="3">
-        <v>-493000</v>
+        <v>-1242000</v>
       </c>
       <c r="G96" s="3">
-        <v>-690900</v>
+        <v>-501600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1099100</v>
+        <v>-703000</v>
       </c>
       <c r="I96" s="3">
-        <v>-524600</v>
+        <v>-1118300</v>
       </c>
       <c r="J96" s="3">
+        <v>-533800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-893800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-755600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-474000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5633600</v>
+        <v>1554700</v>
       </c>
       <c r="E100" s="3">
-        <v>1970200</v>
+        <v>-5732200</v>
       </c>
       <c r="F100" s="3">
-        <v>-261000</v>
+        <v>2004700</v>
       </c>
       <c r="G100" s="3">
-        <v>3500900</v>
+        <v>-265600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1735500</v>
+        <v>3562200</v>
       </c>
       <c r="I100" s="3">
-        <v>887900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-1765900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>903500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-35700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>250200</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>23200</v>
+        <v>254500</v>
       </c>
       <c r="F101" s="3">
-        <v>-475500</v>
+        <v>23600</v>
       </c>
       <c r="G101" s="3">
-        <v>108200</v>
+        <v>-483900</v>
       </c>
       <c r="H101" s="3">
-        <v>-232100</v>
+        <v>110100</v>
       </c>
       <c r="I101" s="3">
-        <v>67500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-236100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-234900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>423200</v>
+        <v>8430300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1023200</v>
+        <v>430600</v>
       </c>
       <c r="F102" s="3">
-        <v>1908600</v>
+        <v>-1041100</v>
       </c>
       <c r="G102" s="3">
-        <v>-6543800</v>
+        <v>1942000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1835900</v>
+        <v>-6658400</v>
       </c>
       <c r="I102" s="3">
-        <v>6271900</v>
+        <v>-1868000</v>
       </c>
       <c r="J102" s="3">
+        <v>6381800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5225700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4256400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7258800</v>
+        <v>7053500</v>
       </c>
       <c r="E8" s="3">
-        <v>9471900</v>
+        <v>9203900</v>
       </c>
       <c r="F8" s="3">
-        <v>8403900</v>
+        <v>8166100</v>
       </c>
       <c r="G8" s="3">
-        <v>6846600</v>
+        <v>6652900</v>
       </c>
       <c r="H8" s="3">
-        <v>6253700</v>
+        <v>6076800</v>
       </c>
       <c r="I8" s="3">
-        <v>5903400</v>
+        <v>5736400</v>
       </c>
       <c r="J8" s="3">
-        <v>5423100</v>
+        <v>5269600</v>
       </c>
       <c r="K8" s="3">
         <v>4824800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3878700</v>
+        <v>3769000</v>
       </c>
       <c r="E17" s="3">
-        <v>4849700</v>
+        <v>4712500</v>
       </c>
       <c r="F17" s="3">
-        <v>4008200</v>
+        <v>3894800</v>
       </c>
       <c r="G17" s="3">
-        <v>3225400</v>
+        <v>3134200</v>
       </c>
       <c r="H17" s="3">
-        <v>2937000</v>
+        <v>2853900</v>
       </c>
       <c r="I17" s="3">
-        <v>2694100</v>
+        <v>2617900</v>
       </c>
       <c r="J17" s="3">
-        <v>2464300</v>
+        <v>2394600</v>
       </c>
       <c r="K17" s="3">
         <v>2088500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3380100</v>
+        <v>3284500</v>
       </c>
       <c r="E18" s="3">
-        <v>4622200</v>
+        <v>4491400</v>
       </c>
       <c r="F18" s="3">
-        <v>4395600</v>
+        <v>4271300</v>
       </c>
       <c r="G18" s="3">
-        <v>3621200</v>
+        <v>3518800</v>
       </c>
       <c r="H18" s="3">
-        <v>3316700</v>
+        <v>3222900</v>
       </c>
       <c r="I18" s="3">
-        <v>3209300</v>
+        <v>3118500</v>
       </c>
       <c r="J18" s="3">
-        <v>2958800</v>
+        <v>2875100</v>
       </c>
       <c r="K18" s="3">
         <v>2736200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-712800</v>
+        <v>-692700</v>
       </c>
       <c r="E20" s="3">
-        <v>-719200</v>
+        <v>-698800</v>
       </c>
       <c r="F20" s="3">
-        <v>-755100</v>
+        <v>-733800</v>
       </c>
       <c r="G20" s="3">
-        <v>-448000</v>
+        <v>-435300</v>
       </c>
       <c r="H20" s="3">
-        <v>-467700</v>
+        <v>-454500</v>
       </c>
       <c r="I20" s="3">
-        <v>-291000</v>
+        <v>-282800</v>
       </c>
       <c r="J20" s="3">
-        <v>-73600</v>
+        <v>-71500</v>
       </c>
       <c r="K20" s="3">
         <v>-79200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3009300</v>
+        <v>2925500</v>
       </c>
       <c r="E21" s="3">
-        <v>4203300</v>
+        <v>4085600</v>
       </c>
       <c r="F21" s="3">
-        <v>3846100</v>
+        <v>3738100</v>
       </c>
       <c r="G21" s="3">
-        <v>3367800</v>
+        <v>3273300</v>
       </c>
       <c r="H21" s="3">
-        <v>3016000</v>
+        <v>2931400</v>
       </c>
       <c r="I21" s="3">
-        <v>3055000</v>
+        <v>2969100</v>
       </c>
       <c r="J21" s="3">
-        <v>3008200</v>
+        <v>2923600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2667300</v>
+        <v>2591800</v>
       </c>
       <c r="E23" s="3">
-        <v>3903000</v>
+        <v>3792600</v>
       </c>
       <c r="F23" s="3">
-        <v>3640500</v>
+        <v>3537500</v>
       </c>
       <c r="G23" s="3">
-        <v>3173200</v>
+        <v>3083500</v>
       </c>
       <c r="H23" s="3">
-        <v>2849000</v>
+        <v>2768400</v>
       </c>
       <c r="I23" s="3">
-        <v>2918200</v>
+        <v>2835700</v>
       </c>
       <c r="J23" s="3">
-        <v>2885200</v>
+        <v>2803600</v>
       </c>
       <c r="K23" s="3">
         <v>2657100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>457100</v>
+        <v>444200</v>
       </c>
       <c r="E24" s="3">
-        <v>612900</v>
+        <v>595600</v>
       </c>
       <c r="F24" s="3">
-        <v>607500</v>
+        <v>590300</v>
       </c>
       <c r="G24" s="3">
-        <v>603500</v>
+        <v>586500</v>
       </c>
       <c r="H24" s="3">
-        <v>504600</v>
+        <v>490300</v>
       </c>
       <c r="I24" s="3">
-        <v>489300</v>
+        <v>475500</v>
       </c>
       <c r="J24" s="3">
-        <v>422900</v>
+        <v>411000</v>
       </c>
       <c r="K24" s="3">
         <v>414500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2210200</v>
+        <v>2147600</v>
       </c>
       <c r="E26" s="3">
-        <v>3290100</v>
+        <v>3197000</v>
       </c>
       <c r="F26" s="3">
-        <v>3033000</v>
+        <v>2947200</v>
       </c>
       <c r="G26" s="3">
-        <v>2569700</v>
+        <v>2497000</v>
       </c>
       <c r="H26" s="3">
-        <v>2344400</v>
+        <v>2278100</v>
       </c>
       <c r="I26" s="3">
-        <v>2428900</v>
+        <v>2360200</v>
       </c>
       <c r="J26" s="3">
-        <v>2462200</v>
+        <v>2392600</v>
       </c>
       <c r="K26" s="3">
         <v>2242600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2130200</v>
+        <v>2069900</v>
       </c>
       <c r="E27" s="3">
-        <v>3202800</v>
+        <v>3112200</v>
       </c>
       <c r="F27" s="3">
-        <v>2939500</v>
+        <v>2856400</v>
       </c>
       <c r="G27" s="3">
-        <v>2480200</v>
+        <v>2410000</v>
       </c>
       <c r="H27" s="3">
-        <v>2265900</v>
+        <v>2201800</v>
       </c>
       <c r="I27" s="3">
-        <v>2341100</v>
+        <v>2274800</v>
       </c>
       <c r="J27" s="3">
-        <v>2373800</v>
+        <v>2306600</v>
       </c>
       <c r="K27" s="3">
         <v>2153400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>712800</v>
+        <v>692700</v>
       </c>
       <c r="E32" s="3">
-        <v>719200</v>
+        <v>698800</v>
       </c>
       <c r="F32" s="3">
-        <v>755100</v>
+        <v>733800</v>
       </c>
       <c r="G32" s="3">
-        <v>448000</v>
+        <v>435300</v>
       </c>
       <c r="H32" s="3">
-        <v>467700</v>
+        <v>454500</v>
       </c>
       <c r="I32" s="3">
-        <v>291000</v>
+        <v>282800</v>
       </c>
       <c r="J32" s="3">
-        <v>73600</v>
+        <v>71500</v>
       </c>
       <c r="K32" s="3">
         <v>79200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2130200</v>
+        <v>2069900</v>
       </c>
       <c r="E33" s="3">
-        <v>3202800</v>
+        <v>3112200</v>
       </c>
       <c r="F33" s="3">
-        <v>2939500</v>
+        <v>2856400</v>
       </c>
       <c r="G33" s="3">
-        <v>2480200</v>
+        <v>2410000</v>
       </c>
       <c r="H33" s="3">
-        <v>2265900</v>
+        <v>2201800</v>
       </c>
       <c r="I33" s="3">
-        <v>2341100</v>
+        <v>2274800</v>
       </c>
       <c r="J33" s="3">
-        <v>2373800</v>
+        <v>2306600</v>
       </c>
       <c r="K33" s="3">
         <v>2153400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2130200</v>
+        <v>2069900</v>
       </c>
       <c r="E35" s="3">
-        <v>3202800</v>
+        <v>3112200</v>
       </c>
       <c r="F35" s="3">
-        <v>2939500</v>
+        <v>2856400</v>
       </c>
       <c r="G35" s="3">
-        <v>2480200</v>
+        <v>2410000</v>
       </c>
       <c r="H35" s="3">
-        <v>2265900</v>
+        <v>2201800</v>
       </c>
       <c r="I35" s="3">
-        <v>2341100</v>
+        <v>2274800</v>
       </c>
       <c r="J35" s="3">
-        <v>2373800</v>
+        <v>2306600</v>
       </c>
       <c r="K35" s="3">
         <v>2153400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54043300</v>
+        <v>52514400</v>
       </c>
       <c r="E41" s="3">
-        <v>55080800</v>
+        <v>53522500</v>
       </c>
       <c r="F41" s="3">
-        <v>57367600</v>
+        <v>55744600</v>
       </c>
       <c r="G41" s="3">
-        <v>79528700</v>
+        <v>77278800</v>
       </c>
       <c r="H41" s="3">
-        <v>48544300</v>
+        <v>47170900</v>
       </c>
       <c r="I41" s="3">
-        <v>45977000</v>
+        <v>44676300</v>
       </c>
       <c r="J41" s="3">
-        <v>48106700</v>
+        <v>46745800</v>
       </c>
       <c r="K41" s="3">
         <v>43214400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22201100</v>
+        <v>21573100</v>
       </c>
       <c r="E42" s="3">
-        <v>13760800</v>
+        <v>13371500</v>
       </c>
       <c r="F42" s="3">
-        <v>11678100</v>
+        <v>11347700</v>
       </c>
       <c r="G42" s="3">
-        <v>9835500</v>
+        <v>9557200</v>
       </c>
       <c r="H42" s="3">
-        <v>11139100</v>
+        <v>10823900</v>
       </c>
       <c r="I42" s="3">
-        <v>8930400</v>
+        <v>8677800</v>
       </c>
       <c r="J42" s="3">
-        <v>9186000</v>
+        <v>8926100</v>
       </c>
       <c r="K42" s="3">
         <v>11433800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>912700</v>
+        <v>886900</v>
       </c>
       <c r="E47" s="3">
-        <v>892000</v>
+        <v>866700</v>
       </c>
       <c r="F47" s="3">
-        <v>882300</v>
+        <v>857300</v>
       </c>
       <c r="G47" s="3">
-        <v>901000</v>
+        <v>875500</v>
       </c>
       <c r="H47" s="3">
-        <v>836500</v>
+        <v>812800</v>
       </c>
       <c r="I47" s="3">
-        <v>834200</v>
+        <v>810600</v>
       </c>
       <c r="J47" s="3">
-        <v>897200</v>
+        <v>871800</v>
       </c>
       <c r="K47" s="3">
         <v>738800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2959200</v>
+        <v>2875500</v>
       </c>
       <c r="E48" s="3">
-        <v>2787500</v>
+        <v>2708700</v>
       </c>
       <c r="F48" s="3">
-        <v>2472600</v>
+        <v>2402700</v>
       </c>
       <c r="G48" s="3">
-        <v>4615000</v>
+        <v>4484500</v>
       </c>
       <c r="H48" s="3">
-        <v>2255300</v>
+        <v>2191500</v>
       </c>
       <c r="I48" s="3">
-        <v>2147600</v>
+        <v>2086800</v>
       </c>
       <c r="J48" s="3">
-        <v>1801600</v>
+        <v>1750700</v>
       </c>
       <c r="K48" s="3">
         <v>1700100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3125100</v>
+        <v>3036700</v>
       </c>
       <c r="E49" s="3">
-        <v>3128800</v>
+        <v>3040300</v>
       </c>
       <c r="F49" s="3">
-        <v>3121700</v>
+        <v>3033400</v>
       </c>
       <c r="G49" s="3">
-        <v>6248700</v>
+        <v>6071900</v>
       </c>
       <c r="H49" s="3">
-        <v>3131200</v>
+        <v>3042600</v>
       </c>
       <c r="I49" s="3">
-        <v>3125800</v>
+        <v>3037300</v>
       </c>
       <c r="J49" s="3">
-        <v>3129900</v>
+        <v>3041300</v>
       </c>
       <c r="K49" s="3">
         <v>3072000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>323600</v>
+        <v>314400</v>
       </c>
       <c r="E52" s="3">
-        <v>226000</v>
+        <v>219600</v>
       </c>
       <c r="F52" s="3">
-        <v>214000</v>
+        <v>207900</v>
       </c>
       <c r="G52" s="3">
-        <v>145800</v>
+        <v>141700</v>
       </c>
       <c r="H52" s="3">
-        <v>189400</v>
+        <v>184000</v>
       </c>
       <c r="I52" s="3">
-        <v>171300</v>
+        <v>166400</v>
       </c>
       <c r="J52" s="3">
-        <v>174700</v>
+        <v>169800</v>
       </c>
       <c r="K52" s="3">
         <v>213300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>325726000</v>
+        <v>316511000</v>
       </c>
       <c r="E54" s="3">
-        <v>305054000</v>
+        <v>296423000</v>
       </c>
       <c r="F54" s="3">
-        <v>292746000</v>
+        <v>284464000</v>
       </c>
       <c r="G54" s="3">
-        <v>270493000</v>
+        <v>262841000</v>
       </c>
       <c r="H54" s="3">
-        <v>256490000</v>
+        <v>249234000</v>
       </c>
       <c r="I54" s="3">
-        <v>238374000</v>
+        <v>231630000</v>
       </c>
       <c r="J54" s="3">
-        <v>231377000</v>
+        <v>224832000</v>
       </c>
       <c r="K54" s="3">
         <v>210710000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4069600</v>
+        <v>3954400</v>
       </c>
       <c r="E57" s="3">
-        <v>2208900</v>
+        <v>2146400</v>
       </c>
       <c r="F57" s="3">
-        <v>2610200</v>
+        <v>2536400</v>
       </c>
       <c r="G57" s="3">
-        <v>2689500</v>
+        <v>2613400</v>
       </c>
       <c r="H57" s="3">
-        <v>3154500</v>
+        <v>3065300</v>
       </c>
       <c r="I57" s="3">
-        <v>2738200</v>
+        <v>2660700</v>
       </c>
       <c r="J57" s="3">
-        <v>1487200</v>
+        <v>1445100</v>
       </c>
       <c r="K57" s="3">
         <v>1409200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1047000</v>
+        <v>1017400</v>
       </c>
       <c r="E59" s="3">
-        <v>1215900</v>
+        <v>1181500</v>
       </c>
       <c r="F59" s="3">
-        <v>1168000</v>
+        <v>1135000</v>
       </c>
       <c r="G59" s="3">
-        <v>1124000</v>
+        <v>1092200</v>
       </c>
       <c r="H59" s="3">
-        <v>869600</v>
+        <v>845000</v>
       </c>
       <c r="I59" s="3">
-        <v>863900</v>
+        <v>839400</v>
       </c>
       <c r="J59" s="3">
-        <v>777100</v>
+        <v>755100</v>
       </c>
       <c r="K59" s="3">
         <v>837500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22477200</v>
+        <v>21841300</v>
       </c>
       <c r="E61" s="3">
-        <v>19140800</v>
+        <v>18599300</v>
       </c>
       <c r="F61" s="3">
-        <v>23086400</v>
+        <v>22433300</v>
       </c>
       <c r="G61" s="3">
-        <v>18992600</v>
+        <v>18455300</v>
       </c>
       <c r="H61" s="3">
-        <v>19720100</v>
+        <v>19162300</v>
       </c>
       <c r="I61" s="3">
-        <v>15303900</v>
+        <v>14870900</v>
       </c>
       <c r="J61" s="3">
-        <v>15805500</v>
+        <v>15358400</v>
       </c>
       <c r="K61" s="3">
         <v>14071600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>328900</v>
+        <v>319600</v>
       </c>
       <c r="E62" s="3">
-        <v>225700</v>
+        <v>219300</v>
       </c>
       <c r="F62" s="3">
-        <v>210400</v>
+        <v>204400</v>
       </c>
       <c r="G62" s="3">
-        <v>134300</v>
+        <v>130500</v>
       </c>
       <c r="H62" s="3">
-        <v>174900</v>
+        <v>170000</v>
       </c>
       <c r="I62" s="3">
-        <v>144500</v>
+        <v>140400</v>
       </c>
       <c r="J62" s="3">
-        <v>121100</v>
+        <v>117600</v>
       </c>
       <c r="K62" s="3">
         <v>64000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>294874000</v>
+        <v>286531000</v>
       </c>
       <c r="E66" s="3">
-        <v>275155000</v>
+        <v>267371000</v>
       </c>
       <c r="F66" s="3">
-        <v>264366000</v>
+        <v>256887000</v>
       </c>
       <c r="G66" s="3">
-        <v>242697000</v>
+        <v>235831000</v>
       </c>
       <c r="H66" s="3">
-        <v>231693000</v>
+        <v>225138000</v>
       </c>
       <c r="I66" s="3">
-        <v>215164000</v>
+        <v>209077000</v>
       </c>
       <c r="J66" s="3">
-        <v>209073000</v>
+        <v>203158000</v>
       </c>
       <c r="K66" s="3">
         <v>191148000</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>627300</v>
+        <v>609500</v>
       </c>
       <c r="J70" s="3">
-        <v>627300</v>
+        <v>609500</v>
       </c>
       <c r="K70" s="3">
         <v>616500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25523900</v>
+        <v>24801800</v>
       </c>
       <c r="E72" s="3">
-        <v>24823500</v>
+        <v>24121300</v>
       </c>
       <c r="F72" s="3">
-        <v>23478400</v>
+        <v>22814100</v>
       </c>
       <c r="G72" s="3">
-        <v>29023500</v>
+        <v>28202400</v>
       </c>
       <c r="H72" s="3">
-        <v>20349400</v>
+        <v>19773700</v>
       </c>
       <c r="I72" s="3">
-        <v>18924100</v>
+        <v>18388800</v>
       </c>
       <c r="J72" s="3">
-        <v>17922500</v>
+        <v>17415400</v>
       </c>
       <c r="K72" s="3">
         <v>16143800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30852400</v>
+        <v>29979600</v>
       </c>
       <c r="E76" s="3">
-        <v>29898600</v>
+        <v>29052800</v>
       </c>
       <c r="F76" s="3">
-        <v>28379900</v>
+        <v>27577000</v>
       </c>
       <c r="G76" s="3">
-        <v>27796600</v>
+        <v>27010300</v>
       </c>
       <c r="H76" s="3">
-        <v>24796900</v>
+        <v>24095400</v>
       </c>
       <c r="I76" s="3">
-        <v>22581900</v>
+        <v>21943100</v>
       </c>
       <c r="J76" s="3">
-        <v>21677500</v>
+        <v>21064200</v>
       </c>
       <c r="K76" s="3">
         <v>18945900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2130200</v>
+        <v>2069900</v>
       </c>
       <c r="E81" s="3">
-        <v>3202800</v>
+        <v>3112200</v>
       </c>
       <c r="F81" s="3">
-        <v>2939500</v>
+        <v>2856400</v>
       </c>
       <c r="G81" s="3">
-        <v>2480200</v>
+        <v>2410000</v>
       </c>
       <c r="H81" s="3">
-        <v>2265900</v>
+        <v>2201800</v>
       </c>
       <c r="I81" s="3">
-        <v>2341100</v>
+        <v>2274800</v>
       </c>
       <c r="J81" s="3">
-        <v>2373800</v>
+        <v>2306600</v>
       </c>
       <c r="K81" s="3">
         <v>2153400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>342500</v>
+        <v>332800</v>
       </c>
       <c r="E83" s="3">
-        <v>300700</v>
+        <v>292200</v>
       </c>
       <c r="F83" s="3">
-        <v>205800</v>
+        <v>200000</v>
       </c>
       <c r="G83" s="3">
-        <v>194800</v>
+        <v>189300</v>
       </c>
       <c r="H83" s="3">
-        <v>167200</v>
+        <v>162500</v>
       </c>
       <c r="I83" s="3">
-        <v>136900</v>
+        <v>133000</v>
       </c>
       <c r="J83" s="3">
-        <v>123200</v>
+        <v>119700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7258800</v>
+        <v>7053500</v>
       </c>
       <c r="E89" s="3">
-        <v>6285500</v>
+        <v>6107700</v>
       </c>
       <c r="F89" s="3">
-        <v>-2796400</v>
+        <v>-2717300</v>
       </c>
       <c r="G89" s="3">
-        <v>2948600</v>
+        <v>2865200</v>
       </c>
       <c r="H89" s="3">
-        <v>-10042600</v>
+        <v>-9758500</v>
       </c>
       <c r="I89" s="3">
-        <v>498700</v>
+        <v>484600</v>
       </c>
       <c r="J89" s="3">
-        <v>5363900</v>
+        <v>5212100</v>
       </c>
       <c r="K89" s="3">
         <v>-8670100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-424700</v>
+        <v>-412700</v>
       </c>
       <c r="E91" s="3">
-        <v>-432200</v>
+        <v>-420000</v>
       </c>
       <c r="F91" s="3">
-        <v>-389600</v>
+        <v>-378600</v>
       </c>
       <c r="G91" s="3">
-        <v>-263600</v>
+        <v>-256100</v>
       </c>
       <c r="H91" s="3">
-        <v>-288800</v>
+        <v>-280600</v>
       </c>
       <c r="I91" s="3">
-        <v>-522000</v>
+        <v>-507200</v>
       </c>
       <c r="J91" s="3">
-        <v>-195000</v>
+        <v>-189500</v>
       </c>
       <c r="K91" s="3">
         <v>-164100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-385500</v>
+        <v>-374600</v>
       </c>
       <c r="E94" s="3">
-        <v>-377200</v>
+        <v>-366600</v>
       </c>
       <c r="F94" s="3">
-        <v>-273100</v>
+        <v>-265300</v>
       </c>
       <c r="G94" s="3">
-        <v>-257200</v>
+        <v>-249900</v>
       </c>
       <c r="H94" s="3">
-        <v>-288100</v>
+        <v>-279900</v>
       </c>
       <c r="I94" s="3">
-        <v>-364700</v>
+        <v>-354400</v>
       </c>
       <c r="J94" s="3">
-        <v>45700</v>
+        <v>44400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1385700</v>
+        <v>-1346500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1572600</v>
+        <v>-1528100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1242000</v>
+        <v>-1206900</v>
       </c>
       <c r="G96" s="3">
-        <v>-501600</v>
+        <v>-487400</v>
       </c>
       <c r="H96" s="3">
-        <v>-703000</v>
+        <v>-683200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1118300</v>
+        <v>-1086700</v>
       </c>
       <c r="J96" s="3">
-        <v>-533800</v>
+        <v>-518700</v>
       </c>
       <c r="K96" s="3">
         <v>-893800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1554700</v>
+        <v>1510700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5732200</v>
+        <v>-5570100</v>
       </c>
       <c r="F100" s="3">
-        <v>2004700</v>
+        <v>1948000</v>
       </c>
       <c r="G100" s="3">
-        <v>-265600</v>
+        <v>-258100</v>
       </c>
       <c r="H100" s="3">
-        <v>3562200</v>
+        <v>3461400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1765900</v>
+        <v>-1715900</v>
       </c>
       <c r="J100" s="3">
-        <v>903500</v>
+        <v>877900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>254500</v>
+        <v>247300</v>
       </c>
       <c r="F101" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="G101" s="3">
-        <v>-483900</v>
+        <v>-470200</v>
       </c>
       <c r="H101" s="3">
-        <v>110100</v>
+        <v>107000</v>
       </c>
       <c r="I101" s="3">
-        <v>-236100</v>
+        <v>-229400</v>
       </c>
       <c r="J101" s="3">
-        <v>68700</v>
+        <v>66800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8430300</v>
+        <v>8191800</v>
       </c>
       <c r="E102" s="3">
-        <v>430600</v>
+        <v>418400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1041100</v>
+        <v>-1011700</v>
       </c>
       <c r="G102" s="3">
-        <v>1942000</v>
+        <v>1887000</v>
       </c>
       <c r="H102" s="3">
-        <v>-6658400</v>
+        <v>-6470000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1868000</v>
+        <v>-1815200</v>
       </c>
       <c r="J102" s="3">
-        <v>6381800</v>
+        <v>6201200</v>
       </c>
       <c r="K102" s="3">
         <v>-5225700</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7053500</v>
+        <v>7030300</v>
       </c>
       <c r="E8" s="3">
-        <v>9203900</v>
+        <v>9173600</v>
       </c>
       <c r="F8" s="3">
-        <v>8166100</v>
+        <v>8139300</v>
       </c>
       <c r="G8" s="3">
-        <v>6652900</v>
+        <v>6631100</v>
       </c>
       <c r="H8" s="3">
-        <v>6076800</v>
+        <v>6056800</v>
       </c>
       <c r="I8" s="3">
-        <v>5736400</v>
+        <v>5717500</v>
       </c>
       <c r="J8" s="3">
-        <v>5269600</v>
+        <v>5252300</v>
       </c>
       <c r="K8" s="3">
         <v>4824800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3769000</v>
+        <v>3756600</v>
       </c>
       <c r="E17" s="3">
-        <v>4712500</v>
+        <v>4697000</v>
       </c>
       <c r="F17" s="3">
-        <v>3894800</v>
+        <v>3882000</v>
       </c>
       <c r="G17" s="3">
-        <v>3134200</v>
+        <v>3123900</v>
       </c>
       <c r="H17" s="3">
-        <v>2853900</v>
+        <v>2844500</v>
       </c>
       <c r="I17" s="3">
-        <v>2617900</v>
+        <v>2609300</v>
       </c>
       <c r="J17" s="3">
-        <v>2394600</v>
+        <v>2386700</v>
       </c>
       <c r="K17" s="3">
         <v>2088500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3284500</v>
+        <v>3273700</v>
       </c>
       <c r="E18" s="3">
-        <v>4491400</v>
+        <v>4476700</v>
       </c>
       <c r="F18" s="3">
-        <v>4271300</v>
+        <v>4257200</v>
       </c>
       <c r="G18" s="3">
-        <v>3518800</v>
+        <v>3507200</v>
       </c>
       <c r="H18" s="3">
-        <v>3222900</v>
+        <v>3212300</v>
       </c>
       <c r="I18" s="3">
-        <v>3118500</v>
+        <v>3108200</v>
       </c>
       <c r="J18" s="3">
-        <v>2875100</v>
+        <v>2865600</v>
       </c>
       <c r="K18" s="3">
         <v>2736200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-692700</v>
+        <v>-690400</v>
       </c>
       <c r="E20" s="3">
-        <v>-698800</v>
+        <v>-696500</v>
       </c>
       <c r="F20" s="3">
-        <v>-733800</v>
+        <v>-731400</v>
       </c>
       <c r="G20" s="3">
-        <v>-435300</v>
+        <v>-433900</v>
       </c>
       <c r="H20" s="3">
-        <v>-454500</v>
+        <v>-453000</v>
       </c>
       <c r="I20" s="3">
-        <v>-282800</v>
+        <v>-281900</v>
       </c>
       <c r="J20" s="3">
-        <v>-71500</v>
+        <v>-71300</v>
       </c>
       <c r="K20" s="3">
         <v>-79200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2925500</v>
+        <v>2914500</v>
       </c>
       <c r="E21" s="3">
-        <v>4085600</v>
+        <v>4071000</v>
       </c>
       <c r="F21" s="3">
-        <v>3738100</v>
+        <v>3725000</v>
       </c>
       <c r="G21" s="3">
-        <v>3273300</v>
+        <v>3261800</v>
       </c>
       <c r="H21" s="3">
-        <v>2931400</v>
+        <v>2921100</v>
       </c>
       <c r="I21" s="3">
-        <v>2969100</v>
+        <v>2958800</v>
       </c>
       <c r="J21" s="3">
-        <v>2923600</v>
+        <v>2913500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2591800</v>
+        <v>2583300</v>
       </c>
       <c r="E23" s="3">
-        <v>3792600</v>
+        <v>3780100</v>
       </c>
       <c r="F23" s="3">
-        <v>3537500</v>
+        <v>3525900</v>
       </c>
       <c r="G23" s="3">
-        <v>3083500</v>
+        <v>3073300</v>
       </c>
       <c r="H23" s="3">
-        <v>2768400</v>
+        <v>2759300</v>
       </c>
       <c r="I23" s="3">
-        <v>2835700</v>
+        <v>2826400</v>
       </c>
       <c r="J23" s="3">
-        <v>2803600</v>
+        <v>2794300</v>
       </c>
       <c r="K23" s="3">
         <v>2657100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444200</v>
+        <v>442700</v>
       </c>
       <c r="E24" s="3">
-        <v>595600</v>
+        <v>593600</v>
       </c>
       <c r="F24" s="3">
-        <v>590300</v>
+        <v>588300</v>
       </c>
       <c r="G24" s="3">
-        <v>586500</v>
+        <v>584500</v>
       </c>
       <c r="H24" s="3">
-        <v>490300</v>
+        <v>488700</v>
       </c>
       <c r="I24" s="3">
-        <v>475500</v>
+        <v>473900</v>
       </c>
       <c r="J24" s="3">
-        <v>411000</v>
+        <v>409600</v>
       </c>
       <c r="K24" s="3">
         <v>414500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2147600</v>
+        <v>2140600</v>
       </c>
       <c r="E26" s="3">
-        <v>3197000</v>
+        <v>3186500</v>
       </c>
       <c r="F26" s="3">
-        <v>2947200</v>
+        <v>2937500</v>
       </c>
       <c r="G26" s="3">
-        <v>2497000</v>
+        <v>2488800</v>
       </c>
       <c r="H26" s="3">
-        <v>2278100</v>
+        <v>2270600</v>
       </c>
       <c r="I26" s="3">
-        <v>2360200</v>
+        <v>2352500</v>
       </c>
       <c r="J26" s="3">
-        <v>2392600</v>
+        <v>2384700</v>
       </c>
       <c r="K26" s="3">
         <v>2242600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2069900</v>
+        <v>2063100</v>
       </c>
       <c r="E27" s="3">
-        <v>3112200</v>
+        <v>3102000</v>
       </c>
       <c r="F27" s="3">
-        <v>2856400</v>
+        <v>2847000</v>
       </c>
       <c r="G27" s="3">
-        <v>2410000</v>
+        <v>2402100</v>
       </c>
       <c r="H27" s="3">
-        <v>2201800</v>
+        <v>2194500</v>
       </c>
       <c r="I27" s="3">
-        <v>2274800</v>
+        <v>2267400</v>
       </c>
       <c r="J27" s="3">
-        <v>2306600</v>
+        <v>2299000</v>
       </c>
       <c r="K27" s="3">
         <v>2153400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>692700</v>
+        <v>690400</v>
       </c>
       <c r="E32" s="3">
-        <v>698800</v>
+        <v>696500</v>
       </c>
       <c r="F32" s="3">
-        <v>733800</v>
+        <v>731400</v>
       </c>
       <c r="G32" s="3">
-        <v>435300</v>
+        <v>433900</v>
       </c>
       <c r="H32" s="3">
-        <v>454500</v>
+        <v>453000</v>
       </c>
       <c r="I32" s="3">
-        <v>282800</v>
+        <v>281900</v>
       </c>
       <c r="J32" s="3">
-        <v>71500</v>
+        <v>71300</v>
       </c>
       <c r="K32" s="3">
         <v>79200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2069900</v>
+        <v>2063100</v>
       </c>
       <c r="E33" s="3">
-        <v>3112200</v>
+        <v>3102000</v>
       </c>
       <c r="F33" s="3">
-        <v>2856400</v>
+        <v>2847000</v>
       </c>
       <c r="G33" s="3">
-        <v>2410000</v>
+        <v>2402100</v>
       </c>
       <c r="H33" s="3">
-        <v>2201800</v>
+        <v>2194500</v>
       </c>
       <c r="I33" s="3">
-        <v>2274800</v>
+        <v>2267400</v>
       </c>
       <c r="J33" s="3">
-        <v>2306600</v>
+        <v>2299000</v>
       </c>
       <c r="K33" s="3">
         <v>2153400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2069900</v>
+        <v>2063100</v>
       </c>
       <c r="E35" s="3">
-        <v>3112200</v>
+        <v>3102000</v>
       </c>
       <c r="F35" s="3">
-        <v>2856400</v>
+        <v>2847000</v>
       </c>
       <c r="G35" s="3">
-        <v>2410000</v>
+        <v>2402100</v>
       </c>
       <c r="H35" s="3">
-        <v>2201800</v>
+        <v>2194500</v>
       </c>
       <c r="I35" s="3">
-        <v>2274800</v>
+        <v>2267400</v>
       </c>
       <c r="J35" s="3">
-        <v>2306600</v>
+        <v>2299000</v>
       </c>
       <c r="K35" s="3">
         <v>2153400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52514400</v>
+        <v>52341700</v>
       </c>
       <c r="E41" s="3">
-        <v>53522500</v>
+        <v>53346500</v>
       </c>
       <c r="F41" s="3">
-        <v>55744600</v>
+        <v>55561300</v>
       </c>
       <c r="G41" s="3">
-        <v>77278800</v>
+        <v>77024700</v>
       </c>
       <c r="H41" s="3">
-        <v>47170900</v>
+        <v>47015800</v>
       </c>
       <c r="I41" s="3">
-        <v>44676300</v>
+        <v>44529400</v>
       </c>
       <c r="J41" s="3">
-        <v>46745800</v>
+        <v>46592100</v>
       </c>
       <c r="K41" s="3">
         <v>43214400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21573100</v>
+        <v>21502100</v>
       </c>
       <c r="E42" s="3">
-        <v>13371500</v>
+        <v>13327600</v>
       </c>
       <c r="F42" s="3">
-        <v>11347700</v>
+        <v>11310400</v>
       </c>
       <c r="G42" s="3">
-        <v>9557200</v>
+        <v>9525800</v>
       </c>
       <c r="H42" s="3">
-        <v>10823900</v>
+        <v>10788400</v>
       </c>
       <c r="I42" s="3">
-        <v>8677800</v>
+        <v>8649300</v>
       </c>
       <c r="J42" s="3">
-        <v>8926100</v>
+        <v>8896700</v>
       </c>
       <c r="K42" s="3">
         <v>11433800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>886900</v>
+        <v>884000</v>
       </c>
       <c r="E47" s="3">
-        <v>866700</v>
+        <v>863900</v>
       </c>
       <c r="F47" s="3">
-        <v>857300</v>
+        <v>854500</v>
       </c>
       <c r="G47" s="3">
-        <v>875500</v>
+        <v>872600</v>
       </c>
       <c r="H47" s="3">
-        <v>812800</v>
+        <v>810100</v>
       </c>
       <c r="I47" s="3">
-        <v>810600</v>
+        <v>808000</v>
       </c>
       <c r="J47" s="3">
-        <v>871800</v>
+        <v>869000</v>
       </c>
       <c r="K47" s="3">
         <v>738800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2875500</v>
+        <v>2866000</v>
       </c>
       <c r="E48" s="3">
-        <v>2708700</v>
+        <v>2699800</v>
       </c>
       <c r="F48" s="3">
-        <v>2402700</v>
+        <v>2394800</v>
       </c>
       <c r="G48" s="3">
-        <v>4484500</v>
+        <v>4469700</v>
       </c>
       <c r="H48" s="3">
-        <v>2191500</v>
+        <v>2184300</v>
       </c>
       <c r="I48" s="3">
-        <v>2086800</v>
+        <v>2080000</v>
       </c>
       <c r="J48" s="3">
-        <v>1750700</v>
+        <v>1744900</v>
       </c>
       <c r="K48" s="3">
         <v>1700100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3036700</v>
+        <v>3026800</v>
       </c>
       <c r="E49" s="3">
-        <v>3040300</v>
+        <v>3030300</v>
       </c>
       <c r="F49" s="3">
-        <v>3033400</v>
+        <v>3023400</v>
       </c>
       <c r="G49" s="3">
-        <v>6071900</v>
+        <v>6052000</v>
       </c>
       <c r="H49" s="3">
-        <v>3042600</v>
+        <v>3032600</v>
       </c>
       <c r="I49" s="3">
-        <v>3037300</v>
+        <v>3027400</v>
       </c>
       <c r="J49" s="3">
-        <v>3041300</v>
+        <v>3031300</v>
       </c>
       <c r="K49" s="3">
         <v>3072000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>314400</v>
+        <v>313400</v>
       </c>
       <c r="E52" s="3">
-        <v>219600</v>
+        <v>218800</v>
       </c>
       <c r="F52" s="3">
-        <v>207900</v>
+        <v>207300</v>
       </c>
       <c r="G52" s="3">
-        <v>141700</v>
+        <v>141200</v>
       </c>
       <c r="H52" s="3">
-        <v>184000</v>
+        <v>183400</v>
       </c>
       <c r="I52" s="3">
-        <v>166400</v>
+        <v>165900</v>
       </c>
       <c r="J52" s="3">
-        <v>169800</v>
+        <v>169200</v>
       </c>
       <c r="K52" s="3">
         <v>213300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>316511000</v>
+        <v>315470000</v>
       </c>
       <c r="E54" s="3">
-        <v>296423000</v>
+        <v>295449000</v>
       </c>
       <c r="F54" s="3">
-        <v>284464000</v>
+        <v>283529000</v>
       </c>
       <c r="G54" s="3">
-        <v>262841000</v>
+        <v>261977000</v>
       </c>
       <c r="H54" s="3">
-        <v>249234000</v>
+        <v>248414000</v>
       </c>
       <c r="I54" s="3">
-        <v>231630000</v>
+        <v>230868000</v>
       </c>
       <c r="J54" s="3">
-        <v>224832000</v>
+        <v>224092000</v>
       </c>
       <c r="K54" s="3">
         <v>210710000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3954400</v>
+        <v>3941400</v>
       </c>
       <c r="E57" s="3">
-        <v>2146400</v>
+        <v>2139300</v>
       </c>
       <c r="F57" s="3">
-        <v>2536400</v>
+        <v>2528000</v>
       </c>
       <c r="G57" s="3">
-        <v>2613400</v>
+        <v>2604800</v>
       </c>
       <c r="H57" s="3">
-        <v>3065300</v>
+        <v>3055200</v>
       </c>
       <c r="I57" s="3">
-        <v>2660700</v>
+        <v>2652000</v>
       </c>
       <c r="J57" s="3">
-        <v>1445100</v>
+        <v>1440400</v>
       </c>
       <c r="K57" s="3">
         <v>1409200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1017400</v>
+        <v>1014000</v>
       </c>
       <c r="E59" s="3">
-        <v>1181500</v>
+        <v>1177600</v>
       </c>
       <c r="F59" s="3">
-        <v>1135000</v>
+        <v>1131200</v>
       </c>
       <c r="G59" s="3">
-        <v>1092200</v>
+        <v>1088600</v>
       </c>
       <c r="H59" s="3">
-        <v>845000</v>
+        <v>842200</v>
       </c>
       <c r="I59" s="3">
-        <v>839400</v>
+        <v>836700</v>
       </c>
       <c r="J59" s="3">
-        <v>755100</v>
+        <v>752700</v>
       </c>
       <c r="K59" s="3">
         <v>837500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21841300</v>
+        <v>21769500</v>
       </c>
       <c r="E61" s="3">
-        <v>18599300</v>
+        <v>18538200</v>
       </c>
       <c r="F61" s="3">
-        <v>22433300</v>
+        <v>22359500</v>
       </c>
       <c r="G61" s="3">
-        <v>18455300</v>
+        <v>18394600</v>
       </c>
       <c r="H61" s="3">
-        <v>19162300</v>
+        <v>19099300</v>
       </c>
       <c r="I61" s="3">
-        <v>14870900</v>
+        <v>14822000</v>
       </c>
       <c r="J61" s="3">
-        <v>15358400</v>
+        <v>15307900</v>
       </c>
       <c r="K61" s="3">
         <v>14071600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>319600</v>
+        <v>318500</v>
       </c>
       <c r="E62" s="3">
-        <v>219300</v>
+        <v>218600</v>
       </c>
       <c r="F62" s="3">
-        <v>204400</v>
+        <v>203800</v>
       </c>
       <c r="G62" s="3">
-        <v>130500</v>
+        <v>130000</v>
       </c>
       <c r="H62" s="3">
-        <v>170000</v>
+        <v>169400</v>
       </c>
       <c r="I62" s="3">
-        <v>140400</v>
+        <v>140000</v>
       </c>
       <c r="J62" s="3">
-        <v>117600</v>
+        <v>117200</v>
       </c>
       <c r="K62" s="3">
         <v>64000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>286531000</v>
+        <v>285589000</v>
       </c>
       <c r="E66" s="3">
-        <v>267371000</v>
+        <v>266492000</v>
       </c>
       <c r="F66" s="3">
-        <v>256887000</v>
+        <v>256042000</v>
       </c>
       <c r="G66" s="3">
-        <v>235831000</v>
+        <v>235055000</v>
       </c>
       <c r="H66" s="3">
-        <v>225138000</v>
+        <v>224398000</v>
       </c>
       <c r="I66" s="3">
-        <v>209077000</v>
+        <v>208390000</v>
       </c>
       <c r="J66" s="3">
-        <v>203158000</v>
+        <v>202490000</v>
       </c>
       <c r="K66" s="3">
         <v>191148000</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>609500</v>
+        <v>607500</v>
       </c>
       <c r="J70" s="3">
-        <v>609500</v>
+        <v>607500</v>
       </c>
       <c r="K70" s="3">
         <v>616500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24801800</v>
+        <v>24720300</v>
       </c>
       <c r="E72" s="3">
-        <v>24121300</v>
+        <v>24042000</v>
       </c>
       <c r="F72" s="3">
-        <v>22814100</v>
+        <v>22739100</v>
       </c>
       <c r="G72" s="3">
-        <v>28202400</v>
+        <v>28109700</v>
       </c>
       <c r="H72" s="3">
-        <v>19773700</v>
+        <v>19708600</v>
       </c>
       <c r="I72" s="3">
-        <v>18388800</v>
+        <v>18328300</v>
       </c>
       <c r="J72" s="3">
-        <v>17415400</v>
+        <v>17358200</v>
       </c>
       <c r="K72" s="3">
         <v>16143800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29979600</v>
+        <v>29881000</v>
       </c>
       <c r="E76" s="3">
-        <v>29052800</v>
+        <v>28957200</v>
       </c>
       <c r="F76" s="3">
-        <v>27577000</v>
+        <v>27486300</v>
       </c>
       <c r="G76" s="3">
-        <v>27010300</v>
+        <v>26921500</v>
       </c>
       <c r="H76" s="3">
-        <v>24095400</v>
+        <v>24016200</v>
       </c>
       <c r="I76" s="3">
-        <v>21943100</v>
+        <v>21871000</v>
       </c>
       <c r="J76" s="3">
-        <v>21064200</v>
+        <v>20995000</v>
       </c>
       <c r="K76" s="3">
         <v>18945900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2069900</v>
+        <v>2063100</v>
       </c>
       <c r="E81" s="3">
-        <v>3112200</v>
+        <v>3102000</v>
       </c>
       <c r="F81" s="3">
-        <v>2856400</v>
+        <v>2847000</v>
       </c>
       <c r="G81" s="3">
-        <v>2410000</v>
+        <v>2402100</v>
       </c>
       <c r="H81" s="3">
-        <v>2201800</v>
+        <v>2194500</v>
       </c>
       <c r="I81" s="3">
-        <v>2274800</v>
+        <v>2267400</v>
       </c>
       <c r="J81" s="3">
-        <v>2306600</v>
+        <v>2299000</v>
       </c>
       <c r="K81" s="3">
         <v>2153400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332800</v>
+        <v>331700</v>
       </c>
       <c r="E83" s="3">
-        <v>292200</v>
+        <v>291200</v>
       </c>
       <c r="F83" s="3">
-        <v>200000</v>
+        <v>199300</v>
       </c>
       <c r="G83" s="3">
-        <v>189300</v>
+        <v>188700</v>
       </c>
       <c r="H83" s="3">
-        <v>162500</v>
+        <v>162000</v>
       </c>
       <c r="I83" s="3">
-        <v>133000</v>
+        <v>132600</v>
       </c>
       <c r="J83" s="3">
-        <v>119700</v>
+        <v>119300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7053500</v>
+        <v>7030300</v>
       </c>
       <c r="E89" s="3">
-        <v>6107700</v>
+        <v>6087600</v>
       </c>
       <c r="F89" s="3">
-        <v>-2717300</v>
+        <v>-2708300</v>
       </c>
       <c r="G89" s="3">
-        <v>2865200</v>
+        <v>2855800</v>
       </c>
       <c r="H89" s="3">
-        <v>-9758500</v>
+        <v>-9726400</v>
       </c>
       <c r="I89" s="3">
-        <v>484600</v>
+        <v>483000</v>
       </c>
       <c r="J89" s="3">
-        <v>5212100</v>
+        <v>5195000</v>
       </c>
       <c r="K89" s="3">
         <v>-8670100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-412700</v>
+        <v>-411300</v>
       </c>
       <c r="E91" s="3">
-        <v>-420000</v>
+        <v>-418600</v>
       </c>
       <c r="F91" s="3">
-        <v>-378600</v>
+        <v>-377300</v>
       </c>
       <c r="G91" s="3">
-        <v>-256100</v>
+        <v>-255300</v>
       </c>
       <c r="H91" s="3">
-        <v>-280600</v>
+        <v>-279700</v>
       </c>
       <c r="I91" s="3">
-        <v>-507200</v>
+        <v>-505500</v>
       </c>
       <c r="J91" s="3">
-        <v>-189500</v>
+        <v>-188900</v>
       </c>
       <c r="K91" s="3">
         <v>-164100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374600</v>
+        <v>-373300</v>
       </c>
       <c r="E94" s="3">
-        <v>-366600</v>
+        <v>-365400</v>
       </c>
       <c r="F94" s="3">
-        <v>-265300</v>
+        <v>-264500</v>
       </c>
       <c r="G94" s="3">
-        <v>-249900</v>
+        <v>-249100</v>
       </c>
       <c r="H94" s="3">
-        <v>-279900</v>
+        <v>-279000</v>
       </c>
       <c r="I94" s="3">
-        <v>-354400</v>
+        <v>-353300</v>
       </c>
       <c r="J94" s="3">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1346500</v>
+        <v>-1342100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1528100</v>
+        <v>-1523100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1206900</v>
+        <v>-1202900</v>
       </c>
       <c r="G96" s="3">
-        <v>-487400</v>
+        <v>-485800</v>
       </c>
       <c r="H96" s="3">
-        <v>-683200</v>
+        <v>-680900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1086700</v>
+        <v>-1083100</v>
       </c>
       <c r="J96" s="3">
-        <v>-518700</v>
+        <v>-517000</v>
       </c>
       <c r="K96" s="3">
         <v>-893800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1510700</v>
+        <v>1505700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5570100</v>
+        <v>-5551800</v>
       </c>
       <c r="F100" s="3">
-        <v>1948000</v>
+        <v>1941600</v>
       </c>
       <c r="G100" s="3">
-        <v>-258100</v>
+        <v>-257200</v>
       </c>
       <c r="H100" s="3">
-        <v>3461400</v>
+        <v>3450000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1715900</v>
+        <v>-1710300</v>
       </c>
       <c r="J100" s="3">
-        <v>877900</v>
+        <v>875000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3714,22 +3714,22 @@
         <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>247300</v>
+        <v>246500</v>
       </c>
       <c r="F101" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="G101" s="3">
-        <v>-470200</v>
+        <v>-468600</v>
       </c>
       <c r="H101" s="3">
-        <v>107000</v>
+        <v>106700</v>
       </c>
       <c r="I101" s="3">
-        <v>-229400</v>
+        <v>-228700</v>
       </c>
       <c r="J101" s="3">
-        <v>66800</v>
+        <v>66600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8191800</v>
+        <v>8164900</v>
       </c>
       <c r="E102" s="3">
-        <v>418400</v>
+        <v>417000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1011700</v>
+        <v>-1008300</v>
       </c>
       <c r="G102" s="3">
-        <v>1887000</v>
+        <v>1880800</v>
       </c>
       <c r="H102" s="3">
-        <v>-6470000</v>
+        <v>-6448800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1815200</v>
+        <v>-1809200</v>
       </c>
       <c r="J102" s="3">
-        <v>6201200</v>
+        <v>6180800</v>
       </c>
       <c r="K102" s="3">
         <v>-5225700</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7030300</v>
+        <v>7056100</v>
       </c>
       <c r="E8" s="3">
-        <v>9173600</v>
+        <v>9207300</v>
       </c>
       <c r="F8" s="3">
-        <v>8139300</v>
+        <v>8169100</v>
       </c>
       <c r="G8" s="3">
-        <v>6631100</v>
+        <v>6655400</v>
       </c>
       <c r="H8" s="3">
-        <v>6056800</v>
+        <v>6079000</v>
       </c>
       <c r="I8" s="3">
-        <v>5717500</v>
+        <v>5738500</v>
       </c>
       <c r="J8" s="3">
-        <v>5252300</v>
+        <v>5271600</v>
       </c>
       <c r="K8" s="3">
         <v>4824800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3756600</v>
+        <v>3770400</v>
       </c>
       <c r="E17" s="3">
-        <v>4697000</v>
+        <v>4714200</v>
       </c>
       <c r="F17" s="3">
-        <v>3882000</v>
+        <v>3896200</v>
       </c>
       <c r="G17" s="3">
-        <v>3123900</v>
+        <v>3135300</v>
       </c>
       <c r="H17" s="3">
-        <v>2844500</v>
+        <v>2855000</v>
       </c>
       <c r="I17" s="3">
-        <v>2609300</v>
+        <v>2618900</v>
       </c>
       <c r="J17" s="3">
-        <v>2386700</v>
+        <v>2395500</v>
       </c>
       <c r="K17" s="3">
         <v>2088500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3273700</v>
+        <v>3285700</v>
       </c>
       <c r="E18" s="3">
-        <v>4476700</v>
+        <v>4493100</v>
       </c>
       <c r="F18" s="3">
-        <v>4257200</v>
+        <v>4272900</v>
       </c>
       <c r="G18" s="3">
-        <v>3507200</v>
+        <v>3520100</v>
       </c>
       <c r="H18" s="3">
-        <v>3212300</v>
+        <v>3224100</v>
       </c>
       <c r="I18" s="3">
-        <v>3108200</v>
+        <v>3119600</v>
       </c>
       <c r="J18" s="3">
-        <v>2865600</v>
+        <v>2876100</v>
       </c>
       <c r="K18" s="3">
         <v>2736200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-690400</v>
+        <v>-692900</v>
       </c>
       <c r="E20" s="3">
-        <v>-696500</v>
+        <v>-699100</v>
       </c>
       <c r="F20" s="3">
-        <v>-731400</v>
+        <v>-734000</v>
       </c>
       <c r="G20" s="3">
-        <v>-433900</v>
+        <v>-435400</v>
       </c>
       <c r="H20" s="3">
-        <v>-453000</v>
+        <v>-454700</v>
       </c>
       <c r="I20" s="3">
-        <v>-281900</v>
+        <v>-282900</v>
       </c>
       <c r="J20" s="3">
-        <v>-71300</v>
+        <v>-71500</v>
       </c>
       <c r="K20" s="3">
         <v>-79200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2914500</v>
+        <v>2927100</v>
       </c>
       <c r="E21" s="3">
-        <v>4071000</v>
+        <v>4087600</v>
       </c>
       <c r="F21" s="3">
-        <v>3725000</v>
+        <v>3739800</v>
       </c>
       <c r="G21" s="3">
-        <v>3261800</v>
+        <v>3274800</v>
       </c>
       <c r="H21" s="3">
-        <v>2921100</v>
+        <v>2932700</v>
       </c>
       <c r="I21" s="3">
-        <v>2958800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2913500</v>
+        <v>2970400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2583300</v>
+        <v>2592800</v>
       </c>
       <c r="E23" s="3">
-        <v>3780100</v>
+        <v>3794000</v>
       </c>
       <c r="F23" s="3">
-        <v>3525900</v>
+        <v>3538800</v>
       </c>
       <c r="G23" s="3">
-        <v>3073300</v>
+        <v>3084600</v>
       </c>
       <c r="H23" s="3">
-        <v>2759300</v>
+        <v>2769400</v>
       </c>
       <c r="I23" s="3">
-        <v>2826400</v>
+        <v>2836700</v>
       </c>
       <c r="J23" s="3">
-        <v>2794300</v>
+        <v>2804600</v>
       </c>
       <c r="K23" s="3">
         <v>2657100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>442700</v>
+        <v>444300</v>
       </c>
       <c r="E24" s="3">
-        <v>593600</v>
+        <v>595800</v>
       </c>
       <c r="F24" s="3">
-        <v>588300</v>
+        <v>590500</v>
       </c>
       <c r="G24" s="3">
-        <v>584500</v>
+        <v>586700</v>
       </c>
       <c r="H24" s="3">
-        <v>488700</v>
+        <v>490500</v>
       </c>
       <c r="I24" s="3">
-        <v>473900</v>
+        <v>475600</v>
       </c>
       <c r="J24" s="3">
-        <v>409600</v>
+        <v>411100</v>
       </c>
       <c r="K24" s="3">
         <v>414500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2140600</v>
+        <v>2148400</v>
       </c>
       <c r="E26" s="3">
-        <v>3186500</v>
+        <v>3198200</v>
       </c>
       <c r="F26" s="3">
-        <v>2937500</v>
+        <v>2948300</v>
       </c>
       <c r="G26" s="3">
-        <v>2488800</v>
+        <v>2497900</v>
       </c>
       <c r="H26" s="3">
-        <v>2270600</v>
+        <v>2278900</v>
       </c>
       <c r="I26" s="3">
-        <v>2352500</v>
+        <v>2361100</v>
       </c>
       <c r="J26" s="3">
-        <v>2384700</v>
+        <v>2393500</v>
       </c>
       <c r="K26" s="3">
         <v>2242600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2063100</v>
+        <v>2070700</v>
       </c>
       <c r="E27" s="3">
-        <v>3102000</v>
+        <v>3113300</v>
       </c>
       <c r="F27" s="3">
-        <v>2847000</v>
+        <v>2857400</v>
       </c>
       <c r="G27" s="3">
-        <v>2402100</v>
+        <v>2410900</v>
       </c>
       <c r="H27" s="3">
-        <v>2194500</v>
+        <v>2202600</v>
       </c>
       <c r="I27" s="3">
-        <v>2267400</v>
+        <v>2275700</v>
       </c>
       <c r="J27" s="3">
-        <v>2299000</v>
+        <v>2307500</v>
       </c>
       <c r="K27" s="3">
         <v>2153400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>690400</v>
+        <v>692900</v>
       </c>
       <c r="E32" s="3">
-        <v>696500</v>
+        <v>699100</v>
       </c>
       <c r="F32" s="3">
-        <v>731400</v>
+        <v>734000</v>
       </c>
       <c r="G32" s="3">
-        <v>433900</v>
+        <v>435400</v>
       </c>
       <c r="H32" s="3">
-        <v>453000</v>
+        <v>454700</v>
       </c>
       <c r="I32" s="3">
-        <v>281900</v>
+        <v>282900</v>
       </c>
       <c r="J32" s="3">
-        <v>71300</v>
+        <v>71500</v>
       </c>
       <c r="K32" s="3">
         <v>79200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2063100</v>
+        <v>2070700</v>
       </c>
       <c r="E33" s="3">
-        <v>3102000</v>
+        <v>3113300</v>
       </c>
       <c r="F33" s="3">
-        <v>2847000</v>
+        <v>2857400</v>
       </c>
       <c r="G33" s="3">
-        <v>2402100</v>
+        <v>2410900</v>
       </c>
       <c r="H33" s="3">
-        <v>2194500</v>
+        <v>2202600</v>
       </c>
       <c r="I33" s="3">
-        <v>2267400</v>
+        <v>2275700</v>
       </c>
       <c r="J33" s="3">
-        <v>2299000</v>
+        <v>2307500</v>
       </c>
       <c r="K33" s="3">
         <v>2153400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2063100</v>
+        <v>2070700</v>
       </c>
       <c r="E35" s="3">
-        <v>3102000</v>
+        <v>3113300</v>
       </c>
       <c r="F35" s="3">
-        <v>2847000</v>
+        <v>2857400</v>
       </c>
       <c r="G35" s="3">
-        <v>2402100</v>
+        <v>2410900</v>
       </c>
       <c r="H35" s="3">
-        <v>2194500</v>
+        <v>2202600</v>
       </c>
       <c r="I35" s="3">
-        <v>2267400</v>
+        <v>2275700</v>
       </c>
       <c r="J35" s="3">
-        <v>2299000</v>
+        <v>2307500</v>
       </c>
       <c r="K35" s="3">
         <v>2153400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52341700</v>
+        <v>55341300</v>
       </c>
       <c r="E41" s="3">
-        <v>53346500</v>
+        <v>52533700</v>
       </c>
       <c r="F41" s="3">
-        <v>55561300</v>
+        <v>53542200</v>
       </c>
       <c r="G41" s="3">
-        <v>77024700</v>
+        <v>55765100</v>
       </c>
       <c r="H41" s="3">
-        <v>47015800</v>
+        <v>77307300</v>
       </c>
       <c r="I41" s="3">
-        <v>44529400</v>
+        <v>47188300</v>
       </c>
       <c r="J41" s="3">
-        <v>46592100</v>
+        <v>44692700</v>
       </c>
       <c r="K41" s="3">
         <v>43214400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21502100</v>
+        <v>25558200</v>
       </c>
       <c r="E42" s="3">
-        <v>13327600</v>
+        <v>21581000</v>
       </c>
       <c r="F42" s="3">
-        <v>11310400</v>
+        <v>13376500</v>
       </c>
       <c r="G42" s="3">
-        <v>9525800</v>
+        <v>11351900</v>
       </c>
       <c r="H42" s="3">
-        <v>10788400</v>
+        <v>9560700</v>
       </c>
       <c r="I42" s="3">
-        <v>8649300</v>
+        <v>10827900</v>
       </c>
       <c r="J42" s="3">
-        <v>8896700</v>
+        <v>8681000</v>
       </c>
       <c r="K42" s="3">
         <v>11433800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>884000</v>
+        <v>912900</v>
       </c>
       <c r="E47" s="3">
-        <v>863900</v>
+        <v>887200</v>
       </c>
       <c r="F47" s="3">
-        <v>854500</v>
+        <v>867100</v>
       </c>
       <c r="G47" s="3">
-        <v>872600</v>
+        <v>857600</v>
       </c>
       <c r="H47" s="3">
-        <v>810100</v>
+        <v>875800</v>
       </c>
       <c r="I47" s="3">
-        <v>808000</v>
+        <v>813100</v>
       </c>
       <c r="J47" s="3">
-        <v>869000</v>
+        <v>810900</v>
       </c>
       <c r="K47" s="3">
         <v>738800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2866000</v>
+        <v>2941100</v>
       </c>
       <c r="E48" s="3">
-        <v>2699800</v>
+        <v>2876500</v>
       </c>
       <c r="F48" s="3">
-        <v>2394800</v>
+        <v>2709700</v>
       </c>
       <c r="G48" s="3">
-        <v>4469700</v>
+        <v>2403600</v>
       </c>
       <c r="H48" s="3">
-        <v>2184300</v>
+        <v>4486100</v>
       </c>
       <c r="I48" s="3">
-        <v>2080000</v>
+        <v>2192300</v>
       </c>
       <c r="J48" s="3">
-        <v>1744900</v>
+        <v>2087600</v>
       </c>
       <c r="K48" s="3">
         <v>1700100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3026800</v>
+        <v>3039300</v>
       </c>
       <c r="E49" s="3">
-        <v>3030300</v>
+        <v>3037900</v>
       </c>
       <c r="F49" s="3">
-        <v>3023400</v>
+        <v>3041400</v>
       </c>
       <c r="G49" s="3">
-        <v>6052000</v>
+        <v>3034500</v>
       </c>
       <c r="H49" s="3">
-        <v>3032600</v>
+        <v>6074200</v>
       </c>
       <c r="I49" s="3">
-        <v>3027400</v>
+        <v>3043800</v>
       </c>
       <c r="J49" s="3">
-        <v>3031300</v>
+        <v>3038500</v>
       </c>
       <c r="K49" s="3">
         <v>3072000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>313400</v>
+        <v>374000</v>
       </c>
       <c r="E52" s="3">
-        <v>218800</v>
+        <v>314600</v>
       </c>
       <c r="F52" s="3">
-        <v>207300</v>
+        <v>219600</v>
       </c>
       <c r="G52" s="3">
-        <v>141200</v>
+        <v>208000</v>
       </c>
       <c r="H52" s="3">
-        <v>183400</v>
+        <v>141700</v>
       </c>
       <c r="I52" s="3">
-        <v>165900</v>
+        <v>184100</v>
       </c>
       <c r="J52" s="3">
-        <v>169200</v>
+        <v>166500</v>
       </c>
       <c r="K52" s="3">
         <v>213300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>315470000</v>
+        <v>336799000</v>
       </c>
       <c r="E54" s="3">
-        <v>295449000</v>
+        <v>316628000</v>
       </c>
       <c r="F54" s="3">
-        <v>283529000</v>
+        <v>296533000</v>
       </c>
       <c r="G54" s="3">
-        <v>261977000</v>
+        <v>284569000</v>
       </c>
       <c r="H54" s="3">
-        <v>248414000</v>
+        <v>262938000</v>
       </c>
       <c r="I54" s="3">
-        <v>230868000</v>
+        <v>249325000</v>
       </c>
       <c r="J54" s="3">
-        <v>224092000</v>
+        <v>231715000</v>
       </c>
       <c r="K54" s="3">
         <v>210710000</v>
@@ -2273,26 +2273,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>3941400</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>2139300</v>
+        <v>3955900</v>
       </c>
       <c r="F57" s="3">
-        <v>2528000</v>
+        <v>2147200</v>
       </c>
       <c r="G57" s="3">
-        <v>2604800</v>
+        <v>2537300</v>
       </c>
       <c r="H57" s="3">
-        <v>3055200</v>
+        <v>2614300</v>
       </c>
       <c r="I57" s="3">
-        <v>2652000</v>
+        <v>3066400</v>
       </c>
       <c r="J57" s="3">
-        <v>1440400</v>
+        <v>2661700</v>
       </c>
       <c r="K57" s="3">
         <v>1409200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1014000</v>
+        <v>412800</v>
       </c>
       <c r="E59" s="3">
-        <v>1177600</v>
+        <v>1017800</v>
       </c>
       <c r="F59" s="3">
-        <v>1131200</v>
+        <v>1181900</v>
       </c>
       <c r="G59" s="3">
-        <v>1088600</v>
+        <v>1135400</v>
       </c>
       <c r="H59" s="3">
-        <v>842200</v>
+        <v>1092600</v>
       </c>
       <c r="I59" s="3">
-        <v>836700</v>
+        <v>845300</v>
       </c>
       <c r="J59" s="3">
-        <v>752700</v>
+        <v>839700</v>
       </c>
       <c r="K59" s="3">
         <v>837500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21769500</v>
+        <v>24971600</v>
       </c>
       <c r="E61" s="3">
-        <v>18538200</v>
+        <v>21849400</v>
       </c>
       <c r="F61" s="3">
-        <v>22359500</v>
+        <v>18606200</v>
       </c>
       <c r="G61" s="3">
-        <v>18394600</v>
+        <v>22441600</v>
       </c>
       <c r="H61" s="3">
-        <v>19099300</v>
+        <v>18462100</v>
       </c>
       <c r="I61" s="3">
-        <v>14822000</v>
+        <v>19169300</v>
       </c>
       <c r="J61" s="3">
-        <v>15307900</v>
+        <v>14876400</v>
       </c>
       <c r="K61" s="3">
         <v>14071600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>318500</v>
+        <v>316000</v>
       </c>
       <c r="E62" s="3">
-        <v>218600</v>
+        <v>319700</v>
       </c>
       <c r="F62" s="3">
-        <v>203800</v>
+        <v>219400</v>
       </c>
       <c r="G62" s="3">
-        <v>130000</v>
+        <v>204500</v>
       </c>
       <c r="H62" s="3">
-        <v>169400</v>
+        <v>130500</v>
       </c>
       <c r="I62" s="3">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="J62" s="3">
-        <v>117200</v>
+        <v>140500</v>
       </c>
       <c r="K62" s="3">
         <v>64000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>285589000</v>
+        <v>305538000</v>
       </c>
       <c r="E66" s="3">
-        <v>266492000</v>
+        <v>286637000</v>
       </c>
       <c r="F66" s="3">
-        <v>256042000</v>
+        <v>267469000</v>
       </c>
       <c r="G66" s="3">
-        <v>235055000</v>
+        <v>256982000</v>
       </c>
       <c r="H66" s="3">
-        <v>224398000</v>
+        <v>235918000</v>
       </c>
       <c r="I66" s="3">
-        <v>208390000</v>
+        <v>225221000</v>
       </c>
       <c r="J66" s="3">
-        <v>202490000</v>
+        <v>209154000</v>
       </c>
       <c r="K66" s="3">
         <v>191148000</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>607500</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>607500</v>
+        <v>609700</v>
       </c>
       <c r="K70" s="3">
         <v>616500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24720300</v>
+        <v>25841200</v>
       </c>
       <c r="E72" s="3">
-        <v>24042000</v>
+        <v>24811000</v>
       </c>
       <c r="F72" s="3">
-        <v>22739100</v>
+        <v>24130100</v>
       </c>
       <c r="G72" s="3">
-        <v>28109700</v>
+        <v>22822500</v>
       </c>
       <c r="H72" s="3">
-        <v>19708600</v>
+        <v>28212800</v>
       </c>
       <c r="I72" s="3">
-        <v>18328300</v>
+        <v>19780900</v>
       </c>
       <c r="J72" s="3">
-        <v>17358200</v>
+        <v>18395600</v>
       </c>
       <c r="K72" s="3">
         <v>16143800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29881000</v>
+        <v>31260600</v>
       </c>
       <c r="E76" s="3">
-        <v>28957200</v>
+        <v>29990700</v>
       </c>
       <c r="F76" s="3">
-        <v>27486300</v>
+        <v>29063500</v>
       </c>
       <c r="G76" s="3">
-        <v>26921500</v>
+        <v>27587100</v>
       </c>
       <c r="H76" s="3">
-        <v>24016200</v>
+        <v>27020200</v>
       </c>
       <c r="I76" s="3">
-        <v>21871000</v>
+        <v>24104300</v>
       </c>
       <c r="J76" s="3">
-        <v>20995000</v>
+        <v>21951200</v>
       </c>
       <c r="K76" s="3">
         <v>18945900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2063100</v>
+        <v>2070700</v>
       </c>
       <c r="E81" s="3">
-        <v>3102000</v>
+        <v>3113300</v>
       </c>
       <c r="F81" s="3">
-        <v>2847000</v>
+        <v>2857400</v>
       </c>
       <c r="G81" s="3">
-        <v>2402100</v>
+        <v>2410900</v>
       </c>
       <c r="H81" s="3">
-        <v>2194500</v>
+        <v>2202600</v>
       </c>
       <c r="I81" s="3">
-        <v>2267400</v>
+        <v>2275700</v>
       </c>
       <c r="J81" s="3">
-        <v>2299000</v>
+        <v>2307500</v>
       </c>
       <c r="K81" s="3">
         <v>2153400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>331700</v>
+        <v>332900</v>
       </c>
       <c r="E83" s="3">
-        <v>291200</v>
+        <v>292300</v>
       </c>
       <c r="F83" s="3">
-        <v>199300</v>
+        <v>200100</v>
       </c>
       <c r="G83" s="3">
-        <v>188700</v>
+        <v>189400</v>
       </c>
       <c r="H83" s="3">
-        <v>162000</v>
+        <v>162600</v>
       </c>
       <c r="I83" s="3">
-        <v>132600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>119300</v>
+        <v>133100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7030300</v>
+        <v>7056100</v>
       </c>
       <c r="E89" s="3">
-        <v>6087600</v>
+        <v>6109900</v>
       </c>
       <c r="F89" s="3">
-        <v>-2708300</v>
+        <v>-2718300</v>
       </c>
       <c r="G89" s="3">
-        <v>2855800</v>
+        <v>2866200</v>
       </c>
       <c r="H89" s="3">
-        <v>-9726400</v>
+        <v>-9762100</v>
       </c>
       <c r="I89" s="3">
-        <v>483000</v>
+        <v>484700</v>
       </c>
       <c r="J89" s="3">
-        <v>5195000</v>
+        <v>5214000</v>
       </c>
       <c r="K89" s="3">
         <v>-8670100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-411300</v>
+        <v>-412800</v>
       </c>
       <c r="E91" s="3">
-        <v>-418600</v>
+        <v>-420100</v>
       </c>
       <c r="F91" s="3">
-        <v>-377300</v>
+        <v>-378700</v>
       </c>
       <c r="G91" s="3">
-        <v>-255300</v>
+        <v>-256200</v>
       </c>
       <c r="H91" s="3">
-        <v>-279700</v>
+        <v>-280700</v>
       </c>
       <c r="I91" s="3">
-        <v>-505500</v>
+        <v>-507400</v>
       </c>
       <c r="J91" s="3">
-        <v>-188900</v>
+        <v>-189600</v>
       </c>
       <c r="K91" s="3">
         <v>-164100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373300</v>
+        <v>-374700</v>
       </c>
       <c r="E94" s="3">
-        <v>-365400</v>
+        <v>-366700</v>
       </c>
       <c r="F94" s="3">
-        <v>-264500</v>
+        <v>-265400</v>
       </c>
       <c r="G94" s="3">
-        <v>-249100</v>
+        <v>-250000</v>
       </c>
       <c r="H94" s="3">
-        <v>-279000</v>
+        <v>-280000</v>
       </c>
       <c r="I94" s="3">
-        <v>-353300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>44300</v>
+        <v>-354600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1342100</v>
+        <v>-1347000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1523100</v>
+        <v>-1528700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1202900</v>
+        <v>-1207300</v>
       </c>
       <c r="G96" s="3">
-        <v>-485800</v>
+        <v>-487600</v>
       </c>
       <c r="H96" s="3">
-        <v>-680900</v>
+        <v>-683400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1083100</v>
+        <v>-1087100</v>
       </c>
       <c r="J96" s="3">
-        <v>-517000</v>
+        <v>-518900</v>
       </c>
       <c r="K96" s="3">
         <v>-893800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1505700</v>
+        <v>1511200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5551800</v>
+        <v>-5572100</v>
       </c>
       <c r="F100" s="3">
-        <v>1941600</v>
+        <v>1948700</v>
       </c>
       <c r="G100" s="3">
-        <v>-257200</v>
+        <v>-258200</v>
       </c>
       <c r="H100" s="3">
-        <v>3450000</v>
+        <v>3462700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1710300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>875000</v>
+        <v>-1716500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3714,22 +3714,22 @@
         <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>246500</v>
+        <v>247400</v>
       </c>
       <c r="F101" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="G101" s="3">
-        <v>-468600</v>
+        <v>-470300</v>
       </c>
       <c r="H101" s="3">
-        <v>106700</v>
+        <v>107000</v>
       </c>
       <c r="I101" s="3">
-        <v>-228700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>66600</v>
+        <v>-229500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8164900</v>
+        <v>8194800</v>
       </c>
       <c r="E102" s="3">
-        <v>417000</v>
+        <v>418500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1008300</v>
+        <v>-1012000</v>
       </c>
       <c r="G102" s="3">
-        <v>1880800</v>
+        <v>1887700</v>
       </c>
       <c r="H102" s="3">
-        <v>-6448800</v>
+        <v>-6472400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1809200</v>
+        <v>-1815900</v>
       </c>
       <c r="J102" s="3">
-        <v>6180800</v>
+        <v>6203500</v>
       </c>
       <c r="K102" s="3">
         <v>-5225700</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7056100</v>
+        <v>5873800</v>
       </c>
       <c r="E8" s="3">
-        <v>9207300</v>
+        <v>6889800</v>
       </c>
       <c r="F8" s="3">
-        <v>8169100</v>
+        <v>8990300</v>
       </c>
       <c r="G8" s="3">
-        <v>6655400</v>
+        <v>7976600</v>
       </c>
       <c r="H8" s="3">
-        <v>6079000</v>
+        <v>6498500</v>
       </c>
       <c r="I8" s="3">
-        <v>5738500</v>
+        <v>5935800</v>
       </c>
       <c r="J8" s="3">
+        <v>5603300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5271600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4824800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4476100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4159000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,14 +998,17 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>-5300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-7700</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3770400</v>
+        <v>1770600</v>
       </c>
       <c r="E17" s="3">
-        <v>4714200</v>
+        <v>3681500</v>
       </c>
       <c r="F17" s="3">
-        <v>3896200</v>
+        <v>4603100</v>
       </c>
       <c r="G17" s="3">
-        <v>3135300</v>
+        <v>3804400</v>
       </c>
       <c r="H17" s="3">
-        <v>2855000</v>
+        <v>3061400</v>
       </c>
       <c r="I17" s="3">
-        <v>2618900</v>
+        <v>2787700</v>
       </c>
       <c r="J17" s="3">
+        <v>2557200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2395500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2088500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1992800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1832900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3285700</v>
+        <v>4103200</v>
       </c>
       <c r="E18" s="3">
-        <v>4493100</v>
+        <v>3208300</v>
       </c>
       <c r="F18" s="3">
-        <v>4272900</v>
+        <v>4387200</v>
       </c>
       <c r="G18" s="3">
-        <v>3520100</v>
+        <v>4172200</v>
       </c>
       <c r="H18" s="3">
-        <v>3224100</v>
+        <v>3437100</v>
       </c>
       <c r="I18" s="3">
-        <v>3119600</v>
+        <v>3148100</v>
       </c>
       <c r="J18" s="3">
+        <v>3046100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2876100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2736200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2483300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2326200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-692900</v>
+        <v>-568500</v>
       </c>
       <c r="E20" s="3">
-        <v>-699100</v>
+        <v>-676600</v>
       </c>
       <c r="F20" s="3">
-        <v>-734000</v>
+        <v>-682600</v>
       </c>
       <c r="G20" s="3">
-        <v>-435400</v>
+        <v>-716700</v>
       </c>
       <c r="H20" s="3">
-        <v>-454700</v>
+        <v>-425200</v>
       </c>
       <c r="I20" s="3">
-        <v>-282900</v>
+        <v>-443900</v>
       </c>
       <c r="J20" s="3">
+        <v>-276200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-71500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-79200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-64600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-255700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2927100</v>
+        <v>3886700</v>
       </c>
       <c r="E21" s="3">
-        <v>4087600</v>
+        <v>2858500</v>
       </c>
       <c r="F21" s="3">
-        <v>3739800</v>
+        <v>3991500</v>
       </c>
       <c r="G21" s="3">
-        <v>3274800</v>
+        <v>3651800</v>
       </c>
       <c r="H21" s="3">
-        <v>2932700</v>
+        <v>3197800</v>
       </c>
       <c r="I21" s="3">
-        <v>2970400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>2863700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2900500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>2506700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2592800</v>
+        <v>3534700</v>
       </c>
       <c r="E23" s="3">
-        <v>3794000</v>
+        <v>2531700</v>
       </c>
       <c r="F23" s="3">
-        <v>3538800</v>
+        <v>3704600</v>
       </c>
       <c r="G23" s="3">
-        <v>3084600</v>
+        <v>3455400</v>
       </c>
       <c r="H23" s="3">
-        <v>2769400</v>
+        <v>3011900</v>
       </c>
       <c r="I23" s="3">
-        <v>2836700</v>
+        <v>2704200</v>
       </c>
       <c r="J23" s="3">
+        <v>2769900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2804600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2657100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2418700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2070400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444300</v>
+        <v>608600</v>
       </c>
       <c r="E24" s="3">
-        <v>595800</v>
+        <v>433900</v>
       </c>
       <c r="F24" s="3">
-        <v>590500</v>
+        <v>581800</v>
       </c>
       <c r="G24" s="3">
-        <v>586700</v>
+        <v>576600</v>
       </c>
       <c r="H24" s="3">
-        <v>490500</v>
+        <v>572900</v>
       </c>
       <c r="I24" s="3">
-        <v>475600</v>
+        <v>479000</v>
       </c>
       <c r="J24" s="3">
+        <v>464400</v>
+      </c>
+      <c r="K24" s="3">
         <v>411100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>414500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>383000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>344500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2148400</v>
+        <v>2926200</v>
       </c>
       <c r="E26" s="3">
-        <v>3198200</v>
+        <v>2097800</v>
       </c>
       <c r="F26" s="3">
-        <v>2948300</v>
+        <v>3122800</v>
       </c>
       <c r="G26" s="3">
-        <v>2497900</v>
+        <v>2878800</v>
       </c>
       <c r="H26" s="3">
-        <v>2278900</v>
+        <v>2439100</v>
       </c>
       <c r="I26" s="3">
-        <v>2361100</v>
+        <v>2225200</v>
       </c>
       <c r="J26" s="3">
+        <v>2305400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2393500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2242600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2035700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1725900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2070700</v>
+        <v>2866000</v>
       </c>
       <c r="E27" s="3">
-        <v>3113300</v>
+        <v>2021900</v>
       </c>
       <c r="F27" s="3">
-        <v>2857400</v>
+        <v>3040000</v>
       </c>
       <c r="G27" s="3">
-        <v>2410900</v>
+        <v>2790100</v>
       </c>
       <c r="H27" s="3">
-        <v>2202600</v>
+        <v>2354100</v>
       </c>
       <c r="I27" s="3">
-        <v>2275700</v>
+        <v>2150700</v>
       </c>
       <c r="J27" s="3">
+        <v>2222100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2307500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2153400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1948900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1639900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>692900</v>
+        <v>568500</v>
       </c>
       <c r="E32" s="3">
-        <v>699100</v>
+        <v>676600</v>
       </c>
       <c r="F32" s="3">
-        <v>734000</v>
+        <v>682600</v>
       </c>
       <c r="G32" s="3">
-        <v>435400</v>
+        <v>716700</v>
       </c>
       <c r="H32" s="3">
-        <v>454700</v>
+        <v>425200</v>
       </c>
       <c r="I32" s="3">
-        <v>282900</v>
+        <v>443900</v>
       </c>
       <c r="J32" s="3">
+        <v>276200</v>
+      </c>
+      <c r="K32" s="3">
         <v>71500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>79200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>64600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>255700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2070700</v>
+        <v>2866000</v>
       </c>
       <c r="E33" s="3">
-        <v>3113300</v>
+        <v>2021900</v>
       </c>
       <c r="F33" s="3">
-        <v>2857400</v>
+        <v>3040000</v>
       </c>
       <c r="G33" s="3">
-        <v>2410900</v>
+        <v>2790100</v>
       </c>
       <c r="H33" s="3">
-        <v>2202600</v>
+        <v>2354100</v>
       </c>
       <c r="I33" s="3">
-        <v>2275700</v>
+        <v>2150700</v>
       </c>
       <c r="J33" s="3">
+        <v>2222100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2307500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2153400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1948900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1639900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2070700</v>
+        <v>2866000</v>
       </c>
       <c r="E35" s="3">
-        <v>3113300</v>
+        <v>2021900</v>
       </c>
       <c r="F35" s="3">
-        <v>2857400</v>
+        <v>3040000</v>
       </c>
       <c r="G35" s="3">
-        <v>2410900</v>
+        <v>2790100</v>
       </c>
       <c r="H35" s="3">
-        <v>2202600</v>
+        <v>2354100</v>
       </c>
       <c r="I35" s="3">
-        <v>2275700</v>
+        <v>2150700</v>
       </c>
       <c r="J35" s="3">
+        <v>2222100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2307500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2153400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1948900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1639900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55341300</v>
+        <v>50034800</v>
       </c>
       <c r="E41" s="3">
-        <v>52533700</v>
+        <v>51295700</v>
       </c>
       <c r="F41" s="3">
-        <v>53542200</v>
+        <v>52280400</v>
       </c>
       <c r="G41" s="3">
-        <v>55765100</v>
+        <v>54451000</v>
       </c>
       <c r="H41" s="3">
-        <v>77307300</v>
+        <v>75485400</v>
       </c>
       <c r="I41" s="3">
-        <v>47188300</v>
+        <v>46076200</v>
       </c>
       <c r="J41" s="3">
+        <v>43639500</v>
+      </c>
+      <c r="K41" s="3">
         <v>44692700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43214400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35400200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19750800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25558200</v>
+        <v>24955900</v>
       </c>
       <c r="E42" s="3">
-        <v>21581000</v>
+        <v>21072400</v>
       </c>
       <c r="F42" s="3">
-        <v>13376500</v>
+        <v>13061200</v>
       </c>
       <c r="G42" s="3">
-        <v>11351900</v>
+        <v>11084400</v>
       </c>
       <c r="H42" s="3">
-        <v>9560700</v>
+        <v>9335400</v>
       </c>
       <c r="I42" s="3">
-        <v>10827900</v>
+        <v>10572800</v>
       </c>
       <c r="J42" s="3">
+        <v>8476400</v>
+      </c>
+      <c r="K42" s="3">
         <v>8681000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11433800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8220100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>912900</v>
+        <v>891400</v>
       </c>
       <c r="E47" s="3">
-        <v>887200</v>
+        <v>866300</v>
       </c>
       <c r="F47" s="3">
-        <v>867100</v>
+        <v>846600</v>
       </c>
       <c r="G47" s="3">
-        <v>857600</v>
+        <v>837400</v>
       </c>
       <c r="H47" s="3">
-        <v>875800</v>
+        <v>855200</v>
       </c>
       <c r="I47" s="3">
-        <v>813100</v>
+        <v>794000</v>
       </c>
       <c r="J47" s="3">
+        <v>791800</v>
+      </c>
+      <c r="K47" s="3">
         <v>810900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>738800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>795400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>805400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2941100</v>
+        <v>2871800</v>
       </c>
       <c r="E48" s="3">
-        <v>2876500</v>
+        <v>2808800</v>
       </c>
       <c r="F48" s="3">
-        <v>2709700</v>
+        <v>2645800</v>
       </c>
       <c r="G48" s="3">
-        <v>2403600</v>
+        <v>2346900</v>
       </c>
       <c r="H48" s="3">
-        <v>4486100</v>
+        <v>4380400</v>
       </c>
       <c r="I48" s="3">
-        <v>2192300</v>
+        <v>2140600</v>
       </c>
       <c r="J48" s="3">
+        <v>2038400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2087600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3247600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1604600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3039300</v>
+        <v>2967700</v>
       </c>
       <c r="E49" s="3">
-        <v>3037900</v>
+        <v>2966300</v>
       </c>
       <c r="F49" s="3">
-        <v>3041400</v>
+        <v>2969700</v>
       </c>
       <c r="G49" s="3">
-        <v>3034500</v>
+        <v>2963000</v>
       </c>
       <c r="H49" s="3">
-        <v>6074200</v>
+        <v>5931000</v>
       </c>
       <c r="I49" s="3">
-        <v>3043800</v>
+        <v>2972000</v>
       </c>
       <c r="J49" s="3">
+        <v>2966900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3038500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3072000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6016800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3093900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>374000</v>
+        <v>365100</v>
       </c>
       <c r="E52" s="3">
-        <v>314600</v>
+        <v>307200</v>
       </c>
       <c r="F52" s="3">
-        <v>219600</v>
+        <v>214500</v>
       </c>
       <c r="G52" s="3">
-        <v>208000</v>
+        <v>203100</v>
       </c>
       <c r="H52" s="3">
-        <v>141700</v>
+        <v>138400</v>
       </c>
       <c r="I52" s="3">
-        <v>184100</v>
+        <v>179800</v>
       </c>
       <c r="J52" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K52" s="3">
         <v>166500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>213300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>214100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>246200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>336799000</v>
+        <v>328862000</v>
       </c>
       <c r="E54" s="3">
-        <v>316628000</v>
+        <v>309166000</v>
       </c>
       <c r="F54" s="3">
-        <v>296533000</v>
+        <v>289544000</v>
       </c>
       <c r="G54" s="3">
-        <v>284569000</v>
+        <v>277863000</v>
       </c>
       <c r="H54" s="3">
-        <v>262938000</v>
+        <v>256741000</v>
       </c>
       <c r="I54" s="3">
-        <v>249325000</v>
+        <v>243450000</v>
       </c>
       <c r="J54" s="3">
+        <v>226255000</v>
+      </c>
+      <c r="K54" s="3">
         <v>231715000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>210710000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182533000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>174721000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>3096600</v>
       </c>
       <c r="E57" s="3">
-        <v>3955900</v>
+        <v>3862700</v>
       </c>
       <c r="F57" s="3">
-        <v>2147200</v>
+        <v>2096600</v>
       </c>
       <c r="G57" s="3">
-        <v>2537300</v>
+        <v>2477500</v>
       </c>
       <c r="H57" s="3">
-        <v>2614300</v>
+        <v>2552700</v>
       </c>
       <c r="I57" s="3">
-        <v>3066400</v>
+        <v>2994100</v>
       </c>
       <c r="J57" s="3">
+        <v>2599000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2661700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1409200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>385000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>292600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412800</v>
+        <v>1195000</v>
       </c>
       <c r="E59" s="3">
-        <v>1017800</v>
+        <v>993800</v>
       </c>
       <c r="F59" s="3">
-        <v>1181900</v>
+        <v>1154100</v>
       </c>
       <c r="G59" s="3">
-        <v>1135400</v>
+        <v>1108600</v>
       </c>
       <c r="H59" s="3">
-        <v>1092600</v>
+        <v>1066800</v>
       </c>
       <c r="I59" s="3">
-        <v>845300</v>
+        <v>825300</v>
       </c>
       <c r="J59" s="3">
+        <v>819900</v>
+      </c>
+      <c r="K59" s="3">
         <v>839700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>837500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>867800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>805000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24971600</v>
+        <v>24510500</v>
       </c>
       <c r="E61" s="3">
-        <v>21849400</v>
+        <v>21334500</v>
       </c>
       <c r="F61" s="3">
-        <v>18606200</v>
+        <v>18167700</v>
       </c>
       <c r="G61" s="3">
-        <v>22441600</v>
+        <v>21912700</v>
       </c>
       <c r="H61" s="3">
-        <v>18462100</v>
+        <v>18027000</v>
       </c>
       <c r="I61" s="3">
-        <v>19169300</v>
+        <v>18717600</v>
       </c>
       <c r="J61" s="3">
+        <v>14525800</v>
+      </c>
+      <c r="K61" s="3">
         <v>14876400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14071600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9238500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8690400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>316000</v>
+        <v>308600</v>
       </c>
       <c r="E62" s="3">
-        <v>319700</v>
+        <v>312200</v>
       </c>
       <c r="F62" s="3">
-        <v>219400</v>
+        <v>214200</v>
       </c>
       <c r="G62" s="3">
-        <v>204500</v>
+        <v>199700</v>
       </c>
       <c r="H62" s="3">
-        <v>130500</v>
+        <v>127400</v>
       </c>
       <c r="I62" s="3">
-        <v>170000</v>
+        <v>166000</v>
       </c>
       <c r="J62" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K62" s="3">
         <v>140500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>305538000</v>
+        <v>298338000</v>
       </c>
       <c r="E66" s="3">
-        <v>286637000</v>
+        <v>279882000</v>
       </c>
       <c r="F66" s="3">
-        <v>267469000</v>
+        <v>261166000</v>
       </c>
       <c r="G66" s="3">
-        <v>256982000</v>
+        <v>250926000</v>
       </c>
       <c r="H66" s="3">
-        <v>235918000</v>
+        <v>230358000</v>
       </c>
       <c r="I66" s="3">
-        <v>225221000</v>
+        <v>219913000</v>
       </c>
       <c r="J66" s="3">
+        <v>204225000</v>
+      </c>
+      <c r="K66" s="3">
         <v>209154000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>191148000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>164431000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>157786000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2740,20 +2907,23 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>595400</v>
+      </c>
+      <c r="K70" s="3">
         <v>609700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>616500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25841200</v>
+        <v>25924600</v>
       </c>
       <c r="E72" s="3">
-        <v>24811000</v>
+        <v>24226300</v>
       </c>
       <c r="F72" s="3">
-        <v>24130100</v>
+        <v>23561500</v>
       </c>
       <c r="G72" s="3">
-        <v>22822500</v>
+        <v>22284700</v>
       </c>
       <c r="H72" s="3">
-        <v>28212800</v>
+        <v>27547900</v>
       </c>
       <c r="I72" s="3">
-        <v>19780900</v>
+        <v>19314800</v>
       </c>
       <c r="J72" s="3">
+        <v>17962000</v>
+      </c>
+      <c r="K72" s="3">
         <v>18395600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16143800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22078900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13697400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31260600</v>
+        <v>30523900</v>
       </c>
       <c r="E76" s="3">
-        <v>29990700</v>
+        <v>29283900</v>
       </c>
       <c r="F76" s="3">
-        <v>29063500</v>
+        <v>28378600</v>
       </c>
       <c r="G76" s="3">
-        <v>27587100</v>
+        <v>26937000</v>
       </c>
       <c r="H76" s="3">
-        <v>27020200</v>
+        <v>26383400</v>
       </c>
       <c r="I76" s="3">
-        <v>24104300</v>
+        <v>23536200</v>
       </c>
       <c r="J76" s="3">
+        <v>21433900</v>
+      </c>
+      <c r="K76" s="3">
         <v>21951200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18945900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18101700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16934800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2070700</v>
+        <v>2866000</v>
       </c>
       <c r="E81" s="3">
-        <v>3113300</v>
+        <v>2021900</v>
       </c>
       <c r="F81" s="3">
-        <v>2857400</v>
+        <v>3040000</v>
       </c>
       <c r="G81" s="3">
-        <v>2410900</v>
+        <v>2790100</v>
       </c>
       <c r="H81" s="3">
-        <v>2202600</v>
+        <v>2354100</v>
       </c>
       <c r="I81" s="3">
-        <v>2275700</v>
+        <v>2150700</v>
       </c>
       <c r="J81" s="3">
+        <v>2222100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2307500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2153400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1948900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1639900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332900</v>
+        <v>350100</v>
       </c>
       <c r="E83" s="3">
-        <v>292300</v>
+        <v>325100</v>
       </c>
       <c r="F83" s="3">
-        <v>200100</v>
+        <v>285400</v>
       </c>
       <c r="G83" s="3">
-        <v>189400</v>
+        <v>195400</v>
       </c>
       <c r="H83" s="3">
-        <v>162600</v>
+        <v>184900</v>
       </c>
       <c r="I83" s="3">
-        <v>133100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>158700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>130000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>87700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7056100</v>
+        <v>-2011200</v>
       </c>
       <c r="E89" s="3">
-        <v>6109900</v>
+        <v>6889800</v>
       </c>
       <c r="F89" s="3">
-        <v>-2718300</v>
+        <v>5965900</v>
       </c>
       <c r="G89" s="3">
-        <v>2866200</v>
+        <v>-2654200</v>
       </c>
       <c r="H89" s="3">
-        <v>-9762100</v>
+        <v>2798700</v>
       </c>
       <c r="I89" s="3">
-        <v>484700</v>
+        <v>-9532100</v>
       </c>
       <c r="J89" s="3">
+        <v>473300</v>
+      </c>
+      <c r="K89" s="3">
         <v>5214000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8670100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4576000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7048700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-412800</v>
+        <v>-393800</v>
       </c>
       <c r="E91" s="3">
-        <v>-420100</v>
+        <v>-403100</v>
       </c>
       <c r="F91" s="3">
-        <v>-378700</v>
+        <v>-410200</v>
       </c>
       <c r="G91" s="3">
-        <v>-256200</v>
+        <v>-369800</v>
       </c>
       <c r="H91" s="3">
-        <v>-280700</v>
+        <v>-250200</v>
       </c>
       <c r="I91" s="3">
-        <v>-507400</v>
+        <v>-274100</v>
       </c>
       <c r="J91" s="3">
+        <v>-495400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-189600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-164100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-159200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-138000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374700</v>
+        <v>-315000</v>
       </c>
       <c r="E94" s="3">
-        <v>-366700</v>
+        <v>-365900</v>
       </c>
       <c r="F94" s="3">
-        <v>-265400</v>
+        <v>-358100</v>
       </c>
       <c r="G94" s="3">
-        <v>-250000</v>
+        <v>-259200</v>
       </c>
       <c r="H94" s="3">
-        <v>-280000</v>
+        <v>-244100</v>
       </c>
       <c r="I94" s="3">
-        <v>-354600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>-273400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-346200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-48900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1347000</v>
+        <v>-1150600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1528700</v>
+        <v>-1315200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1207300</v>
+        <v>-1492600</v>
       </c>
       <c r="G96" s="3">
-        <v>-487600</v>
+        <v>-1178900</v>
       </c>
       <c r="H96" s="3">
-        <v>-683400</v>
+        <v>-476100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1087100</v>
+        <v>-667300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1061500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-518900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-893800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-755600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-474000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1511200</v>
+        <v>2163700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5572100</v>
+        <v>1475600</v>
       </c>
       <c r="F100" s="3">
-        <v>1948700</v>
+        <v>-5440800</v>
       </c>
       <c r="G100" s="3">
-        <v>-258200</v>
+        <v>1902800</v>
       </c>
       <c r="H100" s="3">
-        <v>3462700</v>
+        <v>-252100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1716500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>3381100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1676100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-35700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>-118100</v>
       </c>
       <c r="E101" s="3">
-        <v>247400</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
-        <v>23000</v>
+        <v>241600</v>
       </c>
       <c r="G101" s="3">
-        <v>-470300</v>
+        <v>22400</v>
       </c>
       <c r="H101" s="3">
-        <v>107000</v>
+        <v>-459300</v>
       </c>
       <c r="I101" s="3">
-        <v>-229500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>104500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-224100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-234900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8194800</v>
+        <v>-280700</v>
       </c>
       <c r="E102" s="3">
-        <v>418500</v>
+        <v>8001700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1012000</v>
+        <v>408700</v>
       </c>
       <c r="G102" s="3">
-        <v>1887700</v>
+        <v>-988200</v>
       </c>
       <c r="H102" s="3">
-        <v>-6472400</v>
+        <v>1843200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1815900</v>
+        <v>-6319900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1773100</v>
+      </c>
+      <c r="K102" s="3">
         <v>6203500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5225700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4256400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5873800</v>
+        <v>5907700</v>
       </c>
       <c r="E8" s="3">
-        <v>6889800</v>
+        <v>6929500</v>
       </c>
       <c r="F8" s="3">
-        <v>8990300</v>
+        <v>9042200</v>
       </c>
       <c r="G8" s="3">
-        <v>7976600</v>
+        <v>8022600</v>
       </c>
       <c r="H8" s="3">
-        <v>6498500</v>
+        <v>6536000</v>
       </c>
       <c r="I8" s="3">
-        <v>5935800</v>
+        <v>5970000</v>
       </c>
       <c r="J8" s="3">
-        <v>5603300</v>
+        <v>5635600</v>
       </c>
       <c r="K8" s="3">
         <v>5271600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1770600</v>
+        <v>1780800</v>
       </c>
       <c r="E17" s="3">
-        <v>3681500</v>
+        <v>3702800</v>
       </c>
       <c r="F17" s="3">
-        <v>4603100</v>
+        <v>4629700</v>
       </c>
       <c r="G17" s="3">
-        <v>3804400</v>
+        <v>3826400</v>
       </c>
       <c r="H17" s="3">
-        <v>3061400</v>
+        <v>3079100</v>
       </c>
       <c r="I17" s="3">
-        <v>2787700</v>
+        <v>2803800</v>
       </c>
       <c r="J17" s="3">
-        <v>2557200</v>
+        <v>2571900</v>
       </c>
       <c r="K17" s="3">
         <v>2395500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4103200</v>
+        <v>4126900</v>
       </c>
       <c r="E18" s="3">
-        <v>3208300</v>
+        <v>3226800</v>
       </c>
       <c r="F18" s="3">
-        <v>4387200</v>
+        <v>4412500</v>
       </c>
       <c r="G18" s="3">
-        <v>4172200</v>
+        <v>4196200</v>
       </c>
       <c r="H18" s="3">
-        <v>3437100</v>
+        <v>3456900</v>
       </c>
       <c r="I18" s="3">
-        <v>3148100</v>
+        <v>3166300</v>
       </c>
       <c r="J18" s="3">
-        <v>3046100</v>
+        <v>3063700</v>
       </c>
       <c r="K18" s="3">
         <v>2876100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-568500</v>
+        <v>-571800</v>
       </c>
       <c r="E20" s="3">
-        <v>-676600</v>
+        <v>-680500</v>
       </c>
       <c r="F20" s="3">
-        <v>-682600</v>
+        <v>-686500</v>
       </c>
       <c r="G20" s="3">
-        <v>-716700</v>
+        <v>-720900</v>
       </c>
       <c r="H20" s="3">
-        <v>-425200</v>
+        <v>-427600</v>
       </c>
       <c r="I20" s="3">
-        <v>-443900</v>
+        <v>-446500</v>
       </c>
       <c r="J20" s="3">
-        <v>-276200</v>
+        <v>-277800</v>
       </c>
       <c r="K20" s="3">
         <v>-71500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3886700</v>
+        <v>3906000</v>
       </c>
       <c r="E21" s="3">
-        <v>2858500</v>
+        <v>2872000</v>
       </c>
       <c r="F21" s="3">
-        <v>3991500</v>
+        <v>4012000</v>
       </c>
       <c r="G21" s="3">
-        <v>3651800</v>
+        <v>3671100</v>
       </c>
       <c r="H21" s="3">
-        <v>3197800</v>
+        <v>3214600</v>
       </c>
       <c r="I21" s="3">
-        <v>2863700</v>
+        <v>2878800</v>
       </c>
       <c r="J21" s="3">
-        <v>2900500</v>
+        <v>2916100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3534700</v>
+        <v>3555100</v>
       </c>
       <c r="E23" s="3">
-        <v>2531700</v>
+        <v>2546300</v>
       </c>
       <c r="F23" s="3">
-        <v>3704600</v>
+        <v>3726000</v>
       </c>
       <c r="G23" s="3">
-        <v>3455400</v>
+        <v>3475400</v>
       </c>
       <c r="H23" s="3">
-        <v>3011900</v>
+        <v>3029300</v>
       </c>
       <c r="I23" s="3">
-        <v>2704200</v>
+        <v>2719800</v>
       </c>
       <c r="J23" s="3">
-        <v>2769900</v>
+        <v>2785900</v>
       </c>
       <c r="K23" s="3">
         <v>2804600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>608600</v>
+        <v>612100</v>
       </c>
       <c r="E24" s="3">
-        <v>433900</v>
+        <v>436400</v>
       </c>
       <c r="F24" s="3">
-        <v>581800</v>
+        <v>585100</v>
       </c>
       <c r="G24" s="3">
-        <v>576600</v>
+        <v>579900</v>
       </c>
       <c r="H24" s="3">
-        <v>572900</v>
+        <v>576200</v>
       </c>
       <c r="I24" s="3">
-        <v>479000</v>
+        <v>481700</v>
       </c>
       <c r="J24" s="3">
-        <v>464400</v>
+        <v>467100</v>
       </c>
       <c r="K24" s="3">
         <v>411100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2926200</v>
+        <v>2943000</v>
       </c>
       <c r="E26" s="3">
-        <v>2097800</v>
+        <v>2109900</v>
       </c>
       <c r="F26" s="3">
-        <v>3122800</v>
+        <v>3140800</v>
       </c>
       <c r="G26" s="3">
-        <v>2878800</v>
+        <v>2895400</v>
       </c>
       <c r="H26" s="3">
-        <v>2439100</v>
+        <v>2453100</v>
       </c>
       <c r="I26" s="3">
-        <v>2225200</v>
+        <v>2238000</v>
       </c>
       <c r="J26" s="3">
-        <v>2305400</v>
+        <v>2318700</v>
       </c>
       <c r="K26" s="3">
         <v>2393500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2866000</v>
+        <v>2882600</v>
       </c>
       <c r="E27" s="3">
-        <v>2021900</v>
+        <v>2033600</v>
       </c>
       <c r="F27" s="3">
-        <v>3040000</v>
+        <v>3057500</v>
       </c>
       <c r="G27" s="3">
-        <v>2790100</v>
+        <v>2806200</v>
       </c>
       <c r="H27" s="3">
-        <v>2354100</v>
+        <v>2367700</v>
       </c>
       <c r="I27" s="3">
-        <v>2150700</v>
+        <v>2163100</v>
       </c>
       <c r="J27" s="3">
-        <v>2222100</v>
+        <v>2234900</v>
       </c>
       <c r="K27" s="3">
         <v>2307500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>568500</v>
+        <v>571800</v>
       </c>
       <c r="E32" s="3">
-        <v>676600</v>
+        <v>680500</v>
       </c>
       <c r="F32" s="3">
-        <v>682600</v>
+        <v>686500</v>
       </c>
       <c r="G32" s="3">
-        <v>716700</v>
+        <v>720900</v>
       </c>
       <c r="H32" s="3">
-        <v>425200</v>
+        <v>427600</v>
       </c>
       <c r="I32" s="3">
-        <v>443900</v>
+        <v>446500</v>
       </c>
       <c r="J32" s="3">
-        <v>276200</v>
+        <v>277800</v>
       </c>
       <c r="K32" s="3">
         <v>71500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2866000</v>
+        <v>2882600</v>
       </c>
       <c r="E33" s="3">
-        <v>2021900</v>
+        <v>2033600</v>
       </c>
       <c r="F33" s="3">
-        <v>3040000</v>
+        <v>3057500</v>
       </c>
       <c r="G33" s="3">
-        <v>2790100</v>
+        <v>2806200</v>
       </c>
       <c r="H33" s="3">
-        <v>2354100</v>
+        <v>2367700</v>
       </c>
       <c r="I33" s="3">
-        <v>2150700</v>
+        <v>2163100</v>
       </c>
       <c r="J33" s="3">
-        <v>2222100</v>
+        <v>2234900</v>
       </c>
       <c r="K33" s="3">
         <v>2307500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2866000</v>
+        <v>2882600</v>
       </c>
       <c r="E35" s="3">
-        <v>2021900</v>
+        <v>2033600</v>
       </c>
       <c r="F35" s="3">
-        <v>3040000</v>
+        <v>3057500</v>
       </c>
       <c r="G35" s="3">
-        <v>2790100</v>
+        <v>2806200</v>
       </c>
       <c r="H35" s="3">
-        <v>2354100</v>
+        <v>2367700</v>
       </c>
       <c r="I35" s="3">
-        <v>2150700</v>
+        <v>2163100</v>
       </c>
       <c r="J35" s="3">
-        <v>2222100</v>
+        <v>2234900</v>
       </c>
       <c r="K35" s="3">
         <v>2307500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50034800</v>
+        <v>50323500</v>
       </c>
       <c r="E41" s="3">
-        <v>51295700</v>
+        <v>51591600</v>
       </c>
       <c r="F41" s="3">
-        <v>52280400</v>
+        <v>52582000</v>
       </c>
       <c r="G41" s="3">
-        <v>54451000</v>
+        <v>54765100</v>
       </c>
       <c r="H41" s="3">
-        <v>75485400</v>
+        <v>75920900</v>
       </c>
       <c r="I41" s="3">
-        <v>46076200</v>
+        <v>46342000</v>
       </c>
       <c r="J41" s="3">
-        <v>43639500</v>
+        <v>43891200</v>
       </c>
       <c r="K41" s="3">
         <v>44692700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24955900</v>
+        <v>25099800</v>
       </c>
       <c r="E42" s="3">
-        <v>21072400</v>
+        <v>21194000</v>
       </c>
       <c r="F42" s="3">
-        <v>13061200</v>
+        <v>13136600</v>
       </c>
       <c r="G42" s="3">
-        <v>11084400</v>
+        <v>11148300</v>
       </c>
       <c r="H42" s="3">
-        <v>9335400</v>
+        <v>9389300</v>
       </c>
       <c r="I42" s="3">
-        <v>10572800</v>
+        <v>10633700</v>
       </c>
       <c r="J42" s="3">
-        <v>8476400</v>
+        <v>8525300</v>
       </c>
       <c r="K42" s="3">
         <v>8681000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>891400</v>
+        <v>896500</v>
       </c>
       <c r="E47" s="3">
-        <v>866300</v>
+        <v>871300</v>
       </c>
       <c r="F47" s="3">
-        <v>846600</v>
+        <v>851500</v>
       </c>
       <c r="G47" s="3">
-        <v>837400</v>
+        <v>842200</v>
       </c>
       <c r="H47" s="3">
-        <v>855200</v>
+        <v>860100</v>
       </c>
       <c r="I47" s="3">
-        <v>794000</v>
+        <v>798500</v>
       </c>
       <c r="J47" s="3">
-        <v>791800</v>
+        <v>796400</v>
       </c>
       <c r="K47" s="3">
         <v>810900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2871800</v>
+        <v>2888300</v>
       </c>
       <c r="E48" s="3">
-        <v>2808800</v>
+        <v>2825000</v>
       </c>
       <c r="F48" s="3">
-        <v>2645800</v>
+        <v>2661100</v>
       </c>
       <c r="G48" s="3">
-        <v>2346900</v>
+        <v>2360500</v>
       </c>
       <c r="H48" s="3">
-        <v>4380400</v>
+        <v>4405700</v>
       </c>
       <c r="I48" s="3">
-        <v>2140600</v>
+        <v>2152900</v>
       </c>
       <c r="J48" s="3">
-        <v>2038400</v>
+        <v>2050200</v>
       </c>
       <c r="K48" s="3">
         <v>2087600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2967700</v>
+        <v>2984800</v>
       </c>
       <c r="E49" s="3">
-        <v>2966300</v>
+        <v>2983400</v>
       </c>
       <c r="F49" s="3">
-        <v>2969700</v>
+        <v>2986800</v>
       </c>
       <c r="G49" s="3">
-        <v>2963000</v>
+        <v>2980100</v>
       </c>
       <c r="H49" s="3">
-        <v>5931000</v>
+        <v>5965300</v>
       </c>
       <c r="I49" s="3">
-        <v>2972000</v>
+        <v>2989200</v>
       </c>
       <c r="J49" s="3">
-        <v>2966900</v>
+        <v>2984000</v>
       </c>
       <c r="K49" s="3">
         <v>3038500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>365100</v>
+        <v>367300</v>
       </c>
       <c r="E52" s="3">
-        <v>307200</v>
+        <v>308900</v>
       </c>
       <c r="F52" s="3">
-        <v>214500</v>
+        <v>215700</v>
       </c>
       <c r="G52" s="3">
-        <v>203100</v>
+        <v>204300</v>
       </c>
       <c r="H52" s="3">
-        <v>138400</v>
+        <v>139200</v>
       </c>
       <c r="I52" s="3">
-        <v>179800</v>
+        <v>180800</v>
       </c>
       <c r="J52" s="3">
-        <v>162600</v>
+        <v>163500</v>
       </c>
       <c r="K52" s="3">
         <v>166500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>328862000</v>
+        <v>330759000</v>
       </c>
       <c r="E54" s="3">
-        <v>309166000</v>
+        <v>310949000</v>
       </c>
       <c r="F54" s="3">
-        <v>289544000</v>
+        <v>291215000</v>
       </c>
       <c r="G54" s="3">
-        <v>277863000</v>
+        <v>279465000</v>
       </c>
       <c r="H54" s="3">
-        <v>256741000</v>
+        <v>258222000</v>
       </c>
       <c r="I54" s="3">
-        <v>243450000</v>
+        <v>244854000</v>
       </c>
       <c r="J54" s="3">
-        <v>226255000</v>
+        <v>227560000</v>
       </c>
       <c r="K54" s="3">
         <v>231715000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3096600</v>
+        <v>3114400</v>
       </c>
       <c r="E57" s="3">
-        <v>3862700</v>
+        <v>3884900</v>
       </c>
       <c r="F57" s="3">
-        <v>2096600</v>
+        <v>2108700</v>
       </c>
       <c r="G57" s="3">
-        <v>2477500</v>
+        <v>2491800</v>
       </c>
       <c r="H57" s="3">
-        <v>2552700</v>
+        <v>2567500</v>
       </c>
       <c r="I57" s="3">
-        <v>2994100</v>
+        <v>3011400</v>
       </c>
       <c r="J57" s="3">
-        <v>2599000</v>
+        <v>2614000</v>
       </c>
       <c r="K57" s="3">
         <v>2661700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1195000</v>
+        <v>1201800</v>
       </c>
       <c r="E59" s="3">
-        <v>993800</v>
+        <v>999500</v>
       </c>
       <c r="F59" s="3">
-        <v>1154100</v>
+        <v>1160700</v>
       </c>
       <c r="G59" s="3">
-        <v>1108600</v>
+        <v>1115000</v>
       </c>
       <c r="H59" s="3">
-        <v>1066800</v>
+        <v>1073000</v>
       </c>
       <c r="I59" s="3">
-        <v>825300</v>
+        <v>830100</v>
       </c>
       <c r="J59" s="3">
-        <v>819900</v>
+        <v>824700</v>
       </c>
       <c r="K59" s="3">
         <v>839700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24510500</v>
+        <v>24651900</v>
       </c>
       <c r="E61" s="3">
-        <v>21334500</v>
+        <v>21457500</v>
       </c>
       <c r="F61" s="3">
-        <v>18167700</v>
+        <v>18272500</v>
       </c>
       <c r="G61" s="3">
-        <v>21912700</v>
+        <v>22039100</v>
       </c>
       <c r="H61" s="3">
-        <v>18027000</v>
+        <v>18131000</v>
       </c>
       <c r="I61" s="3">
-        <v>18717600</v>
+        <v>18825500</v>
       </c>
       <c r="J61" s="3">
-        <v>14525800</v>
+        <v>14609600</v>
       </c>
       <c r="K61" s="3">
         <v>14876400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>308600</v>
+        <v>310400</v>
       </c>
       <c r="E62" s="3">
-        <v>312200</v>
+        <v>314000</v>
       </c>
       <c r="F62" s="3">
-        <v>214200</v>
+        <v>215400</v>
       </c>
       <c r="G62" s="3">
-        <v>199700</v>
+        <v>200800</v>
       </c>
       <c r="H62" s="3">
-        <v>127400</v>
+        <v>128200</v>
       </c>
       <c r="I62" s="3">
-        <v>166000</v>
+        <v>167000</v>
       </c>
       <c r="J62" s="3">
-        <v>137200</v>
+        <v>138000</v>
       </c>
       <c r="K62" s="3">
         <v>140500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>298338000</v>
+        <v>300059000</v>
       </c>
       <c r="E66" s="3">
-        <v>279882000</v>
+        <v>281497000</v>
       </c>
       <c r="F66" s="3">
-        <v>261166000</v>
+        <v>262672000</v>
       </c>
       <c r="G66" s="3">
-        <v>250926000</v>
+        <v>252373000</v>
       </c>
       <c r="H66" s="3">
-        <v>230358000</v>
+        <v>231687000</v>
       </c>
       <c r="I66" s="3">
-        <v>219913000</v>
+        <v>221182000</v>
       </c>
       <c r="J66" s="3">
-        <v>204225000</v>
+        <v>205403000</v>
       </c>
       <c r="K66" s="3">
         <v>209154000</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>595400</v>
+        <v>598800</v>
       </c>
       <c r="K70" s="3">
         <v>609700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25924600</v>
+        <v>26074100</v>
       </c>
       <c r="E72" s="3">
-        <v>24226300</v>
+        <v>24366000</v>
       </c>
       <c r="F72" s="3">
-        <v>23561500</v>
+        <v>23697400</v>
       </c>
       <c r="G72" s="3">
-        <v>22284700</v>
+        <v>22413300</v>
       </c>
       <c r="H72" s="3">
-        <v>27547900</v>
+        <v>27706800</v>
       </c>
       <c r="I72" s="3">
-        <v>19314800</v>
+        <v>19426200</v>
       </c>
       <c r="J72" s="3">
-        <v>17962000</v>
+        <v>18065600</v>
       </c>
       <c r="K72" s="3">
         <v>18395600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30523900</v>
+        <v>30700000</v>
       </c>
       <c r="E76" s="3">
-        <v>29283900</v>
+        <v>29452800</v>
       </c>
       <c r="F76" s="3">
-        <v>28378600</v>
+        <v>28542300</v>
       </c>
       <c r="G76" s="3">
-        <v>26937000</v>
+        <v>27092400</v>
       </c>
       <c r="H76" s="3">
-        <v>26383400</v>
+        <v>26535600</v>
       </c>
       <c r="I76" s="3">
-        <v>23536200</v>
+        <v>23672000</v>
       </c>
       <c r="J76" s="3">
-        <v>21433900</v>
+        <v>21557500</v>
       </c>
       <c r="K76" s="3">
         <v>21951200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2866000</v>
+        <v>2882600</v>
       </c>
       <c r="E81" s="3">
-        <v>2021900</v>
+        <v>2033600</v>
       </c>
       <c r="F81" s="3">
-        <v>3040000</v>
+        <v>3057500</v>
       </c>
       <c r="G81" s="3">
-        <v>2790100</v>
+        <v>2806200</v>
       </c>
       <c r="H81" s="3">
-        <v>2354100</v>
+        <v>2367700</v>
       </c>
       <c r="I81" s="3">
-        <v>2150700</v>
+        <v>2163100</v>
       </c>
       <c r="J81" s="3">
-        <v>2222100</v>
+        <v>2234900</v>
       </c>
       <c r="K81" s="3">
         <v>2307500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>350100</v>
+        <v>352100</v>
       </c>
       <c r="E83" s="3">
-        <v>325100</v>
+        <v>326900</v>
       </c>
       <c r="F83" s="3">
-        <v>285400</v>
+        <v>287100</v>
       </c>
       <c r="G83" s="3">
-        <v>195400</v>
+        <v>196500</v>
       </c>
       <c r="H83" s="3">
-        <v>184900</v>
+        <v>186000</v>
       </c>
       <c r="I83" s="3">
-        <v>158700</v>
+        <v>159600</v>
       </c>
       <c r="J83" s="3">
-        <v>130000</v>
+        <v>130700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2011200</v>
+        <v>-2022800</v>
       </c>
       <c r="E89" s="3">
-        <v>6889800</v>
+        <v>6929500</v>
       </c>
       <c r="F89" s="3">
-        <v>5965900</v>
+        <v>6000400</v>
       </c>
       <c r="G89" s="3">
-        <v>-2654200</v>
+        <v>-2669500</v>
       </c>
       <c r="H89" s="3">
-        <v>2798700</v>
+        <v>2814800</v>
       </c>
       <c r="I89" s="3">
-        <v>-9532100</v>
+        <v>-9587000</v>
       </c>
       <c r="J89" s="3">
-        <v>473300</v>
+        <v>476100</v>
       </c>
       <c r="K89" s="3">
         <v>5214000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-393800</v>
+        <v>-396100</v>
       </c>
       <c r="E91" s="3">
-        <v>-403100</v>
+        <v>-405400</v>
       </c>
       <c r="F91" s="3">
-        <v>-410200</v>
+        <v>-412600</v>
       </c>
       <c r="G91" s="3">
-        <v>-369800</v>
+        <v>-371900</v>
       </c>
       <c r="H91" s="3">
-        <v>-250200</v>
+        <v>-251600</v>
       </c>
       <c r="I91" s="3">
-        <v>-274100</v>
+        <v>-275700</v>
       </c>
       <c r="J91" s="3">
-        <v>-495400</v>
+        <v>-498300</v>
       </c>
       <c r="K91" s="3">
         <v>-189600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-315000</v>
+        <v>-316800</v>
       </c>
       <c r="E94" s="3">
-        <v>-365900</v>
+        <v>-368000</v>
       </c>
       <c r="F94" s="3">
-        <v>-358100</v>
+        <v>-360100</v>
       </c>
       <c r="G94" s="3">
-        <v>-259200</v>
+        <v>-260700</v>
       </c>
       <c r="H94" s="3">
-        <v>-244100</v>
+        <v>-245500</v>
       </c>
       <c r="I94" s="3">
-        <v>-273400</v>
+        <v>-275000</v>
       </c>
       <c r="J94" s="3">
-        <v>-346200</v>
+        <v>-348200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1150600</v>
+        <v>-1157200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1315200</v>
+        <v>-1322800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1492600</v>
+        <v>-1501300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1178900</v>
+        <v>-1185700</v>
       </c>
       <c r="H96" s="3">
-        <v>-476100</v>
+        <v>-478900</v>
       </c>
       <c r="I96" s="3">
-        <v>-667300</v>
+        <v>-671200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1061500</v>
+        <v>-1067600</v>
       </c>
       <c r="K96" s="3">
         <v>-518900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2163700</v>
+        <v>2176100</v>
       </c>
       <c r="E100" s="3">
-        <v>1475600</v>
+        <v>1484100</v>
       </c>
       <c r="F100" s="3">
-        <v>-5440800</v>
+        <v>-5472200</v>
       </c>
       <c r="G100" s="3">
-        <v>1902800</v>
+        <v>1913800</v>
       </c>
       <c r="H100" s="3">
-        <v>-252100</v>
+        <v>-253600</v>
       </c>
       <c r="I100" s="3">
-        <v>3381100</v>
+        <v>3400600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1676100</v>
+        <v>-1685800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-118100</v>
+        <v>-118800</v>
       </c>
       <c r="E101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
-        <v>241600</v>
+        <v>243000</v>
       </c>
       <c r="G101" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="H101" s="3">
-        <v>-459300</v>
+        <v>-461900</v>
       </c>
       <c r="I101" s="3">
-        <v>104500</v>
+        <v>105100</v>
       </c>
       <c r="J101" s="3">
-        <v>-224100</v>
+        <v>-225400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-280700</v>
+        <v>-282300</v>
       </c>
       <c r="E102" s="3">
-        <v>8001700</v>
+        <v>8047800</v>
       </c>
       <c r="F102" s="3">
-        <v>408700</v>
+        <v>411000</v>
       </c>
       <c r="G102" s="3">
-        <v>-988200</v>
+        <v>-993900</v>
       </c>
       <c r="H102" s="3">
-        <v>1843200</v>
+        <v>1853900</v>
       </c>
       <c r="I102" s="3">
-        <v>-6319900</v>
+        <v>-6356400</v>
       </c>
       <c r="J102" s="3">
-        <v>-1773100</v>
+        <v>-1783300</v>
       </c>
       <c r="K102" s="3">
         <v>6203500</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5907700</v>
+        <v>5936700</v>
       </c>
       <c r="E8" s="3">
-        <v>6929500</v>
+        <v>6963600</v>
       </c>
       <c r="F8" s="3">
-        <v>9042200</v>
+        <v>9086600</v>
       </c>
       <c r="G8" s="3">
-        <v>8022600</v>
+        <v>8062000</v>
       </c>
       <c r="H8" s="3">
-        <v>6536000</v>
+        <v>6568200</v>
       </c>
       <c r="I8" s="3">
-        <v>5970000</v>
+        <v>5999400</v>
       </c>
       <c r="J8" s="3">
-        <v>5635600</v>
+        <v>5663300</v>
       </c>
       <c r="K8" s="3">
         <v>5271600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1780800</v>
+        <v>1789600</v>
       </c>
       <c r="E17" s="3">
-        <v>3702800</v>
+        <v>3721000</v>
       </c>
       <c r="F17" s="3">
-        <v>4629700</v>
+        <v>4652400</v>
       </c>
       <c r="G17" s="3">
-        <v>3826400</v>
+        <v>3845200</v>
       </c>
       <c r="H17" s="3">
-        <v>3079100</v>
+        <v>3094200</v>
       </c>
       <c r="I17" s="3">
-        <v>2803800</v>
+        <v>2817500</v>
       </c>
       <c r="J17" s="3">
-        <v>2571900</v>
+        <v>2584600</v>
       </c>
       <c r="K17" s="3">
         <v>2395500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4126900</v>
+        <v>4147200</v>
       </c>
       <c r="E18" s="3">
-        <v>3226800</v>
+        <v>3242600</v>
       </c>
       <c r="F18" s="3">
-        <v>4412500</v>
+        <v>4434200</v>
       </c>
       <c r="G18" s="3">
-        <v>4196200</v>
+        <v>4216900</v>
       </c>
       <c r="H18" s="3">
-        <v>3456900</v>
+        <v>3473900</v>
       </c>
       <c r="I18" s="3">
-        <v>3166300</v>
+        <v>3181800</v>
       </c>
       <c r="J18" s="3">
-        <v>3063700</v>
+        <v>3078700</v>
       </c>
       <c r="K18" s="3">
         <v>2876100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-571800</v>
+        <v>-574600</v>
       </c>
       <c r="E20" s="3">
-        <v>-680500</v>
+        <v>-683800</v>
       </c>
       <c r="F20" s="3">
-        <v>-686500</v>
+        <v>-689900</v>
       </c>
       <c r="G20" s="3">
-        <v>-720900</v>
+        <v>-724400</v>
       </c>
       <c r="H20" s="3">
-        <v>-427600</v>
+        <v>-429700</v>
       </c>
       <c r="I20" s="3">
-        <v>-446500</v>
+        <v>-448700</v>
       </c>
       <c r="J20" s="3">
-        <v>-277800</v>
+        <v>-279200</v>
       </c>
       <c r="K20" s="3">
         <v>-71500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3906000</v>
+        <v>3921300</v>
       </c>
       <c r="E21" s="3">
-        <v>2872000</v>
+        <v>2882500</v>
       </c>
       <c r="F21" s="3">
-        <v>4012000</v>
+        <v>4028500</v>
       </c>
       <c r="G21" s="3">
-        <v>3671100</v>
+        <v>3687000</v>
       </c>
       <c r="H21" s="3">
-        <v>3214600</v>
+        <v>3228300</v>
       </c>
       <c r="I21" s="3">
-        <v>2878800</v>
+        <v>2891200</v>
       </c>
       <c r="J21" s="3">
-        <v>2916100</v>
+        <v>2929000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3555100</v>
+        <v>3572600</v>
       </c>
       <c r="E23" s="3">
-        <v>2546300</v>
+        <v>2558800</v>
       </c>
       <c r="F23" s="3">
-        <v>3726000</v>
+        <v>3744300</v>
       </c>
       <c r="G23" s="3">
-        <v>3475400</v>
+        <v>3492400</v>
       </c>
       <c r="H23" s="3">
-        <v>3029300</v>
+        <v>3044200</v>
       </c>
       <c r="I23" s="3">
-        <v>2719800</v>
+        <v>2733100</v>
       </c>
       <c r="J23" s="3">
-        <v>2785900</v>
+        <v>2799600</v>
       </c>
       <c r="K23" s="3">
         <v>2804600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>612100</v>
+        <v>615100</v>
       </c>
       <c r="E24" s="3">
-        <v>436400</v>
+        <v>438500</v>
       </c>
       <c r="F24" s="3">
-        <v>585100</v>
+        <v>588000</v>
       </c>
       <c r="G24" s="3">
-        <v>579900</v>
+        <v>582800</v>
       </c>
       <c r="H24" s="3">
-        <v>576200</v>
+        <v>579000</v>
       </c>
       <c r="I24" s="3">
-        <v>481700</v>
+        <v>484100</v>
       </c>
       <c r="J24" s="3">
-        <v>467100</v>
+        <v>469400</v>
       </c>
       <c r="K24" s="3">
         <v>411100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2943000</v>
+        <v>2957500</v>
       </c>
       <c r="E26" s="3">
-        <v>2109900</v>
+        <v>2120300</v>
       </c>
       <c r="F26" s="3">
-        <v>3140800</v>
+        <v>3156300</v>
       </c>
       <c r="G26" s="3">
-        <v>2895400</v>
+        <v>2909700</v>
       </c>
       <c r="H26" s="3">
-        <v>2453100</v>
+        <v>2465200</v>
       </c>
       <c r="I26" s="3">
-        <v>2238000</v>
+        <v>2249000</v>
       </c>
       <c r="J26" s="3">
-        <v>2318700</v>
+        <v>2330100</v>
       </c>
       <c r="K26" s="3">
         <v>2393500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2882600</v>
+        <v>2896700</v>
       </c>
       <c r="E27" s="3">
-        <v>2033600</v>
+        <v>2043600</v>
       </c>
       <c r="F27" s="3">
-        <v>3057500</v>
+        <v>3072500</v>
       </c>
       <c r="G27" s="3">
-        <v>2806200</v>
+        <v>2820000</v>
       </c>
       <c r="H27" s="3">
-        <v>2367700</v>
+        <v>2379300</v>
       </c>
       <c r="I27" s="3">
-        <v>2163100</v>
+        <v>2173700</v>
       </c>
       <c r="J27" s="3">
-        <v>2234900</v>
+        <v>2245900</v>
       </c>
       <c r="K27" s="3">
         <v>2307500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>571800</v>
+        <v>574600</v>
       </c>
       <c r="E32" s="3">
-        <v>680500</v>
+        <v>683800</v>
       </c>
       <c r="F32" s="3">
-        <v>686500</v>
+        <v>689900</v>
       </c>
       <c r="G32" s="3">
-        <v>720900</v>
+        <v>724400</v>
       </c>
       <c r="H32" s="3">
-        <v>427600</v>
+        <v>429700</v>
       </c>
       <c r="I32" s="3">
-        <v>446500</v>
+        <v>448700</v>
       </c>
       <c r="J32" s="3">
-        <v>277800</v>
+        <v>279200</v>
       </c>
       <c r="K32" s="3">
         <v>71500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2882600</v>
+        <v>2896700</v>
       </c>
       <c r="E33" s="3">
-        <v>2033600</v>
+        <v>2043600</v>
       </c>
       <c r="F33" s="3">
-        <v>3057500</v>
+        <v>3072500</v>
       </c>
       <c r="G33" s="3">
-        <v>2806200</v>
+        <v>2820000</v>
       </c>
       <c r="H33" s="3">
-        <v>2367700</v>
+        <v>2379300</v>
       </c>
       <c r="I33" s="3">
-        <v>2163100</v>
+        <v>2173700</v>
       </c>
       <c r="J33" s="3">
-        <v>2234900</v>
+        <v>2245900</v>
       </c>
       <c r="K33" s="3">
         <v>2307500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2882600</v>
+        <v>2896700</v>
       </c>
       <c r="E35" s="3">
-        <v>2033600</v>
+        <v>2043600</v>
       </c>
       <c r="F35" s="3">
-        <v>3057500</v>
+        <v>3072500</v>
       </c>
       <c r="G35" s="3">
-        <v>2806200</v>
+        <v>2820000</v>
       </c>
       <c r="H35" s="3">
-        <v>2367700</v>
+        <v>2379300</v>
       </c>
       <c r="I35" s="3">
-        <v>2163100</v>
+        <v>2173700</v>
       </c>
       <c r="J35" s="3">
-        <v>2234900</v>
+        <v>2245900</v>
       </c>
       <c r="K35" s="3">
         <v>2307500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50323500</v>
+        <v>50570900</v>
       </c>
       <c r="E41" s="3">
-        <v>51591600</v>
+        <v>51845200</v>
       </c>
       <c r="F41" s="3">
-        <v>52582000</v>
+        <v>52840500</v>
       </c>
       <c r="G41" s="3">
-        <v>54765100</v>
+        <v>55034300</v>
       </c>
       <c r="H41" s="3">
-        <v>75920900</v>
+        <v>76294100</v>
       </c>
       <c r="I41" s="3">
-        <v>46342000</v>
+        <v>46569800</v>
       </c>
       <c r="J41" s="3">
-        <v>43891200</v>
+        <v>44107000</v>
       </c>
       <c r="K41" s="3">
         <v>44692700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25099800</v>
+        <v>25223200</v>
       </c>
       <c r="E42" s="3">
-        <v>21194000</v>
+        <v>21298200</v>
       </c>
       <c r="F42" s="3">
-        <v>13136600</v>
+        <v>13201100</v>
       </c>
       <c r="G42" s="3">
-        <v>11148300</v>
+        <v>11203100</v>
       </c>
       <c r="H42" s="3">
-        <v>9389300</v>
+        <v>9435400</v>
       </c>
       <c r="I42" s="3">
-        <v>10633700</v>
+        <v>10686000</v>
       </c>
       <c r="J42" s="3">
-        <v>8525300</v>
+        <v>8567200</v>
       </c>
       <c r="K42" s="3">
         <v>8681000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>896500</v>
+        <v>900900</v>
       </c>
       <c r="E47" s="3">
-        <v>871300</v>
+        <v>875600</v>
       </c>
       <c r="F47" s="3">
-        <v>851500</v>
+        <v>855700</v>
       </c>
       <c r="G47" s="3">
-        <v>842200</v>
+        <v>846400</v>
       </c>
       <c r="H47" s="3">
-        <v>860100</v>
+        <v>864300</v>
       </c>
       <c r="I47" s="3">
-        <v>798500</v>
+        <v>802500</v>
       </c>
       <c r="J47" s="3">
-        <v>796400</v>
+        <v>800300</v>
       </c>
       <c r="K47" s="3">
         <v>810900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2888300</v>
+        <v>2902500</v>
       </c>
       <c r="E48" s="3">
-        <v>2825000</v>
+        <v>2838800</v>
       </c>
       <c r="F48" s="3">
-        <v>2661100</v>
+        <v>2674200</v>
       </c>
       <c r="G48" s="3">
-        <v>2360500</v>
+        <v>2372100</v>
       </c>
       <c r="H48" s="3">
-        <v>4405700</v>
+        <v>4427300</v>
       </c>
       <c r="I48" s="3">
-        <v>2152900</v>
+        <v>2163500</v>
       </c>
       <c r="J48" s="3">
-        <v>2050200</v>
+        <v>2060200</v>
       </c>
       <c r="K48" s="3">
         <v>2087600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2984800</v>
+        <v>2999500</v>
       </c>
       <c r="E49" s="3">
-        <v>2983400</v>
+        <v>2998000</v>
       </c>
       <c r="F49" s="3">
-        <v>2986800</v>
+        <v>3001500</v>
       </c>
       <c r="G49" s="3">
-        <v>2980100</v>
+        <v>2994700</v>
       </c>
       <c r="H49" s="3">
-        <v>5965300</v>
+        <v>5994600</v>
       </c>
       <c r="I49" s="3">
-        <v>2989200</v>
+        <v>3003900</v>
       </c>
       <c r="J49" s="3">
-        <v>2984000</v>
+        <v>2998600</v>
       </c>
       <c r="K49" s="3">
         <v>3038500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>367300</v>
+        <v>369100</v>
       </c>
       <c r="E52" s="3">
-        <v>308900</v>
+        <v>310400</v>
       </c>
       <c r="F52" s="3">
-        <v>215700</v>
+        <v>216800</v>
       </c>
       <c r="G52" s="3">
-        <v>204300</v>
+        <v>205300</v>
       </c>
       <c r="H52" s="3">
-        <v>139200</v>
+        <v>139800</v>
       </c>
       <c r="I52" s="3">
-        <v>180800</v>
+        <v>181700</v>
       </c>
       <c r="J52" s="3">
-        <v>163500</v>
+        <v>164300</v>
       </c>
       <c r="K52" s="3">
         <v>166500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>330759000</v>
+        <v>332385000</v>
       </c>
       <c r="E54" s="3">
-        <v>310949000</v>
+        <v>312478000</v>
       </c>
       <c r="F54" s="3">
-        <v>291215000</v>
+        <v>292646000</v>
       </c>
       <c r="G54" s="3">
-        <v>279465000</v>
+        <v>280839000</v>
       </c>
       <c r="H54" s="3">
-        <v>258222000</v>
+        <v>259492000</v>
       </c>
       <c r="I54" s="3">
-        <v>244854000</v>
+        <v>246058000</v>
       </c>
       <c r="J54" s="3">
-        <v>227560000</v>
+        <v>228678000</v>
       </c>
       <c r="K54" s="3">
         <v>231715000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3114400</v>
+        <v>3129700</v>
       </c>
       <c r="E57" s="3">
-        <v>3884900</v>
+        <v>3904000</v>
       </c>
       <c r="F57" s="3">
-        <v>2108700</v>
+        <v>2119000</v>
       </c>
       <c r="G57" s="3">
-        <v>2491800</v>
+        <v>2504000</v>
       </c>
       <c r="H57" s="3">
-        <v>2567500</v>
+        <v>2580100</v>
       </c>
       <c r="I57" s="3">
-        <v>3011400</v>
+        <v>3026200</v>
       </c>
       <c r="J57" s="3">
-        <v>2614000</v>
+        <v>2626800</v>
       </c>
       <c r="K57" s="3">
         <v>2661700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1201800</v>
+        <v>1207800</v>
       </c>
       <c r="E59" s="3">
-        <v>999500</v>
+        <v>1004400</v>
       </c>
       <c r="F59" s="3">
-        <v>1160700</v>
+        <v>1166400</v>
       </c>
       <c r="G59" s="3">
-        <v>1115000</v>
+        <v>1120500</v>
       </c>
       <c r="H59" s="3">
-        <v>1073000</v>
+        <v>1078300</v>
       </c>
       <c r="I59" s="3">
-        <v>830100</v>
+        <v>834200</v>
       </c>
       <c r="J59" s="3">
-        <v>824700</v>
+        <v>828700</v>
       </c>
       <c r="K59" s="3">
         <v>839700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24651900</v>
+        <v>24773100</v>
       </c>
       <c r="E61" s="3">
-        <v>21457500</v>
+        <v>21563000</v>
       </c>
       <c r="F61" s="3">
-        <v>18272500</v>
+        <v>18362300</v>
       </c>
       <c r="G61" s="3">
-        <v>22039100</v>
+        <v>22147400</v>
       </c>
       <c r="H61" s="3">
-        <v>18131000</v>
+        <v>18220100</v>
       </c>
       <c r="I61" s="3">
-        <v>18825500</v>
+        <v>18918100</v>
       </c>
       <c r="J61" s="3">
-        <v>14609600</v>
+        <v>14681400</v>
       </c>
       <c r="K61" s="3">
         <v>14876400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>310400</v>
+        <v>311900</v>
       </c>
       <c r="E62" s="3">
-        <v>314000</v>
+        <v>315500</v>
       </c>
       <c r="F62" s="3">
-        <v>215400</v>
+        <v>216500</v>
       </c>
       <c r="G62" s="3">
-        <v>200800</v>
+        <v>201800</v>
       </c>
       <c r="H62" s="3">
-        <v>128200</v>
+        <v>128800</v>
       </c>
       <c r="I62" s="3">
-        <v>167000</v>
+        <v>167800</v>
       </c>
       <c r="J62" s="3">
-        <v>138000</v>
+        <v>138600</v>
       </c>
       <c r="K62" s="3">
         <v>140500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300059000</v>
+        <v>301534000</v>
       </c>
       <c r="E66" s="3">
-        <v>281497000</v>
+        <v>282880000</v>
       </c>
       <c r="F66" s="3">
-        <v>262672000</v>
+        <v>263964000</v>
       </c>
       <c r="G66" s="3">
-        <v>252373000</v>
+        <v>253614000</v>
       </c>
       <c r="H66" s="3">
-        <v>231687000</v>
+        <v>232826000</v>
       </c>
       <c r="I66" s="3">
-        <v>221182000</v>
+        <v>222269000</v>
       </c>
       <c r="J66" s="3">
-        <v>205403000</v>
+        <v>206413000</v>
       </c>
       <c r="K66" s="3">
         <v>209154000</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>598800</v>
+        <v>601700</v>
       </c>
       <c r="K70" s="3">
         <v>609700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26074100</v>
+        <v>26202300</v>
       </c>
       <c r="E72" s="3">
-        <v>24366000</v>
+        <v>24485800</v>
       </c>
       <c r="F72" s="3">
-        <v>23697400</v>
+        <v>23813900</v>
       </c>
       <c r="G72" s="3">
-        <v>22413300</v>
+        <v>22523400</v>
       </c>
       <c r="H72" s="3">
-        <v>27706800</v>
+        <v>27843000</v>
       </c>
       <c r="I72" s="3">
-        <v>19426200</v>
+        <v>19521700</v>
       </c>
       <c r="J72" s="3">
-        <v>18065600</v>
+        <v>18154500</v>
       </c>
       <c r="K72" s="3">
         <v>18395600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30700000</v>
+        <v>30850900</v>
       </c>
       <c r="E76" s="3">
-        <v>29452800</v>
+        <v>29597600</v>
       </c>
       <c r="F76" s="3">
-        <v>28542300</v>
+        <v>28682600</v>
       </c>
       <c r="G76" s="3">
-        <v>27092400</v>
+        <v>27225600</v>
       </c>
       <c r="H76" s="3">
-        <v>26535600</v>
+        <v>26666100</v>
       </c>
       <c r="I76" s="3">
-        <v>23672000</v>
+        <v>23788400</v>
       </c>
       <c r="J76" s="3">
-        <v>21557500</v>
+        <v>21663500</v>
       </c>
       <c r="K76" s="3">
         <v>21951200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2882600</v>
+        <v>2896700</v>
       </c>
       <c r="E81" s="3">
-        <v>2033600</v>
+        <v>2043600</v>
       </c>
       <c r="F81" s="3">
-        <v>3057500</v>
+        <v>3072500</v>
       </c>
       <c r="G81" s="3">
-        <v>2806200</v>
+        <v>2820000</v>
       </c>
       <c r="H81" s="3">
-        <v>2367700</v>
+        <v>2379300</v>
       </c>
       <c r="I81" s="3">
-        <v>2163100</v>
+        <v>2173700</v>
       </c>
       <c r="J81" s="3">
-        <v>2234900</v>
+        <v>2245900</v>
       </c>
       <c r="K81" s="3">
         <v>2307500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>352100</v>
+        <v>353900</v>
       </c>
       <c r="E83" s="3">
-        <v>326900</v>
+        <v>328500</v>
       </c>
       <c r="F83" s="3">
-        <v>287100</v>
+        <v>288500</v>
       </c>
       <c r="G83" s="3">
-        <v>196500</v>
+        <v>197400</v>
       </c>
       <c r="H83" s="3">
-        <v>186000</v>
+        <v>186900</v>
       </c>
       <c r="I83" s="3">
-        <v>159600</v>
+        <v>160400</v>
       </c>
       <c r="J83" s="3">
-        <v>130700</v>
+        <v>131300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2022800</v>
+        <v>-2032700</v>
       </c>
       <c r="E89" s="3">
-        <v>6929500</v>
+        <v>6963600</v>
       </c>
       <c r="F89" s="3">
-        <v>6000400</v>
+        <v>6029900</v>
       </c>
       <c r="G89" s="3">
-        <v>-2669500</v>
+        <v>-2682600</v>
       </c>
       <c r="H89" s="3">
-        <v>2814800</v>
+        <v>2828700</v>
       </c>
       <c r="I89" s="3">
-        <v>-9587000</v>
+        <v>-9634200</v>
       </c>
       <c r="J89" s="3">
-        <v>476100</v>
+        <v>478400</v>
       </c>
       <c r="K89" s="3">
         <v>5214000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-396100</v>
+        <v>-398000</v>
       </c>
       <c r="E91" s="3">
-        <v>-405400</v>
+        <v>-407400</v>
       </c>
       <c r="F91" s="3">
-        <v>-412600</v>
+        <v>-414600</v>
       </c>
       <c r="G91" s="3">
-        <v>-371900</v>
+        <v>-373700</v>
       </c>
       <c r="H91" s="3">
-        <v>-251600</v>
+        <v>-252800</v>
       </c>
       <c r="I91" s="3">
-        <v>-275700</v>
+        <v>-277000</v>
       </c>
       <c r="J91" s="3">
-        <v>-498300</v>
+        <v>-500700</v>
       </c>
       <c r="K91" s="3">
         <v>-189600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-316800</v>
+        <v>-318400</v>
       </c>
       <c r="E94" s="3">
-        <v>-368000</v>
+        <v>-369800</v>
       </c>
       <c r="F94" s="3">
-        <v>-360100</v>
+        <v>-361900</v>
       </c>
       <c r="G94" s="3">
-        <v>-260700</v>
+        <v>-262000</v>
       </c>
       <c r="H94" s="3">
-        <v>-245500</v>
+        <v>-246700</v>
       </c>
       <c r="I94" s="3">
-        <v>-275000</v>
+        <v>-276300</v>
       </c>
       <c r="J94" s="3">
-        <v>-348200</v>
+        <v>-349900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1157200</v>
+        <v>-1162900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1322800</v>
+        <v>-1329300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1501300</v>
+        <v>-1508600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1185700</v>
+        <v>-1191500</v>
       </c>
       <c r="H96" s="3">
-        <v>-478900</v>
+        <v>-481200</v>
       </c>
       <c r="I96" s="3">
-        <v>-671200</v>
+        <v>-674400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1067600</v>
+        <v>-1072800</v>
       </c>
       <c r="K96" s="3">
         <v>-518900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2176100</v>
+        <v>2186800</v>
       </c>
       <c r="E100" s="3">
-        <v>1484100</v>
+        <v>1491400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5472200</v>
+        <v>-5499100</v>
       </c>
       <c r="G100" s="3">
-        <v>1913800</v>
+        <v>1923200</v>
       </c>
       <c r="H100" s="3">
-        <v>-253600</v>
+        <v>-254800</v>
       </c>
       <c r="I100" s="3">
-        <v>3400600</v>
+        <v>3417300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1685800</v>
+        <v>-1694000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-118800</v>
+        <v>-119400</v>
       </c>
       <c r="E101" s="3">
         <v>2200</v>
       </c>
       <c r="F101" s="3">
-        <v>243000</v>
+        <v>244200</v>
       </c>
       <c r="G101" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="H101" s="3">
-        <v>-461900</v>
+        <v>-464200</v>
       </c>
       <c r="I101" s="3">
-        <v>105100</v>
+        <v>105600</v>
       </c>
       <c r="J101" s="3">
-        <v>-225400</v>
+        <v>-226500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-282300</v>
+        <v>-283700</v>
       </c>
       <c r="E102" s="3">
-        <v>8047800</v>
+        <v>8087400</v>
       </c>
       <c r="F102" s="3">
-        <v>411000</v>
+        <v>413100</v>
       </c>
       <c r="G102" s="3">
-        <v>-993900</v>
+        <v>-998800</v>
       </c>
       <c r="H102" s="3">
-        <v>1853900</v>
+        <v>1863000</v>
       </c>
       <c r="I102" s="3">
-        <v>-6356400</v>
+        <v>-6387600</v>
       </c>
       <c r="J102" s="3">
-        <v>-1783300</v>
+        <v>-1792100</v>
       </c>
       <c r="K102" s="3">
         <v>6203500</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5936700</v>
+        <v>6063600</v>
       </c>
       <c r="E8" s="3">
-        <v>6963600</v>
+        <v>7112400</v>
       </c>
       <c r="F8" s="3">
-        <v>9086600</v>
+        <v>9280800</v>
       </c>
       <c r="G8" s="3">
-        <v>8062000</v>
+        <v>8234300</v>
       </c>
       <c r="H8" s="3">
-        <v>6568200</v>
+        <v>6708500</v>
       </c>
       <c r="I8" s="3">
-        <v>5999400</v>
+        <v>6127500</v>
       </c>
       <c r="J8" s="3">
-        <v>5663300</v>
+        <v>5784300</v>
       </c>
       <c r="K8" s="3">
         <v>5271600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1789600</v>
+        <v>1827800</v>
       </c>
       <c r="E17" s="3">
-        <v>3721000</v>
+        <v>3800500</v>
       </c>
       <c r="F17" s="3">
-        <v>4652400</v>
+        <v>4751800</v>
       </c>
       <c r="G17" s="3">
-        <v>3845200</v>
+        <v>3927300</v>
       </c>
       <c r="H17" s="3">
-        <v>3094200</v>
+        <v>3160300</v>
       </c>
       <c r="I17" s="3">
-        <v>2817500</v>
+        <v>2877700</v>
       </c>
       <c r="J17" s="3">
-        <v>2584600</v>
+        <v>2639800</v>
       </c>
       <c r="K17" s="3">
         <v>2395500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4147200</v>
+        <v>4235800</v>
       </c>
       <c r="E18" s="3">
-        <v>3242600</v>
+        <v>3311900</v>
       </c>
       <c r="F18" s="3">
-        <v>4434200</v>
+        <v>4528900</v>
       </c>
       <c r="G18" s="3">
-        <v>4216900</v>
+        <v>4307000</v>
       </c>
       <c r="H18" s="3">
-        <v>3473900</v>
+        <v>3548100</v>
       </c>
       <c r="I18" s="3">
-        <v>3181800</v>
+        <v>3249800</v>
       </c>
       <c r="J18" s="3">
-        <v>3078700</v>
+        <v>3144500</v>
       </c>
       <c r="K18" s="3">
         <v>2876100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-574600</v>
+        <v>-586800</v>
       </c>
       <c r="E20" s="3">
-        <v>-683800</v>
+        <v>-698400</v>
       </c>
       <c r="F20" s="3">
-        <v>-689900</v>
+        <v>-704700</v>
       </c>
       <c r="G20" s="3">
-        <v>-724400</v>
+        <v>-739900</v>
       </c>
       <c r="H20" s="3">
-        <v>-429700</v>
+        <v>-438900</v>
       </c>
       <c r="I20" s="3">
-        <v>-448700</v>
+        <v>-458300</v>
       </c>
       <c r="J20" s="3">
-        <v>-279200</v>
+        <v>-285100</v>
       </c>
       <c r="K20" s="3">
         <v>-71500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3921300</v>
+        <v>3984400</v>
       </c>
       <c r="E21" s="3">
-        <v>2882500</v>
+        <v>2908000</v>
       </c>
       <c r="F21" s="3">
-        <v>4028500</v>
+        <v>4025900</v>
       </c>
       <c r="G21" s="3">
-        <v>3687000</v>
+        <v>3757900</v>
       </c>
       <c r="H21" s="3">
-        <v>3228300</v>
+        <v>3273000</v>
       </c>
       <c r="I21" s="3">
-        <v>2891200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2929000</v>
+        <v>2925600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3572600</v>
+        <v>3648900</v>
       </c>
       <c r="E23" s="3">
-        <v>2558800</v>
+        <v>2613500</v>
       </c>
       <c r="F23" s="3">
-        <v>3744300</v>
+        <v>3824300</v>
       </c>
       <c r="G23" s="3">
-        <v>3492400</v>
+        <v>3567100</v>
       </c>
       <c r="H23" s="3">
-        <v>3044200</v>
+        <v>3109200</v>
       </c>
       <c r="I23" s="3">
-        <v>2733100</v>
+        <v>2791500</v>
       </c>
       <c r="J23" s="3">
-        <v>2799600</v>
+        <v>2859400</v>
       </c>
       <c r="K23" s="3">
         <v>2804600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>615100</v>
+        <v>628200</v>
       </c>
       <c r="E24" s="3">
-        <v>438500</v>
+        <v>447900</v>
       </c>
       <c r="F24" s="3">
-        <v>588000</v>
+        <v>600500</v>
       </c>
       <c r="G24" s="3">
-        <v>582800</v>
+        <v>595200</v>
       </c>
       <c r="H24" s="3">
-        <v>579000</v>
+        <v>591400</v>
       </c>
       <c r="I24" s="3">
-        <v>484100</v>
+        <v>494400</v>
       </c>
       <c r="J24" s="3">
-        <v>469400</v>
+        <v>479400</v>
       </c>
       <c r="K24" s="3">
         <v>411100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2957500</v>
+        <v>3020700</v>
       </c>
       <c r="E26" s="3">
-        <v>2120300</v>
+        <v>2165600</v>
       </c>
       <c r="F26" s="3">
-        <v>3156300</v>
+        <v>3223700</v>
       </c>
       <c r="G26" s="3">
-        <v>2909700</v>
+        <v>2971800</v>
       </c>
       <c r="H26" s="3">
-        <v>2465200</v>
+        <v>2517900</v>
       </c>
       <c r="I26" s="3">
-        <v>2249000</v>
+        <v>2297100</v>
       </c>
       <c r="J26" s="3">
-        <v>2330100</v>
+        <v>2379900</v>
       </c>
       <c r="K26" s="3">
         <v>2393500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2896700</v>
+        <v>2958600</v>
       </c>
       <c r="E27" s="3">
-        <v>2043600</v>
+        <v>2087200</v>
       </c>
       <c r="F27" s="3">
-        <v>3072500</v>
+        <v>3138200</v>
       </c>
       <c r="G27" s="3">
-        <v>2820000</v>
+        <v>2880200</v>
       </c>
       <c r="H27" s="3">
-        <v>2379300</v>
+        <v>2430100</v>
       </c>
       <c r="I27" s="3">
-        <v>2173700</v>
+        <v>2220100</v>
       </c>
       <c r="J27" s="3">
-        <v>2245900</v>
+        <v>2293800</v>
       </c>
       <c r="K27" s="3">
         <v>2307500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>574600</v>
+        <v>586800</v>
       </c>
       <c r="E32" s="3">
-        <v>683800</v>
+        <v>698400</v>
       </c>
       <c r="F32" s="3">
-        <v>689900</v>
+        <v>704700</v>
       </c>
       <c r="G32" s="3">
-        <v>724400</v>
+        <v>739900</v>
       </c>
       <c r="H32" s="3">
-        <v>429700</v>
+        <v>438900</v>
       </c>
       <c r="I32" s="3">
-        <v>448700</v>
+        <v>458300</v>
       </c>
       <c r="J32" s="3">
-        <v>279200</v>
+        <v>285100</v>
       </c>
       <c r="K32" s="3">
         <v>71500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2896700</v>
+        <v>2958600</v>
       </c>
       <c r="E33" s="3">
-        <v>2043600</v>
+        <v>2087200</v>
       </c>
       <c r="F33" s="3">
-        <v>3072500</v>
+        <v>3138200</v>
       </c>
       <c r="G33" s="3">
-        <v>2820000</v>
+        <v>2880200</v>
       </c>
       <c r="H33" s="3">
-        <v>2379300</v>
+        <v>2430100</v>
       </c>
       <c r="I33" s="3">
-        <v>2173700</v>
+        <v>2220100</v>
       </c>
       <c r="J33" s="3">
-        <v>2245900</v>
+        <v>2293800</v>
       </c>
       <c r="K33" s="3">
         <v>2307500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2896700</v>
+        <v>2958600</v>
       </c>
       <c r="E35" s="3">
-        <v>2043600</v>
+        <v>2087200</v>
       </c>
       <c r="F35" s="3">
-        <v>3072500</v>
+        <v>3138200</v>
       </c>
       <c r="G35" s="3">
-        <v>2820000</v>
+        <v>2880200</v>
       </c>
       <c r="H35" s="3">
-        <v>2379300</v>
+        <v>2430100</v>
       </c>
       <c r="I35" s="3">
-        <v>2173700</v>
+        <v>2220100</v>
       </c>
       <c r="J35" s="3">
-        <v>2245900</v>
+        <v>2293800</v>
       </c>
       <c r="K35" s="3">
         <v>2307500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50570900</v>
+        <v>51651300</v>
       </c>
       <c r="E41" s="3">
-        <v>51845200</v>
+        <v>52952800</v>
       </c>
       <c r="F41" s="3">
-        <v>52840500</v>
+        <v>53969400</v>
       </c>
       <c r="G41" s="3">
-        <v>55034300</v>
+        <v>56210000</v>
       </c>
       <c r="H41" s="3">
-        <v>76294100</v>
+        <v>77924000</v>
       </c>
       <c r="I41" s="3">
-        <v>46569800</v>
+        <v>47564800</v>
       </c>
       <c r="J41" s="3">
-        <v>44107000</v>
+        <v>45049300</v>
       </c>
       <c r="K41" s="3">
         <v>44692700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25223200</v>
+        <v>25762100</v>
       </c>
       <c r="E42" s="3">
-        <v>21298200</v>
+        <v>21753200</v>
       </c>
       <c r="F42" s="3">
-        <v>13201100</v>
+        <v>13483200</v>
       </c>
       <c r="G42" s="3">
-        <v>11203100</v>
+        <v>11442500</v>
       </c>
       <c r="H42" s="3">
-        <v>9435400</v>
+        <v>9637000</v>
       </c>
       <c r="I42" s="3">
-        <v>10686000</v>
+        <v>10914300</v>
       </c>
       <c r="J42" s="3">
-        <v>8567200</v>
+        <v>8750300</v>
       </c>
       <c r="K42" s="3">
         <v>8681000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900900</v>
+        <v>920200</v>
       </c>
       <c r="E47" s="3">
-        <v>875600</v>
+        <v>894300</v>
       </c>
       <c r="F47" s="3">
-        <v>855700</v>
+        <v>874000</v>
       </c>
       <c r="G47" s="3">
-        <v>846400</v>
+        <v>864500</v>
       </c>
       <c r="H47" s="3">
-        <v>864300</v>
+        <v>882800</v>
       </c>
       <c r="I47" s="3">
-        <v>802500</v>
+        <v>819600</v>
       </c>
       <c r="J47" s="3">
-        <v>800300</v>
+        <v>817400</v>
       </c>
       <c r="K47" s="3">
         <v>810900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2902500</v>
+        <v>2964500</v>
       </c>
       <c r="E48" s="3">
-        <v>2838800</v>
+        <v>2899500</v>
       </c>
       <c r="F48" s="3">
-        <v>2674200</v>
+        <v>2731300</v>
       </c>
       <c r="G48" s="3">
-        <v>2372100</v>
+        <v>2422700</v>
       </c>
       <c r="H48" s="3">
-        <v>4427300</v>
+        <v>4521900</v>
       </c>
       <c r="I48" s="3">
-        <v>2163500</v>
+        <v>2209800</v>
       </c>
       <c r="J48" s="3">
-        <v>2060200</v>
+        <v>2104300</v>
       </c>
       <c r="K48" s="3">
         <v>2087600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2999500</v>
+        <v>3063600</v>
       </c>
       <c r="E49" s="3">
-        <v>2998000</v>
+        <v>3062100</v>
       </c>
       <c r="F49" s="3">
-        <v>3001500</v>
+        <v>3065600</v>
       </c>
       <c r="G49" s="3">
-        <v>2994700</v>
+        <v>3058700</v>
       </c>
       <c r="H49" s="3">
-        <v>5994600</v>
+        <v>6122600</v>
       </c>
       <c r="I49" s="3">
-        <v>3003900</v>
+        <v>3068000</v>
       </c>
       <c r="J49" s="3">
-        <v>2998600</v>
+        <v>3062700</v>
       </c>
       <c r="K49" s="3">
         <v>3038500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>369100</v>
+        <v>376900</v>
       </c>
       <c r="E52" s="3">
-        <v>310400</v>
+        <v>317100</v>
       </c>
       <c r="F52" s="3">
-        <v>216800</v>
+        <v>221400</v>
       </c>
       <c r="G52" s="3">
-        <v>205300</v>
+        <v>209700</v>
       </c>
       <c r="H52" s="3">
-        <v>139800</v>
+        <v>142800</v>
       </c>
       <c r="I52" s="3">
-        <v>181700</v>
+        <v>185600</v>
       </c>
       <c r="J52" s="3">
-        <v>164300</v>
+        <v>167800</v>
       </c>
       <c r="K52" s="3">
         <v>166500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>332385000</v>
+        <v>339486000</v>
       </c>
       <c r="E54" s="3">
-        <v>312478000</v>
+        <v>319154000</v>
       </c>
       <c r="F54" s="3">
-        <v>292646000</v>
+        <v>298898000</v>
       </c>
       <c r="G54" s="3">
-        <v>280839000</v>
+        <v>286839000</v>
       </c>
       <c r="H54" s="3">
-        <v>259492000</v>
+        <v>265036000</v>
       </c>
       <c r="I54" s="3">
-        <v>246058000</v>
+        <v>251314000</v>
       </c>
       <c r="J54" s="3">
-        <v>228678000</v>
+        <v>233564000</v>
       </c>
       <c r="K54" s="3">
         <v>231715000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3129700</v>
+        <v>3196600</v>
       </c>
       <c r="E57" s="3">
-        <v>3904000</v>
+        <v>3987400</v>
       </c>
       <c r="F57" s="3">
-        <v>2119000</v>
+        <v>2164300</v>
       </c>
       <c r="G57" s="3">
-        <v>2504000</v>
+        <v>2557500</v>
       </c>
       <c r="H57" s="3">
-        <v>2580100</v>
+        <v>2635200</v>
       </c>
       <c r="I57" s="3">
-        <v>3026200</v>
+        <v>3090900</v>
       </c>
       <c r="J57" s="3">
-        <v>2626800</v>
+        <v>2683000</v>
       </c>
       <c r="K57" s="3">
         <v>2661700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1207800</v>
+        <v>1233600</v>
       </c>
       <c r="E59" s="3">
-        <v>1004400</v>
+        <v>1025900</v>
       </c>
       <c r="F59" s="3">
-        <v>1166400</v>
+        <v>1191300</v>
       </c>
       <c r="G59" s="3">
-        <v>1120500</v>
+        <v>1144500</v>
       </c>
       <c r="H59" s="3">
-        <v>1078300</v>
+        <v>1101300</v>
       </c>
       <c r="I59" s="3">
-        <v>834200</v>
+        <v>852000</v>
       </c>
       <c r="J59" s="3">
-        <v>828700</v>
+        <v>846400</v>
       </c>
       <c r="K59" s="3">
         <v>839700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24773100</v>
+        <v>25302300</v>
       </c>
       <c r="E61" s="3">
-        <v>21563000</v>
+        <v>22023700</v>
       </c>
       <c r="F61" s="3">
-        <v>18362300</v>
+        <v>18754600</v>
       </c>
       <c r="G61" s="3">
-        <v>22147400</v>
+        <v>22620600</v>
       </c>
       <c r="H61" s="3">
-        <v>18220100</v>
+        <v>18609400</v>
       </c>
       <c r="I61" s="3">
-        <v>18918100</v>
+        <v>19322300</v>
       </c>
       <c r="J61" s="3">
-        <v>14681400</v>
+        <v>14995100</v>
       </c>
       <c r="K61" s="3">
         <v>14876400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>311900</v>
+        <v>318600</v>
       </c>
       <c r="E62" s="3">
-        <v>315500</v>
+        <v>322200</v>
       </c>
       <c r="F62" s="3">
-        <v>216500</v>
+        <v>221100</v>
       </c>
       <c r="G62" s="3">
-        <v>201800</v>
+        <v>206100</v>
       </c>
       <c r="H62" s="3">
-        <v>128800</v>
+        <v>131500</v>
       </c>
       <c r="I62" s="3">
-        <v>167800</v>
+        <v>171400</v>
       </c>
       <c r="J62" s="3">
-        <v>138600</v>
+        <v>141600</v>
       </c>
       <c r="K62" s="3">
         <v>140500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>301534000</v>
+        <v>307976000</v>
       </c>
       <c r="E66" s="3">
-        <v>282880000</v>
+        <v>288924000</v>
       </c>
       <c r="F66" s="3">
-        <v>263964000</v>
+        <v>269603000</v>
       </c>
       <c r="G66" s="3">
-        <v>253614000</v>
+        <v>259032000</v>
       </c>
       <c r="H66" s="3">
-        <v>232826000</v>
+        <v>237800000</v>
       </c>
       <c r="I66" s="3">
-        <v>222269000</v>
+        <v>227018000</v>
       </c>
       <c r="J66" s="3">
-        <v>206413000</v>
+        <v>210823000</v>
       </c>
       <c r="K66" s="3">
         <v>209154000</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>601700</v>
+        <v>614600</v>
       </c>
       <c r="K70" s="3">
         <v>609700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26202300</v>
+        <v>26762100</v>
       </c>
       <c r="E72" s="3">
-        <v>24485800</v>
+        <v>25008900</v>
       </c>
       <c r="F72" s="3">
-        <v>23813900</v>
+        <v>24322700</v>
       </c>
       <c r="G72" s="3">
-        <v>22523400</v>
+        <v>23004600</v>
       </c>
       <c r="H72" s="3">
-        <v>27843000</v>
+        <v>28437900</v>
       </c>
       <c r="I72" s="3">
-        <v>19521700</v>
+        <v>19938800</v>
       </c>
       <c r="J72" s="3">
-        <v>18154500</v>
+        <v>18542300</v>
       </c>
       <c r="K72" s="3">
         <v>18395600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30850900</v>
+        <v>31510100</v>
       </c>
       <c r="E76" s="3">
-        <v>29597600</v>
+        <v>30229900</v>
       </c>
       <c r="F76" s="3">
-        <v>28682600</v>
+        <v>29295300</v>
       </c>
       <c r="G76" s="3">
-        <v>27225600</v>
+        <v>27807200</v>
       </c>
       <c r="H76" s="3">
-        <v>26666100</v>
+        <v>27235800</v>
       </c>
       <c r="I76" s="3">
-        <v>23788400</v>
+        <v>24296600</v>
       </c>
       <c r="J76" s="3">
-        <v>21663500</v>
+        <v>22126300</v>
       </c>
       <c r="K76" s="3">
         <v>21951200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2896700</v>
+        <v>2958600</v>
       </c>
       <c r="E81" s="3">
-        <v>2043600</v>
+        <v>2087200</v>
       </c>
       <c r="F81" s="3">
-        <v>3072500</v>
+        <v>3138200</v>
       </c>
       <c r="G81" s="3">
-        <v>2820000</v>
+        <v>2880200</v>
       </c>
       <c r="H81" s="3">
-        <v>2379300</v>
+        <v>2430100</v>
       </c>
       <c r="I81" s="3">
-        <v>2173700</v>
+        <v>2220100</v>
       </c>
       <c r="J81" s="3">
-        <v>2245900</v>
+        <v>2293800</v>
       </c>
       <c r="K81" s="3">
         <v>2307500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>353900</v>
+        <v>335600</v>
       </c>
       <c r="E83" s="3">
-        <v>328500</v>
+        <v>294600</v>
       </c>
       <c r="F83" s="3">
-        <v>288500</v>
+        <v>201700</v>
       </c>
       <c r="G83" s="3">
-        <v>197400</v>
+        <v>190900</v>
       </c>
       <c r="H83" s="3">
-        <v>186900</v>
+        <v>163900</v>
       </c>
       <c r="I83" s="3">
-        <v>160400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>131300</v>
+        <v>134200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2032700</v>
+        <v>7112400</v>
       </c>
       <c r="E89" s="3">
-        <v>6963600</v>
+        <v>6158700</v>
       </c>
       <c r="F89" s="3">
-        <v>6029900</v>
+        <v>-2739900</v>
       </c>
       <c r="G89" s="3">
-        <v>-2682600</v>
+        <v>2889100</v>
       </c>
       <c r="H89" s="3">
-        <v>2828700</v>
+        <v>-9840000</v>
       </c>
       <c r="I89" s="3">
-        <v>-9634200</v>
+        <v>488600</v>
       </c>
       <c r="J89" s="3">
-        <v>478400</v>
+        <v>5255600</v>
       </c>
       <c r="K89" s="3">
         <v>5214000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-398000</v>
+        <v>-416100</v>
       </c>
       <c r="E91" s="3">
-        <v>-407400</v>
+        <v>-423500</v>
       </c>
       <c r="F91" s="3">
-        <v>-414600</v>
+        <v>-381700</v>
       </c>
       <c r="G91" s="3">
-        <v>-373700</v>
+        <v>-258200</v>
       </c>
       <c r="H91" s="3">
-        <v>-252800</v>
+        <v>-283000</v>
       </c>
       <c r="I91" s="3">
-        <v>-277000</v>
+        <v>-511400</v>
       </c>
       <c r="J91" s="3">
-        <v>-500700</v>
+        <v>-191100</v>
       </c>
       <c r="K91" s="3">
         <v>-189600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-318400</v>
+        <v>-377700</v>
       </c>
       <c r="E94" s="3">
-        <v>-369800</v>
+        <v>-369600</v>
       </c>
       <c r="F94" s="3">
-        <v>-361900</v>
+        <v>-267600</v>
       </c>
       <c r="G94" s="3">
-        <v>-262000</v>
+        <v>-252000</v>
       </c>
       <c r="H94" s="3">
-        <v>-246700</v>
+        <v>-282200</v>
       </c>
       <c r="I94" s="3">
-        <v>-276300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-349900</v>
+        <v>-357400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1162900</v>
+        <v>-1357700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1329300</v>
+        <v>-1540900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1508600</v>
+        <v>-1216900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1191500</v>
+        <v>-491500</v>
       </c>
       <c r="H96" s="3">
-        <v>-481200</v>
+        <v>-688900</v>
       </c>
       <c r="I96" s="3">
-        <v>-674400</v>
+        <v>-1095800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1072800</v>
+        <v>-523000</v>
       </c>
       <c r="K96" s="3">
         <v>-518900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2186800</v>
+        <v>1523300</v>
       </c>
       <c r="E100" s="3">
-        <v>1491400</v>
+        <v>-5616600</v>
       </c>
       <c r="F100" s="3">
-        <v>-5499100</v>
+        <v>1964200</v>
       </c>
       <c r="G100" s="3">
-        <v>1923200</v>
+        <v>-260200</v>
       </c>
       <c r="H100" s="3">
-        <v>-254800</v>
+        <v>3490300</v>
       </c>
       <c r="I100" s="3">
-        <v>3417300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1694000</v>
+        <v>-1730200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-119400</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>249400</v>
       </c>
       <c r="F101" s="3">
-        <v>244200</v>
+        <v>23200</v>
       </c>
       <c r="G101" s="3">
-        <v>22700</v>
+        <v>-474100</v>
       </c>
       <c r="H101" s="3">
-        <v>-464200</v>
+        <v>107900</v>
       </c>
       <c r="I101" s="3">
-        <v>105600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-226500</v>
+        <v>-231400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-283700</v>
+        <v>8260200</v>
       </c>
       <c r="E102" s="3">
-        <v>8087400</v>
+        <v>421900</v>
       </c>
       <c r="F102" s="3">
-        <v>413100</v>
+        <v>-1020100</v>
       </c>
       <c r="G102" s="3">
-        <v>-998800</v>
+        <v>1902800</v>
       </c>
       <c r="H102" s="3">
-        <v>1863000</v>
+        <v>-6524100</v>
       </c>
       <c r="I102" s="3">
-        <v>-6387600</v>
+        <v>-1830300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1792100</v>
+        <v>6253000</v>
       </c>
       <c r="K102" s="3">
         <v>6203500</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6063600</v>
+        <v>9545800</v>
       </c>
       <c r="E8" s="3">
-        <v>7112400</v>
+        <v>6088800</v>
       </c>
       <c r="F8" s="3">
-        <v>9280800</v>
+        <v>7141900</v>
       </c>
       <c r="G8" s="3">
-        <v>8234300</v>
+        <v>9319300</v>
       </c>
       <c r="H8" s="3">
-        <v>6708500</v>
+        <v>8268500</v>
       </c>
       <c r="I8" s="3">
-        <v>6127500</v>
+        <v>6736300</v>
       </c>
       <c r="J8" s="3">
+        <v>6153000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5784300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5271600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4824800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4476100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4159000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,32 +986,35 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>-2200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1001,14 +1023,17 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>-5300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-7700</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1827800</v>
+        <v>3801400</v>
       </c>
       <c r="E17" s="3">
-        <v>3800500</v>
+        <v>1835400</v>
       </c>
       <c r="F17" s="3">
-        <v>4751800</v>
+        <v>3816200</v>
       </c>
       <c r="G17" s="3">
-        <v>3927300</v>
+        <v>4771600</v>
       </c>
       <c r="H17" s="3">
-        <v>3160300</v>
+        <v>3943600</v>
       </c>
       <c r="I17" s="3">
-        <v>2877700</v>
+        <v>3173500</v>
       </c>
       <c r="J17" s="3">
+        <v>2889700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2639800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2395500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2088500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1992800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1832900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4235800</v>
+        <v>5744400</v>
       </c>
       <c r="E18" s="3">
-        <v>3311900</v>
+        <v>4253400</v>
       </c>
       <c r="F18" s="3">
-        <v>4528900</v>
+        <v>3325700</v>
       </c>
       <c r="G18" s="3">
-        <v>4307000</v>
+        <v>4547700</v>
       </c>
       <c r="H18" s="3">
-        <v>3548100</v>
+        <v>4324800</v>
       </c>
       <c r="I18" s="3">
-        <v>3249800</v>
+        <v>3562900</v>
       </c>
       <c r="J18" s="3">
+        <v>3263300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3144500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2876100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2736200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2483300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2326200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-586800</v>
+        <v>-1450900</v>
       </c>
       <c r="E20" s="3">
-        <v>-698400</v>
+        <v>-589300</v>
       </c>
       <c r="F20" s="3">
-        <v>-704700</v>
+        <v>-701400</v>
       </c>
       <c r="G20" s="3">
-        <v>-739900</v>
+        <v>-707600</v>
       </c>
       <c r="H20" s="3">
-        <v>-438900</v>
+        <v>-743000</v>
       </c>
       <c r="I20" s="3">
-        <v>-458300</v>
+        <v>-440700</v>
       </c>
       <c r="J20" s="3">
+        <v>-460200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-285100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-79200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-64600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-255700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3984400</v>
+        <v>4693700</v>
       </c>
       <c r="E21" s="3">
-        <v>2908000</v>
+        <v>4028600</v>
       </c>
       <c r="F21" s="3">
-        <v>4025900</v>
+        <v>2962700</v>
       </c>
       <c r="G21" s="3">
-        <v>3757900</v>
+        <v>4137300</v>
       </c>
       <c r="H21" s="3">
-        <v>3273000</v>
+        <v>3785300</v>
       </c>
       <c r="I21" s="3">
-        <v>2925600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>3314600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2968400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1187,15 +1223,18 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>2506700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3648900</v>
+        <v>4293500</v>
       </c>
       <c r="E23" s="3">
-        <v>2613500</v>
+        <v>3664100</v>
       </c>
       <c r="F23" s="3">
-        <v>3824300</v>
+        <v>2624300</v>
       </c>
       <c r="G23" s="3">
-        <v>3567100</v>
+        <v>3840200</v>
       </c>
       <c r="H23" s="3">
-        <v>3109200</v>
+        <v>3581900</v>
       </c>
       <c r="I23" s="3">
-        <v>2791500</v>
+        <v>3122100</v>
       </c>
       <c r="J23" s="3">
+        <v>2803100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2859400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2804600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2657100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2418700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2070400</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>628200</v>
+        <v>892100</v>
       </c>
       <c r="E24" s="3">
-        <v>447900</v>
+        <v>630800</v>
       </c>
       <c r="F24" s="3">
-        <v>600500</v>
+        <v>449800</v>
       </c>
       <c r="G24" s="3">
-        <v>595200</v>
+        <v>603000</v>
       </c>
       <c r="H24" s="3">
-        <v>591400</v>
+        <v>597700</v>
       </c>
       <c r="I24" s="3">
-        <v>494400</v>
+        <v>593800</v>
       </c>
       <c r="J24" s="3">
+        <v>496500</v>
+      </c>
+      <c r="K24" s="3">
         <v>479400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>411100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>414500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>383000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>344500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3020700</v>
+        <v>3401400</v>
       </c>
       <c r="E26" s="3">
-        <v>2165600</v>
+        <v>3033200</v>
       </c>
       <c r="F26" s="3">
-        <v>3223700</v>
+        <v>2174600</v>
       </c>
       <c r="G26" s="3">
-        <v>2971800</v>
+        <v>3237100</v>
       </c>
       <c r="H26" s="3">
-        <v>2517900</v>
+        <v>2984200</v>
       </c>
       <c r="I26" s="3">
-        <v>2297100</v>
+        <v>2528300</v>
       </c>
       <c r="J26" s="3">
+        <v>2306600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2379900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2393500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2242600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2035700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1725900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2958600</v>
+        <v>3337500</v>
       </c>
       <c r="E27" s="3">
-        <v>2087200</v>
+        <v>2970900</v>
       </c>
       <c r="F27" s="3">
-        <v>3138200</v>
+        <v>2095900</v>
       </c>
       <c r="G27" s="3">
-        <v>2880200</v>
+        <v>3151200</v>
       </c>
       <c r="H27" s="3">
-        <v>2430100</v>
+        <v>2892200</v>
       </c>
       <c r="I27" s="3">
-        <v>2220100</v>
+        <v>2440200</v>
       </c>
       <c r="J27" s="3">
+        <v>2229400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2293800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2307500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2153400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1948900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1639900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>586800</v>
+        <v>1450900</v>
       </c>
       <c r="E32" s="3">
-        <v>698400</v>
+        <v>589300</v>
       </c>
       <c r="F32" s="3">
-        <v>704700</v>
+        <v>701400</v>
       </c>
       <c r="G32" s="3">
-        <v>739900</v>
+        <v>707600</v>
       </c>
       <c r="H32" s="3">
-        <v>438900</v>
+        <v>743000</v>
       </c>
       <c r="I32" s="3">
-        <v>458300</v>
+        <v>440700</v>
       </c>
       <c r="J32" s="3">
+        <v>460200</v>
+      </c>
+      <c r="K32" s="3">
         <v>285100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>79200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>64600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>255700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2958600</v>
+        <v>3337500</v>
       </c>
       <c r="E33" s="3">
-        <v>2087200</v>
+        <v>2970900</v>
       </c>
       <c r="F33" s="3">
-        <v>3138200</v>
+        <v>2095900</v>
       </c>
       <c r="G33" s="3">
-        <v>2880200</v>
+        <v>3151200</v>
       </c>
       <c r="H33" s="3">
-        <v>2430100</v>
+        <v>2892200</v>
       </c>
       <c r="I33" s="3">
-        <v>2220100</v>
+        <v>2440200</v>
       </c>
       <c r="J33" s="3">
+        <v>2229400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2293800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2307500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2153400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1948900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1639900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2958600</v>
+        <v>3337500</v>
       </c>
       <c r="E35" s="3">
-        <v>2087200</v>
+        <v>2970900</v>
       </c>
       <c r="F35" s="3">
-        <v>3138200</v>
+        <v>2095900</v>
       </c>
       <c r="G35" s="3">
-        <v>2880200</v>
+        <v>3151200</v>
       </c>
       <c r="H35" s="3">
-        <v>2430100</v>
+        <v>2892200</v>
       </c>
       <c r="I35" s="3">
-        <v>2220100</v>
+        <v>2440200</v>
       </c>
       <c r="J35" s="3">
+        <v>2229400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2293800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2307500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2153400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1948900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1639900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51651300</v>
+        <v>58388000</v>
       </c>
       <c r="E41" s="3">
-        <v>52952800</v>
+        <v>51865800</v>
       </c>
       <c r="F41" s="3">
-        <v>53969400</v>
+        <v>53172800</v>
       </c>
       <c r="G41" s="3">
-        <v>56210000</v>
+        <v>54193600</v>
       </c>
       <c r="H41" s="3">
-        <v>77924000</v>
+        <v>56443500</v>
       </c>
       <c r="I41" s="3">
-        <v>47564800</v>
+        <v>78247700</v>
       </c>
       <c r="J41" s="3">
+        <v>47762300</v>
+      </c>
+      <c r="K41" s="3">
         <v>45049300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44692700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43214400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35400200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19750800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25762100</v>
+        <v>29530200</v>
       </c>
       <c r="E42" s="3">
-        <v>21753200</v>
+        <v>25869100</v>
       </c>
       <c r="F42" s="3">
-        <v>13483200</v>
+        <v>21843500</v>
       </c>
       <c r="G42" s="3">
-        <v>11442500</v>
+        <v>13539200</v>
       </c>
       <c r="H42" s="3">
-        <v>9637000</v>
+        <v>11490000</v>
       </c>
       <c r="I42" s="3">
-        <v>10914300</v>
+        <v>9677000</v>
       </c>
       <c r="J42" s="3">
+        <v>10959700</v>
+      </c>
+      <c r="K42" s="3">
         <v>8750300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8681000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11433800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8220100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>920200</v>
+        <v>933600</v>
       </c>
       <c r="E47" s="3">
-        <v>894300</v>
+        <v>924000</v>
       </c>
       <c r="F47" s="3">
-        <v>874000</v>
+        <v>898000</v>
       </c>
       <c r="G47" s="3">
-        <v>864500</v>
+        <v>877600</v>
       </c>
       <c r="H47" s="3">
-        <v>882800</v>
+        <v>868000</v>
       </c>
       <c r="I47" s="3">
-        <v>819600</v>
+        <v>886500</v>
       </c>
       <c r="J47" s="3">
+        <v>823000</v>
+      </c>
+      <c r="K47" s="3">
         <v>817400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>810900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>738800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>795400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>805400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2964500</v>
+        <v>3116400</v>
       </c>
       <c r="E48" s="3">
-        <v>2899500</v>
+        <v>2976800</v>
       </c>
       <c r="F48" s="3">
-        <v>2731300</v>
+        <v>2911500</v>
       </c>
       <c r="G48" s="3">
-        <v>2422700</v>
+        <v>2742600</v>
       </c>
       <c r="H48" s="3">
-        <v>4521900</v>
+        <v>2432800</v>
       </c>
       <c r="I48" s="3">
-        <v>2209800</v>
+        <v>4540700</v>
       </c>
       <c r="J48" s="3">
+        <v>2218900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2104300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2087600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3247600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1604600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3063600</v>
+        <v>3636600</v>
       </c>
       <c r="E49" s="3">
-        <v>3062100</v>
+        <v>3076300</v>
       </c>
       <c r="F49" s="3">
-        <v>3065600</v>
+        <v>3074800</v>
       </c>
       <c r="G49" s="3">
-        <v>3058700</v>
+        <v>3078400</v>
       </c>
       <c r="H49" s="3">
-        <v>6122600</v>
+        <v>3071400</v>
       </c>
       <c r="I49" s="3">
-        <v>3068000</v>
+        <v>6148100</v>
       </c>
       <c r="J49" s="3">
+        <v>3080800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3062700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3038500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3072000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6016800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3093900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>376900</v>
+        <v>415600</v>
       </c>
       <c r="E52" s="3">
-        <v>317100</v>
+        <v>378500</v>
       </c>
       <c r="F52" s="3">
-        <v>221400</v>
+        <v>318400</v>
       </c>
       <c r="G52" s="3">
-        <v>209700</v>
+        <v>222300</v>
       </c>
       <c r="H52" s="3">
-        <v>142800</v>
+        <v>210500</v>
       </c>
       <c r="I52" s="3">
-        <v>185600</v>
+        <v>143400</v>
       </c>
       <c r="J52" s="3">
+        <v>186400</v>
+      </c>
+      <c r="K52" s="3">
         <v>167800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>166500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>213300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>214100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>246200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>339486000</v>
+        <v>374247000</v>
       </c>
       <c r="E54" s="3">
-        <v>319154000</v>
+        <v>340896000</v>
       </c>
       <c r="F54" s="3">
-        <v>298898000</v>
+        <v>320479000</v>
       </c>
       <c r="G54" s="3">
-        <v>286839000</v>
+        <v>300140000</v>
       </c>
       <c r="H54" s="3">
-        <v>265036000</v>
+        <v>288031000</v>
       </c>
       <c r="I54" s="3">
-        <v>251314000</v>
+        <v>266137000</v>
       </c>
       <c r="J54" s="3">
+        <v>252358000</v>
+      </c>
+      <c r="K54" s="3">
         <v>233564000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>231715000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>210710000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>182533000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>174721000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3196600</v>
+        <v>4108700</v>
       </c>
       <c r="E57" s="3">
-        <v>3987400</v>
+        <v>3209900</v>
       </c>
       <c r="F57" s="3">
-        <v>2164300</v>
+        <v>4004000</v>
       </c>
       <c r="G57" s="3">
-        <v>2557500</v>
+        <v>2173300</v>
       </c>
       <c r="H57" s="3">
-        <v>2635200</v>
+        <v>2568200</v>
       </c>
       <c r="I57" s="3">
-        <v>3090900</v>
+        <v>2646100</v>
       </c>
       <c r="J57" s="3">
+        <v>3103700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2683000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2661700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1409200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>385000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>292600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1233600</v>
+        <v>1838400</v>
       </c>
       <c r="E59" s="3">
-        <v>1025900</v>
+        <v>1238700</v>
       </c>
       <c r="F59" s="3">
-        <v>1191300</v>
+        <v>1030100</v>
       </c>
       <c r="G59" s="3">
-        <v>1144500</v>
+        <v>1196300</v>
       </c>
       <c r="H59" s="3">
-        <v>1101300</v>
+        <v>1149200</v>
       </c>
       <c r="I59" s="3">
-        <v>852000</v>
+        <v>1105900</v>
       </c>
       <c r="J59" s="3">
+        <v>855500</v>
+      </c>
+      <c r="K59" s="3">
         <v>846400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>839700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>837500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>867800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>805000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25302300</v>
+        <v>30315400</v>
       </c>
       <c r="E61" s="3">
-        <v>22023700</v>
+        <v>25407400</v>
       </c>
       <c r="F61" s="3">
-        <v>18754600</v>
+        <v>22115200</v>
       </c>
       <c r="G61" s="3">
-        <v>22620600</v>
+        <v>18832500</v>
       </c>
       <c r="H61" s="3">
-        <v>18609400</v>
+        <v>22714600</v>
       </c>
       <c r="I61" s="3">
-        <v>19322300</v>
+        <v>18686700</v>
       </c>
       <c r="J61" s="3">
+        <v>19402500</v>
+      </c>
+      <c r="K61" s="3">
         <v>14995100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14876400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14071600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9238500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8690400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>318600</v>
+        <v>267200</v>
       </c>
       <c r="E62" s="3">
-        <v>322200</v>
+        <v>319900</v>
       </c>
       <c r="F62" s="3">
-        <v>221100</v>
+        <v>323600</v>
       </c>
       <c r="G62" s="3">
-        <v>206100</v>
+        <v>222000</v>
       </c>
       <c r="H62" s="3">
-        <v>131500</v>
+        <v>207000</v>
       </c>
       <c r="I62" s="3">
-        <v>171400</v>
+        <v>132100</v>
       </c>
       <c r="J62" s="3">
+        <v>172100</v>
+      </c>
+      <c r="K62" s="3">
         <v>141600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>140500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>307976000</v>
+        <v>342062000</v>
       </c>
       <c r="E66" s="3">
-        <v>288924000</v>
+        <v>309255000</v>
       </c>
       <c r="F66" s="3">
-        <v>269603000</v>
+        <v>290124000</v>
       </c>
       <c r="G66" s="3">
-        <v>259032000</v>
+        <v>270723000</v>
       </c>
       <c r="H66" s="3">
-        <v>237800000</v>
+        <v>260108000</v>
       </c>
       <c r="I66" s="3">
-        <v>227018000</v>
+        <v>238788000</v>
       </c>
       <c r="J66" s="3">
+        <v>227961000</v>
+      </c>
+      <c r="K66" s="3">
         <v>210823000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>209154000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>191148000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>164431000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>157786000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2907,23 +3074,26 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>614600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>609700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>616500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26762100</v>
+        <v>28725700</v>
       </c>
       <c r="E72" s="3">
-        <v>25008900</v>
+        <v>26873200</v>
       </c>
       <c r="F72" s="3">
-        <v>24322700</v>
+        <v>25112800</v>
       </c>
       <c r="G72" s="3">
-        <v>23004600</v>
+        <v>24423700</v>
       </c>
       <c r="H72" s="3">
-        <v>28437900</v>
+        <v>23100200</v>
       </c>
       <c r="I72" s="3">
-        <v>19938800</v>
+        <v>28556000</v>
       </c>
       <c r="J72" s="3">
+        <v>20021600</v>
+      </c>
+      <c r="K72" s="3">
         <v>18542300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18395600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16143800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22078900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13697400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31510100</v>
+        <v>32184900</v>
       </c>
       <c r="E76" s="3">
-        <v>30229900</v>
+        <v>31640900</v>
       </c>
       <c r="F76" s="3">
-        <v>29295300</v>
+        <v>30355500</v>
       </c>
       <c r="G76" s="3">
-        <v>27807200</v>
+        <v>29417000</v>
       </c>
       <c r="H76" s="3">
-        <v>27235800</v>
+        <v>27922700</v>
       </c>
       <c r="I76" s="3">
-        <v>24296600</v>
+        <v>27348900</v>
       </c>
       <c r="J76" s="3">
+        <v>24397500</v>
+      </c>
+      <c r="K76" s="3">
         <v>22126300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21951200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18945900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18101700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16934800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2958600</v>
+        <v>3337500</v>
       </c>
       <c r="E81" s="3">
-        <v>2087200</v>
+        <v>2970900</v>
       </c>
       <c r="F81" s="3">
-        <v>3138200</v>
+        <v>2095900</v>
       </c>
       <c r="G81" s="3">
-        <v>2880200</v>
+        <v>3151200</v>
       </c>
       <c r="H81" s="3">
-        <v>2430100</v>
+        <v>2892200</v>
       </c>
       <c r="I81" s="3">
-        <v>2220100</v>
+        <v>2440200</v>
       </c>
       <c r="J81" s="3">
+        <v>2229400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2293800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2307500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2153400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1948900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1639900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>335600</v>
+        <v>398500</v>
       </c>
       <c r="E83" s="3">
-        <v>294600</v>
+        <v>362900</v>
       </c>
       <c r="F83" s="3">
-        <v>201700</v>
+        <v>336900</v>
       </c>
       <c r="G83" s="3">
-        <v>190900</v>
+        <v>295900</v>
       </c>
       <c r="H83" s="3">
-        <v>163900</v>
+        <v>202500</v>
       </c>
       <c r="I83" s="3">
-        <v>134200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>191700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>164500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3327,15 +3525,18 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>87700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7112400</v>
+        <v>7498900</v>
       </c>
       <c r="E89" s="3">
-        <v>6158700</v>
+        <v>-2328200</v>
       </c>
       <c r="F89" s="3">
-        <v>-2739900</v>
+        <v>7141900</v>
       </c>
       <c r="G89" s="3">
-        <v>2889100</v>
+        <v>6184300</v>
       </c>
       <c r="H89" s="3">
-        <v>-9840000</v>
+        <v>-2751300</v>
       </c>
       <c r="I89" s="3">
-        <v>488600</v>
+        <v>2901100</v>
       </c>
       <c r="J89" s="3">
+        <v>-9880900</v>
+      </c>
+      <c r="K89" s="3">
         <v>5255600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5214000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8670100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4576000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7048700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-416100</v>
+        <v>-522500</v>
       </c>
       <c r="E91" s="3">
-        <v>-423500</v>
+        <v>-408200</v>
       </c>
       <c r="F91" s="3">
-        <v>-381700</v>
+        <v>-417800</v>
       </c>
       <c r="G91" s="3">
-        <v>-258200</v>
+        <v>-425200</v>
       </c>
       <c r="H91" s="3">
-        <v>-283000</v>
+        <v>-383300</v>
       </c>
       <c r="I91" s="3">
-        <v>-511400</v>
+        <v>-259300</v>
       </c>
       <c r="J91" s="3">
+        <v>-284100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-191100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-189600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-164100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-159200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-138000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-377700</v>
+        <v>-2754900</v>
       </c>
       <c r="E94" s="3">
-        <v>-369600</v>
+        <v>-326600</v>
       </c>
       <c r="F94" s="3">
-        <v>-267600</v>
+        <v>-379200</v>
       </c>
       <c r="G94" s="3">
-        <v>-252000</v>
+        <v>-371200</v>
       </c>
       <c r="H94" s="3">
-        <v>-282200</v>
+        <v>-268700</v>
       </c>
       <c r="I94" s="3">
-        <v>-357400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>-253000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-283400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3734,15 +3963,18 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-48900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1357700</v>
+        <v>-1491800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1540900</v>
+        <v>-1192700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1216900</v>
+        <v>-1363400</v>
       </c>
       <c r="G96" s="3">
-        <v>-491500</v>
+        <v>-1547300</v>
       </c>
       <c r="H96" s="3">
-        <v>-688900</v>
+        <v>-1222000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1095800</v>
+        <v>-493500</v>
       </c>
       <c r="J96" s="3">
+        <v>-691700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-523000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-518900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-893800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-755600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-474000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1523300</v>
+        <v>4257800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5616600</v>
+        <v>2242800</v>
       </c>
       <c r="F100" s="3">
-        <v>1964200</v>
+        <v>1529600</v>
       </c>
       <c r="G100" s="3">
-        <v>-260200</v>
+        <v>-5639900</v>
       </c>
       <c r="H100" s="3">
-        <v>3490300</v>
+        <v>1972400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1730200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>-261300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3504800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3946,38 +4191,41 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-35700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
-        <v>249400</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>250400</v>
+      </c>
+      <c r="H101" s="3">
         <v>23200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-474100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>107900</v>
-      </c>
       <c r="I101" s="3">
-        <v>-231400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>-476100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>108300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3985,52 +4233,58 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-234900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8260200</v>
+        <v>9123500</v>
       </c>
       <c r="E102" s="3">
-        <v>421900</v>
+        <v>-290900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1020100</v>
+        <v>8294500</v>
       </c>
       <c r="G102" s="3">
-        <v>1902800</v>
+        <v>423600</v>
       </c>
       <c r="H102" s="3">
-        <v>-6524100</v>
+        <v>-1024300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1830300</v>
+        <v>1910700</v>
       </c>
       <c r="J102" s="3">
+        <v>-6551200</v>
+      </c>
+      <c r="K102" s="3">
         <v>6253000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6203500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5225700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4256400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9545800</v>
+        <v>9519700</v>
       </c>
       <c r="E8" s="3">
-        <v>6088800</v>
+        <v>6072100</v>
       </c>
       <c r="F8" s="3">
-        <v>7141900</v>
+        <v>7122400</v>
       </c>
       <c r="G8" s="3">
-        <v>9319300</v>
+        <v>9293800</v>
       </c>
       <c r="H8" s="3">
-        <v>8268500</v>
+        <v>8245900</v>
       </c>
       <c r="I8" s="3">
-        <v>6736300</v>
+        <v>6717900</v>
       </c>
       <c r="J8" s="3">
-        <v>6153000</v>
+        <v>6136200</v>
       </c>
       <c r="K8" s="3">
         <v>5784300</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3801400</v>
+        <v>3791000</v>
       </c>
       <c r="E17" s="3">
-        <v>1835400</v>
+        <v>1830400</v>
       </c>
       <c r="F17" s="3">
-        <v>3816200</v>
+        <v>3805800</v>
       </c>
       <c r="G17" s="3">
-        <v>4771600</v>
+        <v>4758500</v>
       </c>
       <c r="H17" s="3">
-        <v>3943600</v>
+        <v>3932900</v>
       </c>
       <c r="I17" s="3">
-        <v>3173500</v>
+        <v>3164800</v>
       </c>
       <c r="J17" s="3">
-        <v>2889700</v>
+        <v>2881800</v>
       </c>
       <c r="K17" s="3">
         <v>2639800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5744400</v>
+        <v>5728700</v>
       </c>
       <c r="E18" s="3">
-        <v>4253400</v>
+        <v>4241700</v>
       </c>
       <c r="F18" s="3">
-        <v>3325700</v>
+        <v>3316600</v>
       </c>
       <c r="G18" s="3">
-        <v>4547700</v>
+        <v>4535300</v>
       </c>
       <c r="H18" s="3">
-        <v>4324800</v>
+        <v>4313000</v>
       </c>
       <c r="I18" s="3">
-        <v>3562900</v>
+        <v>3553100</v>
       </c>
       <c r="J18" s="3">
-        <v>3263300</v>
+        <v>3254400</v>
       </c>
       <c r="K18" s="3">
         <v>3144500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1450900</v>
+        <v>-1447000</v>
       </c>
       <c r="E20" s="3">
-        <v>-589300</v>
+        <v>-587700</v>
       </c>
       <c r="F20" s="3">
-        <v>-701400</v>
+        <v>-699400</v>
       </c>
       <c r="G20" s="3">
-        <v>-707600</v>
+        <v>-705600</v>
       </c>
       <c r="H20" s="3">
-        <v>-743000</v>
+        <v>-740900</v>
       </c>
       <c r="I20" s="3">
-        <v>-440700</v>
+        <v>-439500</v>
       </c>
       <c r="J20" s="3">
-        <v>-460200</v>
+        <v>-458900</v>
       </c>
       <c r="K20" s="3">
         <v>-285100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4693700</v>
+        <v>4679200</v>
       </c>
       <c r="E21" s="3">
-        <v>4028600</v>
+        <v>4016000</v>
       </c>
       <c r="F21" s="3">
-        <v>2962700</v>
+        <v>2953200</v>
       </c>
       <c r="G21" s="3">
-        <v>4137300</v>
+        <v>4124700</v>
       </c>
       <c r="H21" s="3">
-        <v>3785300</v>
+        <v>3774000</v>
       </c>
       <c r="I21" s="3">
-        <v>3314600</v>
+        <v>3304800</v>
       </c>
       <c r="J21" s="3">
-        <v>2968400</v>
+        <v>2959500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4293500</v>
+        <v>4281700</v>
       </c>
       <c r="E23" s="3">
-        <v>3664100</v>
+        <v>3654100</v>
       </c>
       <c r="F23" s="3">
-        <v>2624300</v>
+        <v>2617100</v>
       </c>
       <c r="G23" s="3">
-        <v>3840200</v>
+        <v>3829600</v>
       </c>
       <c r="H23" s="3">
-        <v>3581900</v>
+        <v>3572100</v>
       </c>
       <c r="I23" s="3">
-        <v>3122100</v>
+        <v>3113600</v>
       </c>
       <c r="J23" s="3">
-        <v>2803100</v>
+        <v>2795400</v>
       </c>
       <c r="K23" s="3">
         <v>2859400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>892100</v>
+        <v>889600</v>
       </c>
       <c r="E24" s="3">
-        <v>630800</v>
+        <v>629100</v>
       </c>
       <c r="F24" s="3">
-        <v>449800</v>
+        <v>448500</v>
       </c>
       <c r="G24" s="3">
-        <v>603000</v>
+        <v>601400</v>
       </c>
       <c r="H24" s="3">
-        <v>597700</v>
+        <v>596100</v>
       </c>
       <c r="I24" s="3">
-        <v>593800</v>
+        <v>592200</v>
       </c>
       <c r="J24" s="3">
-        <v>496500</v>
+        <v>495100</v>
       </c>
       <c r="K24" s="3">
         <v>479400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3401400</v>
+        <v>3392100</v>
       </c>
       <c r="E26" s="3">
-        <v>3033200</v>
+        <v>3025000</v>
       </c>
       <c r="F26" s="3">
-        <v>2174600</v>
+        <v>2168600</v>
       </c>
       <c r="G26" s="3">
-        <v>3237100</v>
+        <v>3228300</v>
       </c>
       <c r="H26" s="3">
-        <v>2984200</v>
+        <v>2976000</v>
       </c>
       <c r="I26" s="3">
-        <v>2528300</v>
+        <v>2521400</v>
       </c>
       <c r="J26" s="3">
-        <v>2306600</v>
+        <v>2300300</v>
       </c>
       <c r="K26" s="3">
         <v>2379900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3337500</v>
+        <v>3328400</v>
       </c>
       <c r="E27" s="3">
-        <v>2970900</v>
+        <v>2962800</v>
       </c>
       <c r="F27" s="3">
-        <v>2095900</v>
+        <v>2090200</v>
       </c>
       <c r="G27" s="3">
-        <v>3151200</v>
+        <v>3142600</v>
       </c>
       <c r="H27" s="3">
-        <v>2892200</v>
+        <v>2884300</v>
       </c>
       <c r="I27" s="3">
-        <v>2440200</v>
+        <v>2433600</v>
       </c>
       <c r="J27" s="3">
-        <v>2229400</v>
+        <v>2223300</v>
       </c>
       <c r="K27" s="3">
         <v>2293800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1450900</v>
+        <v>1447000</v>
       </c>
       <c r="E32" s="3">
-        <v>589300</v>
+        <v>587700</v>
       </c>
       <c r="F32" s="3">
-        <v>701400</v>
+        <v>699400</v>
       </c>
       <c r="G32" s="3">
-        <v>707600</v>
+        <v>705600</v>
       </c>
       <c r="H32" s="3">
-        <v>743000</v>
+        <v>740900</v>
       </c>
       <c r="I32" s="3">
-        <v>440700</v>
+        <v>439500</v>
       </c>
       <c r="J32" s="3">
-        <v>460200</v>
+        <v>458900</v>
       </c>
       <c r="K32" s="3">
         <v>285100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3337500</v>
+        <v>3328400</v>
       </c>
       <c r="E33" s="3">
-        <v>2970900</v>
+        <v>2962800</v>
       </c>
       <c r="F33" s="3">
-        <v>2095900</v>
+        <v>2090200</v>
       </c>
       <c r="G33" s="3">
-        <v>3151200</v>
+        <v>3142600</v>
       </c>
       <c r="H33" s="3">
-        <v>2892200</v>
+        <v>2884300</v>
       </c>
       <c r="I33" s="3">
-        <v>2440200</v>
+        <v>2433600</v>
       </c>
       <c r="J33" s="3">
-        <v>2229400</v>
+        <v>2223300</v>
       </c>
       <c r="K33" s="3">
         <v>2293800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3337500</v>
+        <v>3328400</v>
       </c>
       <c r="E35" s="3">
-        <v>2970900</v>
+        <v>2962800</v>
       </c>
       <c r="F35" s="3">
-        <v>2095900</v>
+        <v>2090200</v>
       </c>
       <c r="G35" s="3">
-        <v>3151200</v>
+        <v>3142600</v>
       </c>
       <c r="H35" s="3">
-        <v>2892200</v>
+        <v>2884300</v>
       </c>
       <c r="I35" s="3">
-        <v>2440200</v>
+        <v>2433600</v>
       </c>
       <c r="J35" s="3">
-        <v>2229400</v>
+        <v>2223300</v>
       </c>
       <c r="K35" s="3">
         <v>2293800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58388000</v>
+        <v>58228300</v>
       </c>
       <c r="E41" s="3">
-        <v>51865800</v>
+        <v>51723900</v>
       </c>
       <c r="F41" s="3">
-        <v>53172800</v>
+        <v>53027300</v>
       </c>
       <c r="G41" s="3">
-        <v>54193600</v>
+        <v>54045300</v>
       </c>
       <c r="H41" s="3">
-        <v>56443500</v>
+        <v>56289100</v>
       </c>
       <c r="I41" s="3">
-        <v>78247700</v>
+        <v>78033700</v>
       </c>
       <c r="J41" s="3">
-        <v>47762300</v>
+        <v>47631700</v>
       </c>
       <c r="K41" s="3">
         <v>45049300</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29530200</v>
+        <v>29449400</v>
       </c>
       <c r="E42" s="3">
-        <v>25869100</v>
+        <v>25798300</v>
       </c>
       <c r="F42" s="3">
-        <v>21843500</v>
+        <v>21783800</v>
       </c>
       <c r="G42" s="3">
-        <v>13539200</v>
+        <v>13502100</v>
       </c>
       <c r="H42" s="3">
-        <v>11490000</v>
+        <v>11458600</v>
       </c>
       <c r="I42" s="3">
-        <v>9677000</v>
+        <v>9650600</v>
       </c>
       <c r="J42" s="3">
-        <v>10959700</v>
+        <v>10929700</v>
       </c>
       <c r="K42" s="3">
         <v>8750300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>933600</v>
+        <v>931100</v>
       </c>
       <c r="E47" s="3">
-        <v>924000</v>
+        <v>921500</v>
       </c>
       <c r="F47" s="3">
-        <v>898000</v>
+        <v>895600</v>
       </c>
       <c r="G47" s="3">
-        <v>877600</v>
+        <v>875200</v>
       </c>
       <c r="H47" s="3">
-        <v>868000</v>
+        <v>865700</v>
       </c>
       <c r="I47" s="3">
-        <v>886500</v>
+        <v>884100</v>
       </c>
       <c r="J47" s="3">
-        <v>823000</v>
+        <v>820800</v>
       </c>
       <c r="K47" s="3">
         <v>817400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3116400</v>
+        <v>3107800</v>
       </c>
       <c r="E48" s="3">
-        <v>2976800</v>
+        <v>2968700</v>
       </c>
       <c r="F48" s="3">
-        <v>2911500</v>
+        <v>2903600</v>
       </c>
       <c r="G48" s="3">
-        <v>2742600</v>
+        <v>2735100</v>
       </c>
       <c r="H48" s="3">
-        <v>2432800</v>
+        <v>2426100</v>
       </c>
       <c r="I48" s="3">
-        <v>4540700</v>
+        <v>4528300</v>
       </c>
       <c r="J48" s="3">
-        <v>2218900</v>
+        <v>2212900</v>
       </c>
       <c r="K48" s="3">
         <v>2104300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3636600</v>
+        <v>3626700</v>
       </c>
       <c r="E49" s="3">
-        <v>3076300</v>
+        <v>3067900</v>
       </c>
       <c r="F49" s="3">
-        <v>3074800</v>
+        <v>3066400</v>
       </c>
       <c r="G49" s="3">
-        <v>3078400</v>
+        <v>3070000</v>
       </c>
       <c r="H49" s="3">
-        <v>3071400</v>
+        <v>3063000</v>
       </c>
       <c r="I49" s="3">
-        <v>6148100</v>
+        <v>6131300</v>
       </c>
       <c r="J49" s="3">
-        <v>3080800</v>
+        <v>3072400</v>
       </c>
       <c r="K49" s="3">
         <v>3062700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>415600</v>
+        <v>414500</v>
       </c>
       <c r="E52" s="3">
-        <v>378500</v>
+        <v>377500</v>
       </c>
       <c r="F52" s="3">
-        <v>318400</v>
+        <v>317500</v>
       </c>
       <c r="G52" s="3">
-        <v>222300</v>
+        <v>221700</v>
       </c>
       <c r="H52" s="3">
-        <v>210500</v>
+        <v>210000</v>
       </c>
       <c r="I52" s="3">
-        <v>143400</v>
+        <v>143000</v>
       </c>
       <c r="J52" s="3">
-        <v>186400</v>
+        <v>185800</v>
       </c>
       <c r="K52" s="3">
         <v>167800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>374247000</v>
+        <v>373223000</v>
       </c>
       <c r="E54" s="3">
-        <v>340896000</v>
+        <v>339963000</v>
       </c>
       <c r="F54" s="3">
-        <v>320479000</v>
+        <v>319603000</v>
       </c>
       <c r="G54" s="3">
-        <v>300140000</v>
+        <v>299319000</v>
       </c>
       <c r="H54" s="3">
-        <v>288031000</v>
+        <v>287243000</v>
       </c>
       <c r="I54" s="3">
-        <v>266137000</v>
+        <v>265409000</v>
       </c>
       <c r="J54" s="3">
-        <v>252358000</v>
+        <v>251668000</v>
       </c>
       <c r="K54" s="3">
         <v>233564000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4108700</v>
+        <v>4097400</v>
       </c>
       <c r="E57" s="3">
-        <v>3209900</v>
+        <v>3201100</v>
       </c>
       <c r="F57" s="3">
-        <v>4004000</v>
+        <v>3993100</v>
       </c>
       <c r="G57" s="3">
-        <v>2173300</v>
+        <v>2167400</v>
       </c>
       <c r="H57" s="3">
-        <v>2568200</v>
+        <v>2561100</v>
       </c>
       <c r="I57" s="3">
-        <v>2646100</v>
+        <v>2638900</v>
       </c>
       <c r="J57" s="3">
-        <v>3103700</v>
+        <v>3095200</v>
       </c>
       <c r="K57" s="3">
         <v>2683000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1838400</v>
+        <v>1833300</v>
       </c>
       <c r="E59" s="3">
-        <v>1238700</v>
+        <v>1235300</v>
       </c>
       <c r="F59" s="3">
-        <v>1030100</v>
+        <v>1027300</v>
       </c>
       <c r="G59" s="3">
-        <v>1196300</v>
+        <v>1193000</v>
       </c>
       <c r="H59" s="3">
-        <v>1149200</v>
+        <v>1146100</v>
       </c>
       <c r="I59" s="3">
-        <v>1105900</v>
+        <v>1102900</v>
       </c>
       <c r="J59" s="3">
-        <v>855500</v>
+        <v>853200</v>
       </c>
       <c r="K59" s="3">
         <v>846400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30315400</v>
+        <v>30232500</v>
       </c>
       <c r="E61" s="3">
-        <v>25407400</v>
+        <v>25338000</v>
       </c>
       <c r="F61" s="3">
-        <v>22115200</v>
+        <v>22054700</v>
       </c>
       <c r="G61" s="3">
-        <v>18832500</v>
+        <v>18781000</v>
       </c>
       <c r="H61" s="3">
-        <v>22714600</v>
+        <v>22652400</v>
       </c>
       <c r="I61" s="3">
-        <v>18686700</v>
+        <v>18635500</v>
       </c>
       <c r="J61" s="3">
-        <v>19402500</v>
+        <v>19349400</v>
       </c>
       <c r="K61" s="3">
         <v>14995100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>267200</v>
+        <v>266500</v>
       </c>
       <c r="E62" s="3">
-        <v>319900</v>
+        <v>319000</v>
       </c>
       <c r="F62" s="3">
-        <v>323600</v>
+        <v>322700</v>
       </c>
       <c r="G62" s="3">
-        <v>222000</v>
+        <v>221400</v>
       </c>
       <c r="H62" s="3">
-        <v>207000</v>
+        <v>206400</v>
       </c>
       <c r="I62" s="3">
-        <v>132100</v>
+        <v>131700</v>
       </c>
       <c r="J62" s="3">
-        <v>172100</v>
+        <v>171600</v>
       </c>
       <c r="K62" s="3">
         <v>141600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>342062000</v>
+        <v>341126000</v>
       </c>
       <c r="E66" s="3">
-        <v>309255000</v>
+        <v>308409000</v>
       </c>
       <c r="F66" s="3">
-        <v>290124000</v>
+        <v>289330000</v>
       </c>
       <c r="G66" s="3">
-        <v>270723000</v>
+        <v>269982000</v>
       </c>
       <c r="H66" s="3">
-        <v>260108000</v>
+        <v>259396000</v>
       </c>
       <c r="I66" s="3">
-        <v>238788000</v>
+        <v>238134000</v>
       </c>
       <c r="J66" s="3">
-        <v>227961000</v>
+        <v>227337000</v>
       </c>
       <c r="K66" s="3">
         <v>210823000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28725700</v>
+        <v>28647100</v>
       </c>
       <c r="E72" s="3">
-        <v>26873200</v>
+        <v>26799700</v>
       </c>
       <c r="F72" s="3">
-        <v>25112800</v>
+        <v>25044100</v>
       </c>
       <c r="G72" s="3">
-        <v>24423700</v>
+        <v>24356900</v>
       </c>
       <c r="H72" s="3">
-        <v>23100200</v>
+        <v>23037000</v>
       </c>
       <c r="I72" s="3">
-        <v>28556000</v>
+        <v>28477900</v>
       </c>
       <c r="J72" s="3">
-        <v>20021600</v>
+        <v>19966800</v>
       </c>
       <c r="K72" s="3">
         <v>18542300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32184900</v>
+        <v>32096900</v>
       </c>
       <c r="E76" s="3">
-        <v>31640900</v>
+        <v>31554400</v>
       </c>
       <c r="F76" s="3">
-        <v>30355500</v>
+        <v>30272500</v>
       </c>
       <c r="G76" s="3">
-        <v>29417000</v>
+        <v>29336600</v>
       </c>
       <c r="H76" s="3">
-        <v>27922700</v>
+        <v>27846400</v>
       </c>
       <c r="I76" s="3">
-        <v>27348900</v>
+        <v>27274100</v>
       </c>
       <c r="J76" s="3">
-        <v>24397500</v>
+        <v>24330800</v>
       </c>
       <c r="K76" s="3">
         <v>22126300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3337500</v>
+        <v>3328400</v>
       </c>
       <c r="E81" s="3">
-        <v>2970900</v>
+        <v>2962800</v>
       </c>
       <c r="F81" s="3">
-        <v>2095900</v>
+        <v>2090200</v>
       </c>
       <c r="G81" s="3">
-        <v>3151200</v>
+        <v>3142600</v>
       </c>
       <c r="H81" s="3">
-        <v>2892200</v>
+        <v>2884300</v>
       </c>
       <c r="I81" s="3">
-        <v>2440200</v>
+        <v>2433600</v>
       </c>
       <c r="J81" s="3">
-        <v>2229400</v>
+        <v>2223300</v>
       </c>
       <c r="K81" s="3">
         <v>2293800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>398500</v>
+        <v>397500</v>
       </c>
       <c r="E83" s="3">
-        <v>362900</v>
+        <v>361900</v>
       </c>
       <c r="F83" s="3">
-        <v>336900</v>
+        <v>336000</v>
       </c>
       <c r="G83" s="3">
-        <v>295900</v>
+        <v>295100</v>
       </c>
       <c r="H83" s="3">
-        <v>202500</v>
+        <v>201900</v>
       </c>
       <c r="I83" s="3">
-        <v>191700</v>
+        <v>191200</v>
       </c>
       <c r="J83" s="3">
-        <v>164500</v>
+        <v>164100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7498900</v>
+        <v>7478400</v>
       </c>
       <c r="E89" s="3">
-        <v>-2328200</v>
+        <v>-2321800</v>
       </c>
       <c r="F89" s="3">
-        <v>7141900</v>
+        <v>7122400</v>
       </c>
       <c r="G89" s="3">
-        <v>6184300</v>
+        <v>6167300</v>
       </c>
       <c r="H89" s="3">
-        <v>-2751300</v>
+        <v>-2743800</v>
       </c>
       <c r="I89" s="3">
-        <v>2901100</v>
+        <v>2893200</v>
       </c>
       <c r="J89" s="3">
-        <v>-9880900</v>
+        <v>-9853800</v>
       </c>
       <c r="K89" s="3">
         <v>5255600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-522500</v>
+        <v>-521100</v>
       </c>
       <c r="E91" s="3">
-        <v>-408200</v>
+        <v>-407100</v>
       </c>
       <c r="F91" s="3">
-        <v>-417800</v>
+        <v>-416700</v>
       </c>
       <c r="G91" s="3">
-        <v>-425200</v>
+        <v>-424100</v>
       </c>
       <c r="H91" s="3">
-        <v>-383300</v>
+        <v>-382300</v>
       </c>
       <c r="I91" s="3">
-        <v>-259300</v>
+        <v>-258600</v>
       </c>
       <c r="J91" s="3">
-        <v>-284100</v>
+        <v>-283400</v>
       </c>
       <c r="K91" s="3">
         <v>-191100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2754900</v>
+        <v>-2747400</v>
       </c>
       <c r="E94" s="3">
-        <v>-326600</v>
+        <v>-325700</v>
       </c>
       <c r="F94" s="3">
-        <v>-379200</v>
+        <v>-378200</v>
       </c>
       <c r="G94" s="3">
-        <v>-371200</v>
+        <v>-370100</v>
       </c>
       <c r="H94" s="3">
-        <v>-268700</v>
+        <v>-267900</v>
       </c>
       <c r="I94" s="3">
-        <v>-253000</v>
+        <v>-252300</v>
       </c>
       <c r="J94" s="3">
-        <v>-283400</v>
+        <v>-282600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1491800</v>
+        <v>-1487700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1192700</v>
+        <v>-1189400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1363400</v>
+        <v>-1359600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1547300</v>
+        <v>-1543000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1222000</v>
+        <v>-1218600</v>
       </c>
       <c r="I96" s="3">
-        <v>-493500</v>
+        <v>-492200</v>
       </c>
       <c r="J96" s="3">
-        <v>-691700</v>
+        <v>-689800</v>
       </c>
       <c r="K96" s="3">
         <v>-523000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4257800</v>
+        <v>4246200</v>
       </c>
       <c r="E100" s="3">
-        <v>2242800</v>
+        <v>2236700</v>
       </c>
       <c r="F100" s="3">
-        <v>1529600</v>
+        <v>1525400</v>
       </c>
       <c r="G100" s="3">
-        <v>-5639900</v>
+        <v>-5624500</v>
       </c>
       <c r="H100" s="3">
-        <v>1972400</v>
+        <v>1967000</v>
       </c>
       <c r="I100" s="3">
-        <v>-261300</v>
+        <v>-260600</v>
       </c>
       <c r="J100" s="3">
-        <v>3504800</v>
+        <v>3495200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>121700</v>
+        <v>121400</v>
       </c>
       <c r="E101" s="3">
-        <v>121000</v>
+        <v>120600</v>
       </c>
       <c r="F101" s="3">
         <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>250400</v>
+        <v>249800</v>
       </c>
       <c r="H101" s="3">
         <v>23200</v>
       </c>
       <c r="I101" s="3">
-        <v>-476100</v>
+        <v>-474800</v>
       </c>
       <c r="J101" s="3">
-        <v>108300</v>
+        <v>108000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9123500</v>
+        <v>9098500</v>
       </c>
       <c r="E102" s="3">
-        <v>-290900</v>
+        <v>-290100</v>
       </c>
       <c r="F102" s="3">
-        <v>8294500</v>
+        <v>8271800</v>
       </c>
       <c r="G102" s="3">
-        <v>423600</v>
+        <v>422500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1024300</v>
+        <v>-1021500</v>
       </c>
       <c r="I102" s="3">
-        <v>1910700</v>
+        <v>1905500</v>
       </c>
       <c r="J102" s="3">
-        <v>-6551200</v>
+        <v>-6533200</v>
       </c>
       <c r="K102" s="3">
         <v>6253000</v>

--- a/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9519700</v>
+        <v>9548000</v>
       </c>
       <c r="E8" s="3">
-        <v>6072100</v>
+        <v>6090200</v>
       </c>
       <c r="F8" s="3">
-        <v>7122400</v>
+        <v>7143500</v>
       </c>
       <c r="G8" s="3">
-        <v>9293800</v>
+        <v>9321400</v>
       </c>
       <c r="H8" s="3">
-        <v>8245900</v>
+        <v>8270400</v>
       </c>
       <c r="I8" s="3">
-        <v>6717900</v>
+        <v>6737900</v>
       </c>
       <c r="J8" s="3">
-        <v>6136200</v>
+        <v>6154400</v>
       </c>
       <c r="K8" s="3">
         <v>5784300</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3791000</v>
+        <v>3802300</v>
       </c>
       <c r="E17" s="3">
-        <v>1830400</v>
+        <v>1835800</v>
       </c>
       <c r="F17" s="3">
-        <v>3805800</v>
+        <v>3817100</v>
       </c>
       <c r="G17" s="3">
-        <v>4758500</v>
+        <v>4772700</v>
       </c>
       <c r="H17" s="3">
-        <v>3932900</v>
+        <v>3944500</v>
       </c>
       <c r="I17" s="3">
-        <v>3164800</v>
+        <v>3174200</v>
       </c>
       <c r="J17" s="3">
-        <v>2881800</v>
+        <v>2890300</v>
       </c>
       <c r="K17" s="3">
         <v>2639800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5728700</v>
+        <v>5745700</v>
       </c>
       <c r="E18" s="3">
-        <v>4241700</v>
+        <v>4254400</v>
       </c>
       <c r="F18" s="3">
-        <v>3316600</v>
+        <v>3326400</v>
       </c>
       <c r="G18" s="3">
-        <v>4535300</v>
+        <v>4548800</v>
       </c>
       <c r="H18" s="3">
-        <v>4313000</v>
+        <v>4325800</v>
       </c>
       <c r="I18" s="3">
-        <v>3553100</v>
+        <v>3563700</v>
       </c>
       <c r="J18" s="3">
-        <v>3254400</v>
+        <v>3264100</v>
       </c>
       <c r="K18" s="3">
         <v>3144500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1447000</v>
+        <v>-1451300</v>
       </c>
       <c r="E20" s="3">
-        <v>-587700</v>
+        <v>-589400</v>
       </c>
       <c r="F20" s="3">
-        <v>-699400</v>
+        <v>-701500</v>
       </c>
       <c r="G20" s="3">
-        <v>-705600</v>
+        <v>-707700</v>
       </c>
       <c r="H20" s="3">
-        <v>-740900</v>
+        <v>-743100</v>
       </c>
       <c r="I20" s="3">
-        <v>-439500</v>
+        <v>-440800</v>
       </c>
       <c r="J20" s="3">
-        <v>-458900</v>
+        <v>-460300</v>
       </c>
       <c r="K20" s="3">
         <v>-285100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4679200</v>
+        <v>4692200</v>
       </c>
       <c r="E21" s="3">
-        <v>4016000</v>
+        <v>4027200</v>
       </c>
       <c r="F21" s="3">
-        <v>2953200</v>
+        <v>2961200</v>
       </c>
       <c r="G21" s="3">
-        <v>4124700</v>
+        <v>4136300</v>
       </c>
       <c r="H21" s="3">
-        <v>3774000</v>
+        <v>3784800</v>
       </c>
       <c r="I21" s="3">
-        <v>3304800</v>
+        <v>3314200</v>
       </c>
       <c r="J21" s="3">
-        <v>2959500</v>
+        <v>2968000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4281700</v>
+        <v>4294400</v>
       </c>
       <c r="E23" s="3">
-        <v>3654100</v>
+        <v>3664900</v>
       </c>
       <c r="F23" s="3">
-        <v>2617100</v>
+        <v>2624900</v>
       </c>
       <c r="G23" s="3">
-        <v>3829600</v>
+        <v>3841000</v>
       </c>
       <c r="H23" s="3">
-        <v>3572100</v>
+        <v>3582700</v>
       </c>
       <c r="I23" s="3">
-        <v>3113600</v>
+        <v>3122900</v>
       </c>
       <c r="J23" s="3">
-        <v>2795400</v>
+        <v>2803800</v>
       </c>
       <c r="K23" s="3">
         <v>2859400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>889600</v>
+        <v>892300</v>
       </c>
       <c r="E24" s="3">
-        <v>629100</v>
+        <v>631000</v>
       </c>
       <c r="F24" s="3">
-        <v>448500</v>
+        <v>449900</v>
       </c>
       <c r="G24" s="3">
-        <v>601400</v>
+        <v>603200</v>
       </c>
       <c r="H24" s="3">
-        <v>596100</v>
+        <v>597800</v>
       </c>
       <c r="I24" s="3">
-        <v>592200</v>
+        <v>594000</v>
       </c>
       <c r="J24" s="3">
-        <v>495100</v>
+        <v>496600</v>
       </c>
       <c r="K24" s="3">
         <v>479400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3392100</v>
+        <v>3402100</v>
       </c>
       <c r="E26" s="3">
-        <v>3025000</v>
+        <v>3033900</v>
       </c>
       <c r="F26" s="3">
-        <v>2168600</v>
+        <v>2175100</v>
       </c>
       <c r="G26" s="3">
-        <v>3228300</v>
+        <v>3237900</v>
       </c>
       <c r="H26" s="3">
-        <v>2976000</v>
+        <v>2984900</v>
       </c>
       <c r="I26" s="3">
-        <v>2521400</v>
+        <v>2528900</v>
       </c>
       <c r="J26" s="3">
-        <v>2300300</v>
+        <v>2307200</v>
       </c>
       <c r="K26" s="3">
         <v>2379900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3328400</v>
+        <v>3338300</v>
       </c>
       <c r="E27" s="3">
-        <v>2962800</v>
+        <v>2971600</v>
       </c>
       <c r="F27" s="3">
-        <v>2090200</v>
+        <v>2096400</v>
       </c>
       <c r="G27" s="3">
-        <v>3142600</v>
+        <v>3151900</v>
       </c>
       <c r="H27" s="3">
-        <v>2884300</v>
+        <v>2892900</v>
       </c>
       <c r="I27" s="3">
-        <v>2433600</v>
+        <v>2440800</v>
       </c>
       <c r="J27" s="3">
-        <v>2223300</v>
+        <v>2229900</v>
       </c>
       <c r="K27" s="3">
         <v>2293800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1447000</v>
+        <v>1451300</v>
       </c>
       <c r="E32" s="3">
-        <v>587700</v>
+        <v>589400</v>
       </c>
       <c r="F32" s="3">
-        <v>699400</v>
+        <v>701500</v>
       </c>
       <c r="G32" s="3">
-        <v>705600</v>
+        <v>707700</v>
       </c>
       <c r="H32" s="3">
-        <v>740900</v>
+        <v>743100</v>
       </c>
       <c r="I32" s="3">
-        <v>439500</v>
+        <v>440800</v>
       </c>
       <c r="J32" s="3">
-        <v>458900</v>
+        <v>460300</v>
       </c>
       <c r="K32" s="3">
         <v>285100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3328400</v>
+        <v>3338300</v>
       </c>
       <c r="E33" s="3">
-        <v>2962800</v>
+        <v>2971600</v>
       </c>
       <c r="F33" s="3">
-        <v>2090200</v>
+        <v>2096400</v>
       </c>
       <c r="G33" s="3">
-        <v>3142600</v>
+        <v>3151900</v>
       </c>
       <c r="H33" s="3">
-        <v>2884300</v>
+        <v>2892900</v>
       </c>
       <c r="I33" s="3">
-        <v>2433600</v>
+        <v>2440800</v>
       </c>
       <c r="J33" s="3">
-        <v>2223300</v>
+        <v>2229900</v>
       </c>
       <c r="K33" s="3">
         <v>2293800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3328400</v>
+        <v>3338300</v>
       </c>
       <c r="E35" s="3">
-        <v>2962800</v>
+        <v>2971600</v>
       </c>
       <c r="F35" s="3">
-        <v>2090200</v>
+        <v>2096400</v>
       </c>
       <c r="G35" s="3">
-        <v>3142600</v>
+        <v>3151900</v>
       </c>
       <c r="H35" s="3">
-        <v>2884300</v>
+        <v>2892900</v>
       </c>
       <c r="I35" s="3">
-        <v>2433600</v>
+        <v>2440800</v>
       </c>
       <c r="J35" s="3">
-        <v>2223300</v>
+        <v>2229900</v>
       </c>
       <c r="K35" s="3">
         <v>2293800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58228300</v>
+        <v>58401400</v>
       </c>
       <c r="E41" s="3">
-        <v>51723900</v>
+        <v>51877700</v>
       </c>
       <c r="F41" s="3">
-        <v>53027300</v>
+        <v>53184900</v>
       </c>
       <c r="G41" s="3">
-        <v>54045300</v>
+        <v>54206000</v>
       </c>
       <c r="H41" s="3">
-        <v>56289100</v>
+        <v>56456400</v>
       </c>
       <c r="I41" s="3">
-        <v>78033700</v>
+        <v>78265600</v>
       </c>
       <c r="J41" s="3">
-        <v>47631700</v>
+        <v>47773300</v>
       </c>
       <c r="K41" s="3">
         <v>45049300</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29449400</v>
+        <v>29537000</v>
       </c>
       <c r="E42" s="3">
-        <v>25798300</v>
+        <v>25875000</v>
       </c>
       <c r="F42" s="3">
-        <v>21783800</v>
+        <v>21848600</v>
       </c>
       <c r="G42" s="3">
-        <v>13502100</v>
+        <v>13542300</v>
       </c>
       <c r="H42" s="3">
-        <v>11458600</v>
+        <v>11492600</v>
       </c>
       <c r="I42" s="3">
-        <v>9650600</v>
+        <v>9679300</v>
       </c>
       <c r="J42" s="3">
-        <v>10929700</v>
+        <v>10962200</v>
       </c>
       <c r="K42" s="3">
         <v>8750300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>931100</v>
+        <v>933900</v>
       </c>
       <c r="E47" s="3">
-        <v>921500</v>
+        <v>924200</v>
       </c>
       <c r="F47" s="3">
-        <v>895600</v>
+        <v>898200</v>
       </c>
       <c r="G47" s="3">
-        <v>875200</v>
+        <v>877800</v>
       </c>
       <c r="H47" s="3">
-        <v>865700</v>
+        <v>868200</v>
       </c>
       <c r="I47" s="3">
-        <v>884100</v>
+        <v>886700</v>
       </c>
       <c r="J47" s="3">
-        <v>820800</v>
+        <v>823200</v>
       </c>
       <c r="K47" s="3">
         <v>817400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3107800</v>
+        <v>3117100</v>
       </c>
       <c r="E48" s="3">
-        <v>2968700</v>
+        <v>2977500</v>
       </c>
       <c r="F48" s="3">
-        <v>2903600</v>
+        <v>2912200</v>
       </c>
       <c r="G48" s="3">
-        <v>2735100</v>
+        <v>2743300</v>
       </c>
       <c r="H48" s="3">
-        <v>2426100</v>
+        <v>2433400</v>
       </c>
       <c r="I48" s="3">
-        <v>4528300</v>
+        <v>4541800</v>
       </c>
       <c r="J48" s="3">
-        <v>2212900</v>
+        <v>2219400</v>
       </c>
       <c r="K48" s="3">
         <v>2104300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3626700</v>
+        <v>3637500</v>
       </c>
       <c r="E49" s="3">
-        <v>3067900</v>
+        <v>3077000</v>
       </c>
       <c r="F49" s="3">
-        <v>3066400</v>
+        <v>3075500</v>
       </c>
       <c r="G49" s="3">
-        <v>3070000</v>
+        <v>3079100</v>
       </c>
       <c r="H49" s="3">
-        <v>3063000</v>
+        <v>3072100</v>
       </c>
       <c r="I49" s="3">
-        <v>6131300</v>
+        <v>6149500</v>
       </c>
       <c r="J49" s="3">
-        <v>3072400</v>
+        <v>3081500</v>
       </c>
       <c r="K49" s="3">
         <v>3062700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>414500</v>
+        <v>415700</v>
       </c>
       <c r="E52" s="3">
-        <v>377500</v>
+        <v>378600</v>
       </c>
       <c r="F52" s="3">
-        <v>317500</v>
+        <v>318500</v>
       </c>
       <c r="G52" s="3">
-        <v>221700</v>
+        <v>222400</v>
       </c>
       <c r="H52" s="3">
-        <v>210000</v>
+        <v>210600</v>
       </c>
       <c r="I52" s="3">
-        <v>143000</v>
+        <v>143500</v>
       </c>
       <c r="J52" s="3">
-        <v>185800</v>
+        <v>186400</v>
       </c>
       <c r="K52" s="3">
         <v>167800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>373223000</v>
+        <v>374332000</v>
       </c>
       <c r="E54" s="3">
-        <v>339963000</v>
+        <v>340974000</v>
       </c>
       <c r="F54" s="3">
-        <v>319603000</v>
+        <v>320553000</v>
       </c>
       <c r="G54" s="3">
-        <v>299319000</v>
+        <v>300209000</v>
       </c>
       <c r="H54" s="3">
-        <v>287243000</v>
+        <v>288097000</v>
       </c>
       <c r="I54" s="3">
-        <v>265409000</v>
+        <v>266198000</v>
       </c>
       <c r="J54" s="3">
-        <v>251668000</v>
+        <v>252416000</v>
       </c>
       <c r="K54" s="3">
         <v>233564000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4097400</v>
+        <v>4109600</v>
       </c>
       <c r="E57" s="3">
-        <v>3201100</v>
+        <v>3210600</v>
       </c>
       <c r="F57" s="3">
-        <v>3993100</v>
+        <v>4004900</v>
       </c>
       <c r="G57" s="3">
-        <v>2167400</v>
+        <v>2173800</v>
       </c>
       <c r="H57" s="3">
-        <v>2561100</v>
+        <v>2568700</v>
       </c>
       <c r="I57" s="3">
-        <v>2638900</v>
+        <v>2646800</v>
       </c>
       <c r="J57" s="3">
-        <v>3095200</v>
+        <v>3104400</v>
       </c>
       <c r="K57" s="3">
         <v>2683000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1833300</v>
+        <v>1838800</v>
       </c>
       <c r="E59" s="3">
-        <v>1235300</v>
+        <v>1239000</v>
       </c>
       <c r="F59" s="3">
-        <v>1027300</v>
+        <v>1030400</v>
       </c>
       <c r="G59" s="3">
-        <v>1193000</v>
+        <v>1196600</v>
       </c>
       <c r="H59" s="3">
-        <v>1146100</v>
+        <v>1149500</v>
       </c>
       <c r="I59" s="3">
-        <v>1102900</v>
+        <v>1106100</v>
       </c>
       <c r="J59" s="3">
-        <v>853200</v>
+        <v>855700</v>
       </c>
       <c r="K59" s="3">
         <v>846400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30232500</v>
+        <v>30322400</v>
       </c>
       <c r="E61" s="3">
-        <v>25338000</v>
+        <v>25413300</v>
       </c>
       <c r="F61" s="3">
-        <v>22054700</v>
+        <v>22120200</v>
       </c>
       <c r="G61" s="3">
-        <v>18781000</v>
+        <v>18836800</v>
       </c>
       <c r="H61" s="3">
-        <v>22652400</v>
+        <v>22719800</v>
       </c>
       <c r="I61" s="3">
-        <v>18635500</v>
+        <v>18690900</v>
       </c>
       <c r="J61" s="3">
-        <v>19349400</v>
+        <v>19407000</v>
       </c>
       <c r="K61" s="3">
         <v>14995100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>266500</v>
+        <v>267200</v>
       </c>
       <c r="E62" s="3">
-        <v>319000</v>
+        <v>319900</v>
       </c>
       <c r="F62" s="3">
-        <v>322700</v>
+        <v>323700</v>
       </c>
       <c r="G62" s="3">
-        <v>221400</v>
+        <v>222100</v>
       </c>
       <c r="H62" s="3">
-        <v>206400</v>
+        <v>207000</v>
       </c>
       <c r="I62" s="3">
-        <v>131700</v>
+        <v>132100</v>
       </c>
       <c r="J62" s="3">
-        <v>171600</v>
+        <v>172200</v>
       </c>
       <c r="K62" s="3">
         <v>141600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>341126000</v>
+        <v>342140000</v>
       </c>
       <c r="E66" s="3">
-        <v>308409000</v>
+        <v>309326000</v>
       </c>
       <c r="F66" s="3">
-        <v>289330000</v>
+        <v>290190000</v>
       </c>
       <c r="G66" s="3">
-        <v>269982000</v>
+        <v>270785000</v>
       </c>
       <c r="H66" s="3">
-        <v>259396000</v>
+        <v>260167000</v>
       </c>
       <c r="I66" s="3">
-        <v>238134000</v>
+        <v>238842000</v>
       </c>
       <c r="J66" s="3">
-        <v>227337000</v>
+        <v>228013000</v>
       </c>
       <c r="K66" s="3">
         <v>210823000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28647100</v>
+        <v>28732300</v>
       </c>
       <c r="E72" s="3">
-        <v>26799700</v>
+        <v>26879400</v>
       </c>
       <c r="F72" s="3">
-        <v>25044100</v>
+        <v>25118600</v>
       </c>
       <c r="G72" s="3">
-        <v>24356900</v>
+        <v>24429300</v>
       </c>
       <c r="H72" s="3">
-        <v>23037000</v>
+        <v>23105500</v>
       </c>
       <c r="I72" s="3">
-        <v>28477900</v>
+        <v>28562500</v>
       </c>
       <c r="J72" s="3">
-        <v>19966800</v>
+        <v>20026200</v>
       </c>
       <c r="K72" s="3">
         <v>18542300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32096900</v>
+        <v>32192300</v>
       </c>
       <c r="E76" s="3">
-        <v>31554400</v>
+        <v>31648200</v>
       </c>
       <c r="F76" s="3">
-        <v>30272500</v>
+        <v>30362400</v>
       </c>
       <c r="G76" s="3">
-        <v>29336600</v>
+        <v>29423800</v>
       </c>
       <c r="H76" s="3">
-        <v>27846400</v>
+        <v>27929100</v>
       </c>
       <c r="I76" s="3">
-        <v>27274100</v>
+        <v>27355200</v>
       </c>
       <c r="J76" s="3">
-        <v>24330800</v>
+        <v>24403100</v>
       </c>
       <c r="K76" s="3">
         <v>22126300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3328400</v>
+        <v>3338300</v>
       </c>
       <c r="E81" s="3">
-        <v>2962800</v>
+        <v>2971600</v>
       </c>
       <c r="F81" s="3">
-        <v>2090200</v>
+        <v>2096400</v>
       </c>
       <c r="G81" s="3">
-        <v>3142600</v>
+        <v>3151900</v>
       </c>
       <c r="H81" s="3">
-        <v>2884300</v>
+        <v>2892900</v>
       </c>
       <c r="I81" s="3">
-        <v>2433600</v>
+        <v>2440800</v>
       </c>
       <c r="J81" s="3">
-        <v>2223300</v>
+        <v>2229900</v>
       </c>
       <c r="K81" s="3">
         <v>2293800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>397500</v>
+        <v>398600</v>
       </c>
       <c r="E83" s="3">
-        <v>361900</v>
+        <v>363000</v>
       </c>
       <c r="F83" s="3">
-        <v>336000</v>
+        <v>337000</v>
       </c>
       <c r="G83" s="3">
-        <v>295100</v>
+        <v>295900</v>
       </c>
       <c r="H83" s="3">
-        <v>201900</v>
+        <v>202500</v>
       </c>
       <c r="I83" s="3">
-        <v>191200</v>
+        <v>191700</v>
       </c>
       <c r="J83" s="3">
-        <v>164100</v>
+        <v>164600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7478400</v>
+        <v>7500600</v>
       </c>
       <c r="E89" s="3">
-        <v>-2321800</v>
+        <v>-2328700</v>
       </c>
       <c r="F89" s="3">
-        <v>7122400</v>
+        <v>7143500</v>
       </c>
       <c r="G89" s="3">
-        <v>6167300</v>
+        <v>6185700</v>
       </c>
       <c r="H89" s="3">
-        <v>-2743800</v>
+        <v>-2752000</v>
       </c>
       <c r="I89" s="3">
-        <v>2893200</v>
+        <v>2901800</v>
       </c>
       <c r="J89" s="3">
-        <v>-9853800</v>
+        <v>-9883100</v>
       </c>
       <c r="K89" s="3">
         <v>5255600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-521100</v>
+        <v>-522600</v>
       </c>
       <c r="E91" s="3">
-        <v>-407100</v>
+        <v>-408300</v>
       </c>
       <c r="F91" s="3">
-        <v>-416700</v>
+        <v>-417900</v>
       </c>
       <c r="G91" s="3">
-        <v>-424100</v>
+        <v>-425300</v>
       </c>
       <c r="H91" s="3">
-        <v>-382300</v>
+        <v>-383400</v>
       </c>
       <c r="I91" s="3">
-        <v>-258600</v>
+        <v>-259400</v>
       </c>
       <c r="J91" s="3">
-        <v>-283400</v>
+        <v>-284200</v>
       </c>
       <c r="K91" s="3">
         <v>-191100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2747400</v>
+        <v>-2755600</v>
       </c>
       <c r="E94" s="3">
-        <v>-325700</v>
+        <v>-326600</v>
       </c>
       <c r="F94" s="3">
-        <v>-378200</v>
+        <v>-379300</v>
       </c>
       <c r="G94" s="3">
-        <v>-370100</v>
+        <v>-371300</v>
       </c>
       <c r="H94" s="3">
-        <v>-267900</v>
+        <v>-268700</v>
       </c>
       <c r="I94" s="3">
-        <v>-252300</v>
+        <v>-253100</v>
       </c>
       <c r="J94" s="3">
-        <v>-282600</v>
+        <v>-283500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1487700</v>
+        <v>-1492100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1189400</v>
+        <v>-1192900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1359600</v>
+        <v>-1363700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1543000</v>
+        <v>-1547600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1218600</v>
+        <v>-1222300</v>
       </c>
       <c r="I96" s="3">
-        <v>-492200</v>
+        <v>-493600</v>
       </c>
       <c r="J96" s="3">
-        <v>-689800</v>
+        <v>-691900</v>
       </c>
       <c r="K96" s="3">
         <v>-523000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4246200</v>
+        <v>4258800</v>
       </c>
       <c r="E100" s="3">
-        <v>2236700</v>
+        <v>2243400</v>
       </c>
       <c r="F100" s="3">
-        <v>1525400</v>
+        <v>1530000</v>
       </c>
       <c r="G100" s="3">
-        <v>-5624500</v>
+        <v>-5641200</v>
       </c>
       <c r="H100" s="3">
-        <v>1967000</v>
+        <v>1972900</v>
       </c>
       <c r="I100" s="3">
-        <v>-260600</v>
+        <v>-261400</v>
       </c>
       <c r="J100" s="3">
-        <v>3495200</v>
+        <v>3505600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>121400</v>
+        <v>121700</v>
       </c>
       <c r="E101" s="3">
-        <v>120600</v>
+        <v>121000</v>
       </c>
       <c r="F101" s="3">
         <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>249800</v>
+        <v>250500</v>
       </c>
       <c r="H101" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="I101" s="3">
-        <v>-474800</v>
+        <v>-476200</v>
       </c>
       <c r="J101" s="3">
-        <v>108000</v>
+        <v>108400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9098500</v>
+        <v>9125600</v>
       </c>
       <c r="E102" s="3">
-        <v>-290100</v>
+        <v>-291000</v>
       </c>
       <c r="F102" s="3">
-        <v>8271800</v>
+        <v>8296400</v>
       </c>
       <c r="G102" s="3">
-        <v>422500</v>
+        <v>423700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1021500</v>
+        <v>-1024600</v>
       </c>
       <c r="I102" s="3">
-        <v>1905500</v>
+        <v>1911100</v>
       </c>
       <c r="J102" s="3">
-        <v>-6533200</v>
+        <v>-6552700</v>
       </c>
       <c r="K102" s="3">
         <v>6253000</v>
